--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZJ\Workspace\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C94A521-09E7-40EC-82E1-5A67389234AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillTrack" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,67 +248,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TimeLineID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit1</t>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_xuli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每段伤害比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1: 播动作
 2: 挂特效
-3: SkillEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeLineID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comb1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comb2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1</t>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1_slash1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1_slash2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1_slash3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1_xuli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1</t>
+3: SkillEffect
+4-朝目标移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假多段，伤害权重
+真多段，每段从eff中读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retreatDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标受击后
+被击退的距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击距离
+同一timeline中
+目标被击退后
+需要追击的记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -465,11 +528,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,11 +592,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -774,20 +916,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C1:M20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="C1:M20"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="TimeLineID" dataDxfId="10"/>
-    <tableColumn id="6" name="Track" dataDxfId="9"/>
-    <tableColumn id="14" name="类型" dataDxfId="8"/>
-    <tableColumn id="8" name="开始时间" dataDxfId="7"/>
-    <tableColumn id="9" name="持续时间" dataDxfId="6"/>
-    <tableColumn id="15" name="effect顺序" dataDxfId="5"/>
-    <tableColumn id="4" name="表演ID" dataDxfId="4"/>
-    <tableColumn id="24" name="施法特效" dataDxfId="3"/>
-    <tableColumn id="12" name="被击动作编号" dataDxfId="2"/>
-    <tableColumn id="22" name="受击特效" dataDxfId="1"/>
-    <tableColumn id="23" name="插槽ID" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:P21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="C1:P21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Track" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="类型" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="开始时间" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="effect顺序" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="表演ID" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7A2F5B3D-3A11-4980-8192-317F9AFAD194}" name="每段伤害比例" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{506D9AC1-7AB8-4109-A894-09EFE727A19F}" name="己方位移" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{476B8673-D5EC-44AA-912D-41D0BABF0643}" name="敌方位移" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1055,33 +1200,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.58203125" style="1"/>
-    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.625" style="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.75" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.58203125" style="1"/>
-    <col min="16" max="16" width="15.58203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.58203125" style="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.75" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.625" style="1"/>
+    <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>12</v>
@@ -1121,15 +1268,24 @@
       <c r="M1" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="11"/>
       <c r="E2" s="14" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>18</v>
@@ -1155,8 +1311,17 @@
       <c r="M2" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1193,8 +1358,17 @@
       <c r="M3" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1231,8 +1405,17 @@
       <c r="M4" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1251,8 +1434,11 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1284,13 +1470,22 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
@@ -1306,11 +1501,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>1001</v>
       </c>
@@ -1329,7 +1524,7 @@
       <c r="J8" s="15"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>1001</v>
       </c>
@@ -1351,13 +1546,16 @@
         <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P9" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>1002</v>
       </c>
@@ -1373,11 +1571,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>1002</v>
       </c>
@@ -1396,7 +1594,7 @@
       <c r="J11" s="15"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>1002</v>
       </c>
@@ -1411,7 +1609,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2"/>
       <c r="K12" s="1" t="s">
@@ -1423,8 +1621,11 @@
       <c r="M12" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>1003</v>
       </c>
@@ -1442,11 +1643,11 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>1003</v>
       </c>
@@ -1465,13 +1666,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>1003</v>
       </c>
@@ -1487,17 +1688,15 @@
       <c r="G15" s="2">
         <v>1.8</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>1003</v>
       </c>
@@ -1513,17 +1712,15 @@
       <c r="G16" s="2">
         <v>1.0329999999999999</v>
       </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>1003</v>
       </c>
@@ -1542,12 +1739,12 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>1003</v>
       </c>
@@ -1561,45 +1758,48 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="K18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="4">
+      <c r="N18" s="1">
+        <v>300</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
         <v>1003</v>
       </c>
       <c r="D19" s="2">
         <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2">
-        <v>1.4670000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="K19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="K19" s="2"/>
+      <c r="O19" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>1003</v>
       </c>
@@ -1610,20 +1810,58 @@
         <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>1.833</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="K20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>60</v>
+      <c r="L20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="N20" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.833</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="5">
+        <v>400</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZJ\worksapce\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C94A521-09E7-40EC-82E1-5A67389234AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillTrack" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitSlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hitAnimName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,14 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能释放者动作名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,132 +232,86 @@
   </si>
   <si>
     <t>手机特效插槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeLineID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comb1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comb2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1</t>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1_slash1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1_slash2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1_slash3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1_xuli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每段伤害比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方位移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1: 播动作
 2: 挂特效
-3: SkillEffect
-4-朝目标移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假多段，伤害权重
-真多段，每段从eff中读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retreatDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标受击后
-被击退的距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追击移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>followDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追击距离
-同一timeline中
-目标被击退后
-需要追击的记录</t>
+3: SkillEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeLineID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit1</t>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_xuli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitFxSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击顿帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitStopTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip01 Spine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,55 +536,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -916,23 +819,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:P21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="C1:P21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Track" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="类型" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="开始时间" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="effect顺序" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="表演ID" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7A2F5B3D-3A11-4980-8192-317F9AFAD194}" name="每段伤害比例" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{506D9AC1-7AB8-4109-A894-09EFE727A19F}" name="己方位移" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{476B8673-D5EC-44AA-912D-41D0BABF0643}" name="敌方位移" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C1:N20" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="C1:N20"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="TimeLineID" dataDxfId="11"/>
+    <tableColumn id="6" name="Track" dataDxfId="10"/>
+    <tableColumn id="14" name="类型" dataDxfId="9"/>
+    <tableColumn id="8" name="开始时间" dataDxfId="8"/>
+    <tableColumn id="9" name="持续时间" dataDxfId="7"/>
+    <tableColumn id="15" name="effect顺序" dataDxfId="6"/>
+    <tableColumn id="4" name="表演ID" dataDxfId="5"/>
+    <tableColumn id="24" name="施法特效" dataDxfId="4"/>
+    <tableColumn id="12" name="被击动作编号" dataDxfId="3"/>
+    <tableColumn id="22" name="受击特效" dataDxfId="2"/>
+    <tableColumn id="23" name="插槽ID" dataDxfId="1"/>
+    <tableColumn id="2" name="被击顿帧" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1200,11 +1101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1218,17 +1119,15 @@
     <col min="10" max="10" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.75" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.625" style="1"/>
-    <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="1"/>
+    <col min="13" max="13" width="16.75" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.625" style="1"/>
+    <col min="16" max="16" width="15.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>12</v>
@@ -1266,26 +1165,20 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="11"/>
       <c r="E2" s="14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>18</v>
@@ -1297,31 +1190,25 @@
         <v>41</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1350,25 +1237,19 @@
         <v>25</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1397,25 +1278,19 @@
         <v>28</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,10 +1310,8 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1470,22 +1343,16 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
@@ -1501,11 +1368,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>1001</v>
       </c>
@@ -1524,7 +1391,7 @@
       <c r="J8" s="15"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>1001</v>
       </c>
@@ -1535,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -1546,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>1002</v>
       </c>
@@ -1571,11 +1438,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>1002</v>
       </c>
@@ -1594,7 +1461,7 @@
       <c r="J11" s="15"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>1002</v>
       </c>
@@ -1605,11 +1472,11 @@
         <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2"/>
       <c r="K12" s="1" t="s">
@@ -1619,13 +1486,13 @@
         <v>29</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>1003</v>
       </c>
@@ -1643,11 +1510,11 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>1003</v>
       </c>
@@ -1666,13 +1533,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>1003</v>
       </c>
@@ -1688,15 +1555,17 @@
       <c r="G15" s="2">
         <v>1.8</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>1003</v>
       </c>
@@ -1712,15 +1581,17 @@
       <c r="G16" s="2">
         <v>1.0329999999999999</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>1003</v>
       </c>
@@ -1739,12 +1610,12 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>1003</v>
       </c>
@@ -1758,48 +1629,45 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="K18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="1">
-        <v>300</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
         <v>1003</v>
       </c>
       <c r="D19" s="2">
         <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
-        <v>0.83299999999999996</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="O19" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>1003</v>
       </c>
@@ -1810,58 +1678,21 @@
         <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>1.4670000000000001</v>
+        <v>1.833</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="K20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>59</v>
+      <c r="L20" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C21" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D21" s="2">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.833</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="K21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="5">
-        <v>400</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="N20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZJ\worksapce\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892C4BED-7126-4003-9C1B-675AE6495DCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,20 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机特效插槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: 播动作
-2: 挂特效
-3: SkillEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeLineID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comb2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,23 +283,300 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hitStopTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip01 Spine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trackid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻1</t>
+  </si>
+  <si>
+    <t>男主-普攻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_xuli</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash1</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash2</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash3</t>
+  </si>
+  <si>
+    <t>bak1</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>男主-技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_merlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_xuli_explore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_bullet</t>
+  </si>
+  <si>
+    <t>Fx_attack_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_hit</t>
+  </si>
+  <si>
+    <t>Fx_attack_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack1_xuli</t>
+  </si>
+  <si>
+    <t>Fx_attack1_xuli_explore</t>
+  </si>
+  <si>
+    <t>Fx_attack1_xuli_explore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每段伤害比例</t>
+  </si>
+  <si>
+    <t>假多段，伤害权重
+真多段，每段从eff中读取</t>
+  </si>
+  <si>
+    <t>己方位移</t>
+  </si>
+  <si>
+    <t>敌方位移</t>
+  </si>
+  <si>
+    <t>追击距离
+同一timeline中
+目标被击退后
+需要追击的记录</t>
+  </si>
+  <si>
+    <t>目标受击后
+被击退的距离</t>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retreatDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash1</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼白-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼白-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit2</t>
+  </si>
+  <si>
+    <t>蝙蝠-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动特效的
+移动目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveFxTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>comb1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitStopTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bip01 Spine</t>
+    <t>Fx_attack_waterball_merlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：播动作
+2：挂特效
+3：SkillEffect
+4：移动特效
+5：相机
+6：相机融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_waterball_merlin</t>
+  </si>
+  <si>
+    <t>Fx_daoguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang_hit01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang_hit02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang_hit03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang_hit04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +598,30 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -486,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,20 +821,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -624,9 +984,43 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -819,21 +1213,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C1:N20" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="C1:N20"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="TimeLineID" dataDxfId="11"/>
-    <tableColumn id="6" name="Track" dataDxfId="10"/>
-    <tableColumn id="14" name="类型" dataDxfId="9"/>
-    <tableColumn id="8" name="开始时间" dataDxfId="8"/>
-    <tableColumn id="9" name="持续时间" dataDxfId="7"/>
-    <tableColumn id="15" name="effect顺序" dataDxfId="6"/>
-    <tableColumn id="4" name="表演ID" dataDxfId="5"/>
-    <tableColumn id="24" name="施法特效" dataDxfId="4"/>
-    <tableColumn id="12" name="被击动作编号" dataDxfId="3"/>
-    <tableColumn id="22" name="受击特效" dataDxfId="2"/>
-    <tableColumn id="23" name="插槽ID" dataDxfId="1"/>
-    <tableColumn id="2" name="被击顿帧" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:S107" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="C1:S107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Track" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="类型" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="开始时间" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="effect顺序" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="表演ID" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{470E93AD-9F41-4F3A-B6BF-61600D4F44BD}" name="移动目标" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="被击顿帧" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{DF88DA98-025D-4DC3-8DE8-82B3EFA59B14}" name="每段伤害比例" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{90365456-9CAE-40E2-812B-AA11957A838E}" name="己方位移" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{DDEDE133-C252-4BA0-AE82-D9664E6CC1F1}" name="敌方位移" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1101,33 +1500,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.625" style="1"/>
-    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.75" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.625" style="1"/>
-    <col min="16" max="16" width="15.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="1"/>
+    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
+    <col min="16" max="17" width="10.625" style="1"/>
+    <col min="18" max="18" width="15.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,564 +1539,3103 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="M6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="P6" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
+      <c r="D7" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>1001</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.38329999999999997</v>
+      </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>1001</v>
       </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.3667</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="1">
         <v>0.2</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="K9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>1002</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
+      <c r="D10" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H10" s="2">
+        <v>4.633</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>1002</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>4.633</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>1002</v>
       </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.6</v>
+      </c>
       <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="K12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>0.4667</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.4667</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.4667</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.9666999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C14" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C17" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5</v>
-      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0669999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="M18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C18" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="O18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C22" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C23" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C24" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C25" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C26" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.833</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2">
         <v>6</v>
       </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="K18" s="1" t="s">
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="M27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C19" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="N27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2">
         <v>7</v>
       </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C29" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.833</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="M29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1.833</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1.833</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.833</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.833</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C49" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1.133</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C50" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C51" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C52" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C53" s="4">
+        <v>3002</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H53" s="4">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C54" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C55" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1.133</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C56" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C57" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C58" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2">
+        <v>7</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C59" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
+        <v>8</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.4083</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C61" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C62" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C63" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C64" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C65" s="4">
+        <v>3003</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
+        <v>4</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1.133</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C66" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
+        <v>5</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C67" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
+        <v>6</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C68" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C69" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
+        <v>8</v>
+      </c>
+      <c r="F69" s="2">
+        <v>3</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.4083</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C70" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <v>9</v>
+      </c>
+      <c r="F70" s="2">
+        <v>3</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C71" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2">
+        <v>3</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C72" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C73" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H73" s="2">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C74" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C75" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2</v>
+      </c>
+      <c r="G75" s="2">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1.133</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C76" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C77" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
+        <v>6</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1</v>
+      </c>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C78" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
+        <v>7</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2</v>
+      </c>
+      <c r="G78" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C79" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
+        <v>8</v>
+      </c>
+      <c r="F79" s="2">
+        <v>3</v>
+      </c>
+      <c r="G79" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.4083</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C80" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2">
+        <v>3</v>
+      </c>
+      <c r="G80" s="2">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C81" s="4">
+        <v>3004</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4">
+        <v>10</v>
+      </c>
+      <c r="F81" s="4">
+        <v>3</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5">
+        <v>400</v>
+      </c>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C82" s="2">
+        <v>4001</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C83" s="2">
+        <v>4001</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C84" s="2">
+        <v>4001</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>3</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C85" s="2">
+        <v>4002</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C86" s="2">
+        <v>4002</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1.333</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C87" s="2">
+        <v>4002</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1.333</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C88" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>1.167</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C89" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>2</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C90" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <v>3</v>
+      </c>
+      <c r="F90" s="2">
+        <v>3</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C91" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C92" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
+        <v>2</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C93" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>3</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C94" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2">
+        <v>4</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C95" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2">
+        <v>5</v>
+      </c>
+      <c r="F95" s="2">
+        <v>3</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C96" s="4">
+        <v>5002</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4">
+        <v>6</v>
+      </c>
+      <c r="F96" s="4">
+        <v>3</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4">
+        <v>1</v>
+      </c>
+      <c r="J96" s="4"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>300</v>
+      </c>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C97" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
+        <v>7</v>
+      </c>
+      <c r="F97" s="2">
+        <v>3</v>
+      </c>
+      <c r="G97" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="4">
+        <v>1</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C98" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
         <v>1.4670000000000001</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="K19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.833</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="K20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="5"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C99" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2">
+        <v>2</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C100" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <v>3</v>
+      </c>
+      <c r="F100" s="2">
+        <v>3</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C101" s="2">
+        <v>6002</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C102" s="2">
+        <v>6002</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2">
+        <v>2</v>
+      </c>
+      <c r="F102" s="2">
+        <v>2</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C103" s="4">
+        <v>6002</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4">
+        <v>5</v>
+      </c>
+      <c r="F103" s="4">
+        <v>3</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4">
+        <v>1</v>
+      </c>
+      <c r="J103" s="4"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892C4BED-7126-4003-9C1B-675AE6495DCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F461D67F-9375-470E-90E0-4BB2D9330C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,10 +333,6 @@
   </si>
   <si>
     <t>hit</t>
-  </si>
-  <si>
-    <t>男主-技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男主-技能4</t>
@@ -569,6 +565,63 @@
   </si>
   <si>
     <t>Fx_atk1_daoguang_hit04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能3-奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill_xuli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill_slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill_slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill_slash3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill_slash4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill_luodi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill_slash5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击动作
+仅表现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,8 +1266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:S107" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="C1:S107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:S117" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="C1:S117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="15"/>
@@ -1501,13 +1554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S107"/>
+  <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7:P116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1566,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>23</v>
@@ -1581,13 +1634,13 @@
         <v>63</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,7 +1653,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -1618,7 +1671,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>45</v>
@@ -1630,16 +1683,16 @@
         <v>50</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1672,7 +1725,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>44</v>
@@ -1687,13 +1740,13 @@
         <v>64</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1726,7 +1779,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>45</v>
@@ -1741,13 +1794,13 @@
         <v>45</v>
       </c>
       <c r="Q4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="S4" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1806,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>14</v>
@@ -1835,7 +1888,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1851,7 +1904,7 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1875,7 +1928,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1904,13 +1957,13 @@
         <v>77</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="1">
-        <v>0.2</v>
+      <c r="Q9" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1918,7 +1971,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1959,7 +2012,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1990,7 +2043,7 @@
         <v>77</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>54</v>
@@ -2025,7 +2078,7 @@
         <v>77</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>54</v>
@@ -2060,7 +2113,7 @@
         <v>77</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>54</v>
@@ -2095,7 +2148,7 @@
         <v>77</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>54</v>
@@ -2125,7 +2178,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2142,13 +2195,13 @@
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L17" s="15"/>
       <c r="O17" s="2"/>
@@ -2165,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
@@ -2181,8 +2234,8 @@
       <c r="O18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="1">
-        <v>0.2</v>
+      <c r="Q18" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.2">
@@ -2230,7 +2283,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L20" s="15"/>
       <c r="O20" s="2"/>
@@ -2263,8 +2316,8 @@
       <c r="O21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="1">
-        <v>0.3</v>
+      <c r="Q21" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
@@ -2499,7 +2552,7 @@
         <v>2004</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2511,11 +2564,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>2.8330000000000002</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -2535,12 +2588,12 @@
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0.8</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2557,20 +2610,20 @@
         <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>0.85</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="H32" s="2">
-        <v>1.8</v>
+        <v>0.7167</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>2004</v>
       </c>
@@ -2582,20 +2635,20 @@
         <v>2</v>
       </c>
       <c r="G33" s="2">
-        <v>1.4330000000000001</v>
+        <v>1.3833</v>
       </c>
       <c r="H33" s="2">
-        <v>1.0329999999999999</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>2004</v>
       </c>
@@ -2607,20 +2660,20 @@
         <v>2</v>
       </c>
       <c r="G34" s="2">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="H34" s="2">
-        <v>1.0669999999999999</v>
+        <v>0.51590000000000003</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>2004</v>
       </c>
@@ -2629,28 +2682,23 @@
         <v>6</v>
       </c>
       <c r="F35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
+        <v>2.2667000000000002</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
+      <c r="K35" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>2004</v>
       </c>
@@ -2659,198 +2707,227 @@
         <v>7</v>
       </c>
       <c r="F36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3.7332999999999998</v>
+      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
+      <c r="K36" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>2004</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
         <v>8</v>
       </c>
-      <c r="F37" s="4">
-        <v>3</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1.833</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="2">
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>2.35</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>1.833</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2">
-        <v>6</v>
+      <c r="E43" s="4">
+        <v>14</v>
       </c>
       <c r="F43" s="2">
         <v>3</v>
       </c>
       <c r="G43" s="2">
-        <v>0.85</v>
+        <v>5.5</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2">
@@ -2862,220 +2939,222 @@
         <v>77</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>2005</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E44" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
         <v>2005</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2">
-        <v>1.833</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
+      <c r="K45" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
-        <v>3001</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="H46" s="2">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>83</v>
+      <c r="J46" s="2"/>
+      <c r="K46" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
-        <v>3001</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4">
-        <v>2</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2">
         <v>2</v>
       </c>
       <c r="G48" s="2">
-        <v>0.433</v>
+        <v>1.833</v>
       </c>
       <c r="H48" s="2">
-        <v>1.4330000000000001</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="1" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1.133</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="M49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
       </c>
       <c r="G50" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0.433</v>
-      </c>
-      <c r="I50" s="2"/>
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="2">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" s="2">
         <v>3</v>
       </c>
       <c r="G51" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0.86699999999999999</v>
-      </c>
+        <v>1.833</v>
+      </c>
+      <c r="H51" s="2"/>
       <c r="I51" s="2">
         <v>1</v>
       </c>
@@ -3085,21 +3164,21 @@
         <v>77</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.2</v>
+        <v>78</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -3111,18 +3190,18 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>3.8330000000000002</v>
+        <v>1.87</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C53" s="4">
-        <v>3002</v>
+      <c r="C53" s="2">
+        <v>3001</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4">
@@ -3132,15 +3211,15 @@
         <v>2</v>
       </c>
       <c r="G53" s="4">
-        <v>0.8</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="H53" s="4">
-        <v>3.0329999999999999</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="1" t="s">
-        <v>93</v>
+      <c r="K53" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -3150,7 +3229,7 @@
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
@@ -3160,22 +3239,22 @@
         <v>2</v>
       </c>
       <c r="G54" s="2">
-        <v>1</v>
+        <v>0.433</v>
       </c>
       <c r="H54" s="2">
-        <v>2.8330000000000002</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2">
@@ -3185,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="2">
-        <v>2.1829999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="H55" s="2">
         <v>1.133</v>
@@ -3193,14 +3272,14 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2">
@@ -3210,15 +3289,15 @@
         <v>2</v>
       </c>
       <c r="G56" s="2">
-        <v>2.2330000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H56" s="2">
-        <v>0.1</v>
+        <v>0.433</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L56" s="2">
         <v>1</v>
@@ -3227,92 +3306,92 @@
     </row>
     <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2">
         <v>6</v>
       </c>
       <c r="F57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="2">
-        <v>2.3330000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="H57" s="2">
-        <v>0.183</v>
-      </c>
-      <c r="I57" s="2"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L57" s="2">
-        <v>1</v>
-      </c>
-      <c r="M57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="2">
         <v>3002</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E58" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="2">
-        <v>2.5670000000000002</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>0.183</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
+      <c r="J58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>3002</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2">
-        <v>8</v>
-      </c>
-      <c r="F59" s="2">
-        <v>3</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2.3332999999999999</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.4083</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>300</v>
-      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H59" s="4">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="2">
@@ -3320,34 +3399,24 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F60" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="2">
-        <v>2.4750000000000001</v>
+        <v>1</v>
       </c>
       <c r="H60" s="2">
-        <v>0.45829999999999999</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1</v>
-      </c>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
+      <c r="K60" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L60" s="2"/>
-      <c r="M60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>300</v>
-      </c>
+      <c r="M60" s="2"/>
     </row>
     <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="2">
@@ -3355,221 +3424,235 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F61" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" s="2">
-        <v>2.6667000000000001</v>
+        <v>2.1829999999999998</v>
       </c>
       <c r="H61" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I61" s="2">
-        <v>1</v>
-      </c>
+        <v>1.133</v>
+      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="2"/>
+      <c r="K61" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>400</v>
-      </c>
+      <c r="M61" s="2"/>
     </row>
     <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="2">
-        <v>3003</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>3002</v>
+      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="H62" s="2">
-        <v>3.8330000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F63" s="2">
         <v>2</v>
       </c>
       <c r="G63" s="2">
-        <v>0.8</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H63" s="2">
-        <v>3.0329999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L63" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F64" s="2">
         <v>2</v>
       </c>
       <c r="G64" s="2">
-        <v>1</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="H64" s="2">
-        <v>2.8330000000000002</v>
+        <v>0.183</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L64" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C65" s="4">
-        <v>3003</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4">
-        <v>4</v>
-      </c>
-      <c r="F65" s="4">
-        <v>2</v>
-      </c>
-      <c r="G65" s="4">
-        <v>2.1829999999999998</v>
-      </c>
-      <c r="H65" s="4">
-        <v>1.133</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
+      <c r="C65" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.4083</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C66" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F66" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="2">
-        <v>2.2330000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H66" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I66" s="2"/>
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
       <c r="J66" s="2"/>
-      <c r="K66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L66" s="2">
-        <v>1</v>
-      </c>
-      <c r="M66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C67" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="2">
-        <v>2.3330000000000002</v>
+        <v>2.6667000000000001</v>
       </c>
       <c r="H67" s="2">
-        <v>0.183</v>
-      </c>
-      <c r="I67" s="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>400</v>
+      </c>
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C68" s="2">
         <v>3003</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E68" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="2">
-        <v>2.5670000000000002</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.183</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L68" s="2">
-        <v>1</v>
-      </c>
+      <c r="J68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="3:19" x14ac:dyDescent="0.2">
@@ -3578,34 +3661,24 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F69" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" s="2">
-        <v>2.3332999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H69" s="2">
-        <v>0.4083</v>
-      </c>
-      <c r="I69" s="2">
-        <v>1</v>
-      </c>
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
+      <c r="K69" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L69" s="2"/>
-      <c r="M69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>300</v>
-      </c>
+      <c r="M69" s="2"/>
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C70" s="2">
@@ -3613,250 +3686,266 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F70" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" s="2">
-        <v>2.4750000000000001</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2">
-        <v>0.45829999999999999</v>
-      </c>
-      <c r="I70" s="2">
-        <v>1</v>
-      </c>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I70" s="2"/>
       <c r="J70" s="2"/>
+      <c r="K70" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L70" s="2"/>
-      <c r="M70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>300</v>
-      </c>
+      <c r="M70" s="2"/>
     </row>
     <row r="71" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C71" s="2">
+      <c r="C71" s="4">
         <v>3003</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2">
-        <v>10</v>
-      </c>
-      <c r="F71" s="2">
-        <v>3</v>
-      </c>
-      <c r="G71" s="2">
-        <v>2.6667000000000001</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>400</v>
-      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4">
+        <v>4</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1.133</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C72" s="2">
-        <v>3004</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>3003</v>
+      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="H72" s="2">
-        <v>3.8330000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C73" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F73" s="2">
         <v>2</v>
       </c>
       <c r="G73" s="2">
-        <v>0.8</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H73" s="2">
-        <v>3.0329999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L73" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C74" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F74" s="2">
         <v>2</v>
       </c>
       <c r="G74" s="2">
-        <v>1</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="H74" s="2">
-        <v>2.8330000000000002</v>
+        <v>0.183</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L74" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C75" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F75" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="2">
-        <v>2.1829999999999998</v>
+        <v>2.3332999999999999</v>
       </c>
       <c r="H75" s="2">
-        <v>1.133</v>
-      </c>
-      <c r="I75" s="2"/>
+        <v>0.4083</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
       <c r="J75" s="2"/>
-      <c r="K75" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="M75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="76" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C76" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F76" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" s="2">
-        <v>2.2330000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H76" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I76" s="2"/>
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
       <c r="J76" s="2"/>
-      <c r="K76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L76" s="2">
-        <v>1</v>
-      </c>
-      <c r="M76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="77" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C77" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" s="2">
-        <v>2.3330000000000002</v>
+        <v>2.6667000000000001</v>
       </c>
       <c r="H77" s="2">
-        <v>0.183</v>
-      </c>
-      <c r="I77" s="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
       <c r="J77" s="2"/>
-      <c r="K77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L77" s="2">
-        <v>1</v>
-      </c>
-      <c r="M77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>400</v>
+      </c>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C78" s="2">
         <v>3004</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E78" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="2">
-        <v>2.5670000000000002</v>
+        <v>0</v>
       </c>
       <c r="H78" s="2">
-        <v>0.183</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L78" s="2">
-        <v>1</v>
-      </c>
+      <c r="J78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="3:19" x14ac:dyDescent="0.2">
@@ -3865,34 +3954,24 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F79" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" s="2">
-        <v>2.3332999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H79" s="2">
-        <v>0.4083</v>
-      </c>
-      <c r="I79" s="2">
-        <v>1</v>
-      </c>
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
+      <c r="K79" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L79" s="2"/>
-      <c r="M79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>300</v>
-      </c>
+      <c r="M79" s="2"/>
     </row>
     <row r="80" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C80" s="2">
@@ -3900,238 +3979,246 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F80" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" s="2">
-        <v>2.4750000000000001</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2">
-        <v>0.45829999999999999</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1</v>
-      </c>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I80" s="2"/>
       <c r="J80" s="2"/>
+      <c r="K80" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L80" s="2"/>
-      <c r="M80" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q80" s="1">
-        <v>300</v>
-      </c>
+      <c r="M80" s="2"/>
     </row>
     <row r="81" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C81" s="4">
+      <c r="C81" s="2">
         <v>3004</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4">
-        <v>10</v>
-      </c>
-      <c r="F81" s="4">
-        <v>3</v>
-      </c>
-      <c r="G81" s="4">
-        <v>2.6667000000000001</v>
-      </c>
-      <c r="H81" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="I81" s="4">
-        <v>1</v>
-      </c>
-      <c r="J81" s="4"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O81" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5">
-        <v>400</v>
-      </c>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2</v>
+      </c>
+      <c r="G81" s="2">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1.133</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
     </row>
     <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="2">
-        <v>4001</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>3004</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" s="2">
-        <v>0</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="H82" s="2">
-        <v>2.0329999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I82" s="2"/>
-      <c r="J82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="2">
-        <v>4001</v>
+        <v>3004</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F83" s="2">
         <v>2</v>
       </c>
       <c r="G83" s="2">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2"/>
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.183</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L83" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="2">
-        <v>4001</v>
+        <v>3004</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F84" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2">
-        <v>1</v>
-      </c>
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="K84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L84" s="2">
+        <v>1</v>
+      </c>
+      <c r="M84" s="2"/>
     </row>
     <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="2">
-        <v>4002</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>3004</v>
+      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F85" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" s="2">
-        <v>0</v>
+        <v>2.3332999999999999</v>
       </c>
       <c r="H85" s="2">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>0.4083</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
+      <c r="M85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="2">
-        <v>4002</v>
+        <v>3004</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G86" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
       <c r="J86" s="2"/>
-      <c r="K86" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
+      <c r="M86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="87" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C87" s="2">
-        <v>4002</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2">
-        <v>3</v>
-      </c>
-      <c r="F87" s="2">
-        <v>3</v>
-      </c>
-      <c r="G87" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2">
-        <v>1</v>
-      </c>
-      <c r="J87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2" t="s">
+      <c r="C87" s="4">
+        <v>3004</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4">
+        <v>10</v>
+      </c>
+      <c r="F87" s="4">
+        <v>3</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O87" s="1" t="s">
+      <c r="N87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O87" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5">
+        <v>400</v>
+      </c>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
     </row>
     <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="2">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -4143,18 +4230,18 @@
         <v>0</v>
       </c>
       <c r="H88" s="2">
-        <v>1.167</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="2">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
@@ -4164,20 +4251,20 @@
         <v>2</v>
       </c>
       <c r="G89" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="2">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
@@ -4187,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="G90" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2">
@@ -4199,21 +4286,21 @@
         <v>77</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P90" s="1">
-        <v>0.2</v>
+      <c r="Q90" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
-        <v>5002</v>
+        <v>4002</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
@@ -4225,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <v>2.5670000000000002</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
@@ -4236,7 +4323,7 @@
     </row>
     <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
-        <v>5002</v>
+        <v>4002</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2">
@@ -4246,396 +4333,684 @@
         <v>2</v>
       </c>
       <c r="G92" s="2">
-        <v>0.4</v>
+        <v>1.333</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="2">
-        <v>5002</v>
+        <v>4002</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2">
         <v>3</v>
       </c>
       <c r="F93" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G93" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.333</v>
       </c>
       <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
       <c r="J93" s="2"/>
-      <c r="K93" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="M93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>5001</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="E94" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F94" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="H94" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1.167</v>
+      </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="1" t="s">
-        <v>111</v>
+      <c r="J94" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
     <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="2">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F95" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" s="2">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H95" s="2"/>
-      <c r="I95" s="2">
-        <v>1</v>
-      </c>
+      <c r="I95" s="2"/>
       <c r="J95" s="2"/>
+      <c r="K95" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="L95" s="2"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C96" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2">
+        <v>3</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P95" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C96" s="4">
-        <v>5002</v>
-      </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4">
-        <v>6</v>
-      </c>
-      <c r="F96" s="4">
-        <v>3</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4">
-        <v>1</v>
-      </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P96" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Q96" s="5">
-        <v>300</v>
-      </c>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
+      <c r="Q96" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="2">
         <v>5002</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E97" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F97" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G97" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="4">
-        <v>1</v>
-      </c>
-      <c r="J97" s="2"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P97" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
     </row>
     <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>5002</v>
+      </c>
+      <c r="D98" s="2"/>
       <c r="E98" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="2">
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
-        <v>1.4670000000000001</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="2" t="s">
-        <v>82</v>
+      <c r="J98" s="2"/>
+      <c r="K98" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="2">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" s="2">
         <v>2</v>
       </c>
       <c r="G99" s="2">
-        <v>0.57999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="2">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" s="2">
-        <v>0.62</v>
+        <v>2.1</v>
       </c>
       <c r="H100" s="2"/>
-      <c r="I100" s="2">
-        <v>1</v>
-      </c>
+      <c r="I100" s="2"/>
       <c r="J100" s="2"/>
+      <c r="K100" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="L100" s="2"/>
-      <c r="M100" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P100" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="M100" s="2"/>
     </row>
     <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>5002</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F101" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G101" s="2">
-        <v>0</v>
-      </c>
-      <c r="H101" s="2">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="M101" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="102" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C102" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2">
-        <v>2</v>
-      </c>
-      <c r="F102" s="2">
-        <v>2</v>
+      <c r="C102" s="4">
+        <v>5002</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4">
+        <v>6</v>
+      </c>
+      <c r="F102" s="4">
+        <v>3</v>
       </c>
       <c r="G102" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4">
+        <v>1</v>
+      </c>
+      <c r="J102" s="4"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5">
+        <v>300</v>
+      </c>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
     </row>
     <row r="103" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C103" s="4">
-        <v>6002</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4">
-        <v>5</v>
-      </c>
-      <c r="F103" s="4">
-        <v>3</v>
-      </c>
-      <c r="G103" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H103" s="4"/>
+      <c r="C103" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2">
+        <v>7</v>
+      </c>
+      <c r="F103" s="2">
+        <v>3</v>
+      </c>
+      <c r="G103" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H103" s="2"/>
       <c r="I103" s="4">
         <v>1</v>
       </c>
-      <c r="J103" s="4"/>
-      <c r="K103" s="5"/>
+      <c r="J103" s="2"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O103" s="5" t="s">
+      <c r="O103" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P103" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
+      <c r="Q103" s="1">
+        <v>400</v>
+      </c>
     </row>
     <row r="104" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="C104" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>1.4670000000000001</v>
+      </c>
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
+      <c r="C105" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
+        <v>2</v>
+      </c>
+      <c r="F105" s="2">
+        <v>2</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
     </row>
     <row r="106" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C106" s="2"/>
+      <c r="C106" s="2">
+        <v>6001</v>
+      </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
+      <c r="E106" s="2">
+        <v>3</v>
+      </c>
+      <c r="F106" s="2">
+        <v>3</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.65</v>
+      </c>
       <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
+      <c r="I106" s="2">
+        <v>1</v>
+      </c>
       <c r="J106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
+      <c r="M106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="107" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="C107" s="2">
+        <v>6002</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>2.2669999999999999</v>
+      </c>
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C108" s="2">
+        <v>6002</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2">
+        <v>2</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C109" s="4">
+        <v>6002</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4">
+        <v>3</v>
+      </c>
+      <c r="F109" s="4">
+        <v>3</v>
+      </c>
+      <c r="G109" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4">
+        <v>1</v>
+      </c>
+      <c r="J109" s="4"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C110" s="2">
+        <v>8002</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>4</v>
+      </c>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C111" s="2">
+        <v>8002</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4">
+        <v>2</v>
+      </c>
+      <c r="F111" s="4">
+        <v>2</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C112" s="2">
+        <v>8002</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2">
+        <v>3</v>
+      </c>
+      <c r="F112" s="2">
+        <v>2</v>
+      </c>
+      <c r="G112" s="2">
+        <v>2.7332999999999998</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C113" s="2">
+        <v>8002</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2">
+        <v>4</v>
+      </c>
+      <c r="F113" s="2">
+        <v>3</v>
+      </c>
+      <c r="G113" s="2">
+        <v>2</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C114" s="2">
+        <v>8002</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2">
+        <v>5</v>
+      </c>
+      <c r="F114" s="2">
+        <v>3</v>
+      </c>
+      <c r="G114" s="2">
+        <v>2.7332999999999998</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2">
+        <v>1</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F461D67F-9375-470E-90E0-4BB2D9330C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81118943-0E71-4D5A-A829-034788305A84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="162">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,6 +622,46 @@
   <si>
     <t>受击动作
 仅表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk1_tuowei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk1_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法挂载点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fxSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效挂载点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuandian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +942,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1004,6 +1044,23 @@
         <left style="thin">
           <color theme="0"/>
         </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1266,18 +1323,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:S117" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="C1:S117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Track" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="类型" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="开始时间" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="effect顺序" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="表演ID" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:T117" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="C1:T117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Track" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="类型" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="开始时间" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="effect顺序" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="表演ID" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{8692EDDB-C4C2-425A-8362-E7FA0DAB0755}" name="施法挂载点" dataDxfId="8"/>
     <tableColumn id="11" xr3:uid="{470E93AD-9F41-4F3A-B6BF-61600D4F44BD}" name="移动目标" dataDxfId="7"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="6"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="5"/>
@@ -1554,13 +1612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="F85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7:P116"/>
+      <selection pane="bottomRight" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1573,18 +1631,18 @@
     <col min="9" max="9" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
-    <col min="16" max="17" width="10.625" style="1"/>
-    <col min="18" max="18" width="15.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="1"/>
+    <col min="12" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.75" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.625" style="1"/>
+    <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,31 +1677,34 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1671,31 +1732,34 @@
         <v>22</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1725,31 +1789,34 @@
         <v>25</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1779,31 +1846,34 @@
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="S4" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="T4" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1824,12 +1894,13 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="23"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="23"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="23"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1859,31 +1930,34 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="Q6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="S6" s="23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
@@ -1906,9 +1980,9 @@
       <c r="J7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>1001</v>
       </c>
@@ -1932,8 +2006,9 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>1001</v>
       </c>
@@ -1953,20 +2028,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>1002</v>
       </c>
@@ -1991,8 +2067,9 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>1002</v>
       </c>
@@ -2016,8 +2093,9 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>1002</v>
       </c>
@@ -2039,20 +2117,21 @@
       </c>
       <c r="J12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <v>1002</v>
       </c>
@@ -2074,20 +2153,21 @@
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>1002</v>
       </c>
@@ -2109,20 +2189,21 @@
       </c>
       <c r="J14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>1002</v>
       </c>
@@ -2144,20 +2225,21 @@
       </c>
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>2001</v>
       </c>
@@ -2182,8 +2264,9 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>2001</v>
       </c>
@@ -2204,9 +2287,10 @@
         <v>111</v>
       </c>
       <c r="L17" s="15"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="M17" s="15"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>2001</v>
       </c>
@@ -2225,20 +2309,20 @@
         <v>1</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>2002</v>
       </c>
@@ -2261,9 +2345,9 @@
       <c r="J19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>2002</v>
       </c>
@@ -2286,9 +2370,10 @@
         <v>112</v>
       </c>
       <c r="L20" s="15"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="M20" s="15"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>2002</v>
       </c>
@@ -2307,20 +2392,20 @@
         <v>2</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
         <v>2003</v>
       </c>
@@ -2343,9 +2428,9 @@
       <c r="J22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
         <v>2003</v>
       </c>
@@ -2370,9 +2455,10 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O23" s="15"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
         <v>2003</v>
       </c>
@@ -2397,8 +2483,9 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="4">
         <v>2003</v>
       </c>
@@ -2423,8 +2510,9 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="4">
         <v>2003</v>
       </c>
@@ -2449,8 +2537,9 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="4">
         <v>2003</v>
       </c>
@@ -2469,20 +2558,20 @@
         <v>1</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="4">
         <v>2003</v>
       </c>
@@ -2501,20 +2590,20 @@
         <v>1</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="P28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="4">
         <v>2003</v>
       </c>
@@ -2533,21 +2622,21 @@
         <v>1</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="P29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="1">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>2004</v>
       </c>
@@ -2572,8 +2661,9 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>2004</v>
       </c>
@@ -2597,8 +2687,9 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>2004</v>
       </c>
@@ -2622,8 +2713,9 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>2004</v>
       </c>
@@ -2647,8 +2739,9 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>2004</v>
       </c>
@@ -2672,8 +2765,9 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>2004</v>
       </c>
@@ -2697,8 +2791,9 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>2004</v>
       </c>
@@ -2722,8 +2817,9 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>2004</v>
       </c>
@@ -2747,8 +2843,9 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>2004</v>
       </c>
@@ -2768,20 +2865,21 @@
       </c>
       <c r="J38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R38" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>2004</v>
       </c>
@@ -2801,20 +2899,21 @@
       </c>
       <c r="J39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="R39" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>2004</v>
       </c>
@@ -2835,21 +2934,22 @@
       <c r="J40" s="4"/>
       <c r="K40" s="5"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="O40" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="1">
+      <c r="Q40" s="5"/>
+      <c r="R40" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>2004</v>
       </c>
@@ -2869,20 +2969,21 @@
       </c>
       <c r="J41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="R41" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
         <v>2004</v>
       </c>
@@ -2902,20 +3003,21 @@
       </c>
       <c r="J42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="2"/>
+      <c r="N42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="R42" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
         <v>2004</v>
       </c>
@@ -2935,20 +3037,21 @@
       </c>
       <c r="J43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="2"/>
+      <c r="N43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="R43" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>2005</v>
       </c>
@@ -2973,8 +3076,9 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
         <v>2005</v>
       </c>
@@ -2998,8 +3102,9 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
         <v>2005</v>
       </c>
@@ -3023,8 +3128,9 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
         <v>2005</v>
       </c>
@@ -3048,8 +3154,9 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
         <v>2005</v>
       </c>
@@ -3073,8 +3180,9 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
         <v>2005</v>
       </c>
@@ -3094,20 +3202,21 @@
       </c>
       <c r="J49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="R49" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
         <v>2005</v>
       </c>
@@ -3127,20 +3236,21 @@
       </c>
       <c r="J50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="R50" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="2">
         <v>2005</v>
       </c>
@@ -3160,20 +3270,21 @@
       </c>
       <c r="J51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="R51" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
         <v>3001</v>
       </c>
@@ -3198,8 +3309,9 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
         <v>3001</v>
       </c>
@@ -3223,11 +3335,12 @@
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="5"/>
+      <c r="N53" s="4"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="2">
         <v>3001</v>
       </c>
@@ -3251,8 +3364,9 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="2">
         <v>3001</v>
       </c>
@@ -3276,8 +3390,9 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="2">
         <v>3001</v>
       </c>
@@ -3299,12 +3414,13 @@
       <c r="K56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L56" s="2">
-        <v>1</v>
-      </c>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="2">
         <v>3001</v>
       </c>
@@ -3326,20 +3442,21 @@
       </c>
       <c r="J57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="2"/>
+      <c r="N57" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="R57" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="2">
         <v>3002</v>
       </c>
@@ -3364,8 +3481,9 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="4">
         <v>3002</v>
       </c>
@@ -3389,11 +3507,12 @@
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="5"/>
+      <c r="N59" s="4"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="2">
         <v>3002</v>
       </c>
@@ -3417,8 +3536,9 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="2">
         <v>3002</v>
       </c>
@@ -3442,8 +3562,9 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="2">
         <v>3002</v>
       </c>
@@ -3465,12 +3586,13 @@
       <c r="K62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L62" s="2">
-        <v>1</v>
-      </c>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="2">
         <v>3002</v>
       </c>
@@ -3492,12 +3614,13 @@
       <c r="K63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L63" s="2">
-        <v>1</v>
-      </c>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L63" s="2"/>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="2">
         <v>3002</v>
       </c>
@@ -3519,12 +3642,13 @@
       <c r="K64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L64" s="2"/>
+      <c r="M64" s="2">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C65" s="2">
         <v>3002</v>
       </c>
@@ -3546,20 +3670,21 @@
       </c>
       <c r="J65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="P65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="R65" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C66" s="2">
         <v>3002</v>
       </c>
@@ -3581,20 +3706,21 @@
       </c>
       <c r="J66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="R66" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C67" s="2">
         <v>3002</v>
       </c>
@@ -3616,20 +3742,21 @@
       </c>
       <c r="J67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="R67" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C68" s="2">
         <v>3003</v>
       </c>
@@ -3654,8 +3781,9 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C69" s="2">
         <v>3003</v>
       </c>
@@ -3679,8 +3807,9 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C70" s="2">
         <v>3003</v>
       </c>
@@ -3704,8 +3833,9 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C71" s="4">
         <v>3003</v>
       </c>
@@ -3729,14 +3859,15 @@
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="5"/>
+      <c r="N71" s="4"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C72" s="2">
         <v>3003</v>
       </c>
@@ -3758,12 +3889,13 @@
       <c r="K72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L72" s="2">
-        <v>1</v>
-      </c>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L72" s="2"/>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C73" s="2">
         <v>3003</v>
       </c>
@@ -3785,12 +3917,13 @@
       <c r="K73" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L73" s="2">
-        <v>1</v>
-      </c>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L73" s="2"/>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C74" s="2">
         <v>3003</v>
       </c>
@@ -3812,12 +3945,13 @@
       <c r="K74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L74" s="2">
-        <v>1</v>
-      </c>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L74" s="2"/>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C75" s="2">
         <v>3003</v>
       </c>
@@ -3839,20 +3973,21 @@
       </c>
       <c r="J75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="2"/>
+      <c r="N75" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="P75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="R75" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C76" s="2">
         <v>3003</v>
       </c>
@@ -3874,20 +4009,21 @@
       </c>
       <c r="J76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="2"/>
+      <c r="N76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="R76" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C77" s="2">
         <v>3003</v>
       </c>
@@ -3909,20 +4045,21 @@
       </c>
       <c r="J77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="2"/>
+      <c r="N77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="P77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="R77" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C78" s="2">
         <v>3004</v>
       </c>
@@ -3947,8 +4084,9 @@
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C79" s="2">
         <v>3004</v>
       </c>
@@ -3972,8 +4110,9 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C80" s="2">
         <v>3004</v>
       </c>
@@ -3997,8 +4136,9 @@
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="2">
         <v>3004</v>
       </c>
@@ -4022,8 +4162,9 @@
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="2">
         <v>3004</v>
       </c>
@@ -4045,12 +4186,13 @@
       <c r="K82" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L82" s="2">
-        <v>1</v>
-      </c>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L82" s="2"/>
+      <c r="M82" s="2">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="2">
         <v>3004</v>
       </c>
@@ -4072,12 +4214,13 @@
       <c r="K83" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L83" s="2">
-        <v>1</v>
-      </c>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L83" s="2"/>
+      <c r="M83" s="2">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="2">
         <v>3004</v>
       </c>
@@ -4099,12 +4242,13 @@
       <c r="K84" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L84" s="2">
-        <v>1</v>
-      </c>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L84" s="2"/>
+      <c r="M84" s="2">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="2">
         <v>3004</v>
       </c>
@@ -4126,20 +4270,21 @@
       </c>
       <c r="J85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="2"/>
+      <c r="N85" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="O85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="P85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="R85" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="2">
         <v>3004</v>
       </c>
@@ -4161,20 +4306,21 @@
       </c>
       <c r="J86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="2"/>
+      <c r="N86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="O86" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O86" s="1" t="s">
+      <c r="P86" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="R86" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="4">
         <v>3004</v>
       </c>
@@ -4197,23 +4343,24 @@
       <c r="J87" s="4"/>
       <c r="K87" s="5"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4" t="s">
+      <c r="M87" s="4"/>
+      <c r="N87" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="O87" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O87" s="5" t="s">
+      <c r="P87" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5">
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5">
         <v>400</v>
       </c>
-      <c r="R87" s="5"/>
       <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="2">
         <v>4001</v>
       </c>
@@ -4238,8 +4385,9 @@
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="2">
         <v>4001</v>
       </c>
@@ -4261,8 +4409,9 @@
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="2">
         <v>4001</v>
       </c>
@@ -4282,20 +4431,21 @@
       </c>
       <c r="J90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="2"/>
+      <c r="N90" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="O90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="P90" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="R90" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
         <v>4002</v>
       </c>
@@ -4320,8 +4470,9 @@
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
         <v>4002</v>
       </c>
@@ -4343,8 +4494,9 @@
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="2">
         <v>4002</v>
       </c>
@@ -4364,20 +4516,21 @@
       </c>
       <c r="J93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="2"/>
+      <c r="N93" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="P93" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="R93" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="2">
         <v>5001</v>
       </c>
@@ -4402,8 +4555,9 @@
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="2">
         <v>5001</v>
       </c>
@@ -4425,8 +4579,9 @@
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="2">
         <v>5001</v>
       </c>
@@ -4446,20 +4601,21 @@
       </c>
       <c r="J96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="2"/>
+      <c r="N96" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="P96" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="R96" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="2">
         <v>5002</v>
       </c>
@@ -4484,8 +4640,9 @@
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
         <v>5002</v>
       </c>
@@ -4507,8 +4664,9 @@
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="2">
         <v>5002</v>
       </c>
@@ -4530,8 +4688,9 @@
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="2">
         <v>5002</v>
       </c>
@@ -4553,8 +4712,9 @@
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="2">
         <v>5002</v>
       </c>
@@ -4574,20 +4734,21 @@
       </c>
       <c r="J101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="2"/>
+      <c r="N101" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="O101" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O101" s="1" t="s">
+      <c r="P101" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="R101" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="4">
         <v>5002</v>
       </c>
@@ -4608,23 +4769,24 @@
       <c r="J102" s="4"/>
       <c r="K102" s="5"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="4" t="s">
+      <c r="M102" s="4"/>
+      <c r="N102" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="O102" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O102" s="5" t="s">
+      <c r="P102" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5">
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5">
         <v>300</v>
       </c>
-      <c r="R102" s="5"/>
       <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C103" s="2">
         <v>5002</v>
       </c>
@@ -4644,20 +4806,21 @@
       </c>
       <c r="J103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="4" t="s">
+      <c r="M103" s="4"/>
+      <c r="N103" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N103" s="1" t="s">
+      <c r="O103" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O103" s="1" t="s">
+      <c r="P103" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="R103" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C104" s="2">
         <v>6001</v>
       </c>
@@ -4682,8 +4845,9 @@
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C105" s="2">
         <v>6001</v>
       </c>
@@ -4705,8 +4869,9 @@
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C106" s="2">
         <v>6001</v>
       </c>
@@ -4726,20 +4891,21 @@
       </c>
       <c r="J106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="2"/>
+      <c r="N106" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N106" s="1" t="s">
+      <c r="O106" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O106" s="1" t="s">
+      <c r="P106" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="R106" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C107" s="2">
         <v>6002</v>
       </c>
@@ -4764,8 +4930,9 @@
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C108" s="2">
         <v>6002</v>
       </c>
@@ -4787,8 +4954,9 @@
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C109" s="4">
         <v>6002</v>
       </c>
@@ -4809,23 +4977,24 @@
       <c r="J109" s="4"/>
       <c r="K109" s="5"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="4" t="s">
+      <c r="M109" s="4"/>
+      <c r="N109" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N109" s="5" t="s">
+      <c r="O109" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O109" s="5" t="s">
+      <c r="P109" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5">
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5">
         <v>1000</v>
       </c>
-      <c r="R109" s="5"/>
       <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T109" s="5"/>
+    </row>
+    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C110" s="2">
         <v>8002</v>
       </c>
@@ -4850,8 +5019,9 @@
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C111" s="2">
         <v>8002</v>
       </c>
@@ -4863,24 +5033,29 @@
         <v>2</v>
       </c>
       <c r="G111" s="4">
-        <v>2</v>
-      </c>
-      <c r="H111" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>4</v>
+      </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L111" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="M111" s="4"/>
-      <c r="N111" s="5"/>
+      <c r="N111" s="4"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
-    </row>
-    <row r="112" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T111" s="5"/>
+    </row>
+    <row r="112" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C112" s="2">
         <v>8002</v>
       </c>
@@ -4892,18 +5067,21 @@
         <v>2</v>
       </c>
       <c r="G112" s="2">
-        <v>2.7332999999999998</v>
-      </c>
-      <c r="H112" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>4</v>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="1" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C113" s="2">
         <v>8002</v>
       </c>
@@ -4912,31 +5090,24 @@
         <v>4</v>
       </c>
       <c r="F113" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G113" s="2">
-        <v>2</v>
-      </c>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>4</v>
+      </c>
+      <c r="I113" s="2"/>
       <c r="J113" s="2"/>
+      <c r="K113" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="L113" s="2"/>
-      <c r="M113" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q113" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="114" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C114" s="2">
         <v>8002</v>
       </c>
@@ -4948,28 +5119,31 @@
         <v>3</v>
       </c>
       <c r="G114" s="2">
-        <v>2.7332999999999998</v>
-      </c>
-      <c r="H114" s="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="H114" s="2">
+        <v>2</v>
+      </c>
       <c r="I114" s="2">
         <v>1</v>
       </c>
       <c r="J114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="2"/>
+      <c r="N114" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N114" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="O114" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P114" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q114" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="115" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R114" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4980,8 +5154,9 @@
       <c r="J115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -4992,8 +5167,9 @@
       <c r="J116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -5005,12 +5181,13 @@
       <c r="K117" s="5"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
-      <c r="N117" s="5"/>
+      <c r="N117" s="4"/>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
       <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B379B989-FC69-4611-989E-C399BE838B0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A44700-F4A3-4A08-86E4-B2E66F6E267B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="275">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,9 +481,6 @@
   <si>
     <t>Fx_attack_waterball_merlin</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_attack_waterball_merlin</t>
   </si>
   <si>
     <t>Fx_daoguang</t>
@@ -1116,6 +1113,27 @@
   </si>
   <si>
     <t>rotateUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_xuli_merlin</t>
+  </si>
+  <si>
+    <t>Fx_attack_xuli_merlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_bullet01</t>
+  </si>
+  <si>
+    <t>Fx_attack_bullet01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_bullet02</t>
+  </si>
+  <si>
+    <t>Fx_attack_bullet02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2234,10 +2252,10 @@
   <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2299,37 +2317,37 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>22</v>
@@ -2363,7 +2381,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -2372,46 +2390,46 @@
         <v>30</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>43</v>
@@ -2423,7 +2441,7 @@
         <v>47</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>88</v>
@@ -2465,37 +2483,37 @@
         <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>113</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>42</v>
@@ -2549,32 +2567,32 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
@@ -2665,37 +2683,37 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>114</v>
       </c>
       <c r="N6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>14</v>
@@ -2764,7 +2782,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2813,7 +2831,7 @@
         <v>70</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>51</v>
@@ -2878,7 +2896,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2929,7 +2947,7 @@
         <v>70</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y12" s="5" t="s">
         <v>51</v>
@@ -2974,7 +2992,7 @@
         <v>70</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>51</v>
@@ -3019,7 +3037,7 @@
         <v>70</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>51</v>
@@ -3064,7 +3082,7 @@
         <v>70</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y15" s="5" t="s">
         <v>51</v>
@@ -3078,7 +3096,7 @@
         <v>1004</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -3094,7 +3112,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3128,7 +3146,7 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3169,7 +3187,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -3199,7 +3217,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -3234,7 +3252,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -3269,7 +3287,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3304,7 +3322,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3352,13 +3370,13 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA23" s="1">
         <v>300</v>
@@ -3397,13 +3415,13 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA24" s="1">
         <v>300</v>
@@ -3442,13 +3460,13 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA25" s="1">
         <v>400</v>
@@ -3477,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
@@ -3513,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
@@ -3550,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
@@ -3586,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
@@ -3795,7 +3813,7 @@
         <v>2002</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -4329,7 +4347,7 @@
         <v>2004</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -4345,7 +4363,7 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y52" s="2"/>
     </row>
@@ -4376,7 +4394,7 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S53" s="1">
         <v>0</v>
@@ -4415,7 +4433,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S54" s="1">
         <v>0</v>
@@ -4453,7 +4471,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
@@ -4491,7 +4509,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S56" s="1">
         <v>1</v>
@@ -4519,7 +4537,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="R57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
@@ -4549,7 +4567,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="R58" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S58" s="1">
         <v>0</v>
@@ -4579,7 +4597,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="R59" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S59" s="1">
         <v>0</v>
@@ -4617,7 +4635,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S60" s="1">
         <v>0</v>
@@ -4648,7 +4666,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4683,7 +4701,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4718,7 +4736,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4753,7 +4771,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4788,7 +4806,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4823,7 +4841,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4858,7 +4876,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4904,10 +4922,10 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA68" s="1">
         <v>100</v>
@@ -4944,10 +4962,10 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y69" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="Y69" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="AA69" s="1">
         <v>100</v>
@@ -4984,10 +5002,10 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA70" s="1">
         <v>100</v>
@@ -5024,10 +5042,10 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y71" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="Y71" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="AA71" s="1">
         <v>200</v>
@@ -5064,10 +5082,10 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA72" s="1">
         <v>250</v>
@@ -5104,10 +5122,10 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y73" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="Y73" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="AA73" s="1">
         <v>250</v>
@@ -5433,7 +5451,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="1" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -5540,7 +5558,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="1" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2">
@@ -5577,7 +5595,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="1" t="s">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2">
@@ -5820,7 +5838,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="1" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -5933,7 +5951,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="1" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2">
@@ -5970,7 +5988,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="1" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2">
@@ -6127,7 +6145,7 @@
         <v>3004</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -6177,7 +6195,7 @@
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -6211,7 +6229,7 @@
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -6252,7 +6270,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S103" s="2">
         <v>0</v>
@@ -6282,7 +6300,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -6317,7 +6335,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -6352,7 +6370,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -6387,7 +6405,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -6422,7 +6440,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -6457,7 +6475,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
@@ -6511,13 +6529,13 @@
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X110" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="X110" s="1" t="s">
+      <c r="Y110" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="Y110" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="AA110" s="1">
         <v>1000</v>
@@ -6801,7 +6819,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -7365,7 +7383,7 @@
         <v>8002</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
@@ -7381,7 +7399,7 @@
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -7416,10 +7434,10 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -7459,7 +7477,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -7494,7 +7512,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -7545,7 +7563,7 @@
         <v>70</v>
       </c>
       <c r="X137" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y137" s="1" t="s">
         <v>71</v>
@@ -7559,7 +7577,7 @@
         <v>8004</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E138" s="2">
         <v>1</v>
@@ -7575,7 +7593,7 @@
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
@@ -7616,16 +7634,16 @@
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S139" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="S139" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="T139" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U139" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
@@ -7657,14 +7675,14 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T140" s="4"/>
       <c r="U140" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
@@ -7695,7 +7713,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
@@ -7730,7 +7748,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
@@ -7765,7 +7783,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -7800,7 +7818,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -7846,7 +7864,7 @@
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
       <c r="W145" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="3:29" x14ac:dyDescent="0.2">
@@ -7880,7 +7898,7 @@
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
       <c r="W146" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="3:29" x14ac:dyDescent="0.2">
@@ -7914,7 +7932,7 @@
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
       <c r="W147" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="3:29" x14ac:dyDescent="0.2">
@@ -7922,7 +7940,7 @@
         <v>8004</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E148" s="2">
         <v>11</v>
@@ -7952,10 +7970,10 @@
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
       <c r="W148" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y148" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA148" s="1">
         <v>1000</v>
@@ -7966,7 +7984,7 @@
         <v>8004</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E149" s="4">
         <v>12</v>
@@ -7995,7 +8013,7 @@
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
@@ -8031,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="Q150" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
@@ -8067,7 +8085,7 @@
         <v>2</v>
       </c>
       <c r="Q151" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
@@ -8103,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="Q152" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
@@ -8140,7 +8158,7 @@
         <v>4</v>
       </c>
       <c r="Q153" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
@@ -8182,7 +8200,7 @@
         <v>5</v>
       </c>
       <c r="Q154" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
@@ -8218,7 +8236,7 @@
         <v>6</v>
       </c>
       <c r="Q155" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
@@ -8252,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="O156" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="24"/>
@@ -8288,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="O157" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="24"/>
@@ -8324,7 +8342,7 @@
         <v>3</v>
       </c>
       <c r="O158" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="24"/>
@@ -8361,7 +8379,7 @@
         <v>4</v>
       </c>
       <c r="O159" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P159" s="4"/>
       <c r="Q159" s="24"/>
@@ -8403,7 +8421,7 @@
         <v>5</v>
       </c>
       <c r="O160" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="24"/>
@@ -8439,7 +8457,7 @@
         <v>6</v>
       </c>
       <c r="O161" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="24"/>
@@ -8476,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="O162" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
@@ -8513,7 +8531,7 @@
         <v>2</v>
       </c>
       <c r="O163" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
@@ -8550,7 +8568,7 @@
         <v>3</v>
       </c>
       <c r="O164" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
@@ -8587,7 +8605,7 @@
         <v>4</v>
       </c>
       <c r="O165" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
@@ -8624,7 +8642,7 @@
         <v>5</v>
       </c>
       <c r="O166" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
@@ -8661,7 +8679,7 @@
         <v>6</v>
       </c>
       <c r="O167" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
@@ -8698,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P168" s="4"/>
       <c r="Q168" s="4"/>
@@ -8740,7 +8758,7 @@
         <v>2</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
@@ -8776,7 +8794,7 @@
         <v>3</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
@@ -8812,7 +8830,7 @@
         <v>4</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
@@ -8848,7 +8866,7 @@
         <v>5</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
@@ -8884,7 +8902,7 @@
         <v>6</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A44700-F4A3-4A08-86E4-B2E66F6E267B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E81441-5EEA-4F37-92CE-262F1974DAAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="277">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comb1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,18 +524,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_luoji_atk1_tuowei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fx_luoji_atk1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_luoji_atk1_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>施法挂载点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,10 +541,6 @@
   </si>
   <si>
     <t>特效挂载点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,10 +787,6 @@
   </si>
   <si>
     <t>bak1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_skill_hit02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1117,23 +1097,49 @@
   </si>
   <si>
     <t>Fx_attack_xuli_merlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_bullet01</t>
+  </si>
+  <si>
+    <t>Fx_attack_bullet01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_bullet02</t>
+  </si>
+  <si>
+    <t>Fx_attack_bullet02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_skill_hit_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fx_attack_xuli_merlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_attack_bullet01</t>
-  </si>
-  <si>
-    <t>Fx_attack_bullet01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_attack_bullet02</t>
-  </si>
-  <si>
-    <t>Fx_attack_bullet02</t>
+  </si>
+  <si>
+    <t>Bone02</t>
+  </si>
+  <si>
+    <t>fazhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk1_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack1_hit</t>
+  </si>
+  <si>
+    <t>Fx_attack1_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1951,8 +1957,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC191" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC191" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC192" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC192" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="25"/>
@@ -2249,13 +2255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="P124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomRight" activeCell="S139" sqref="S139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2317,37 +2323,37 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>22</v>
@@ -2381,7 +2387,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -2390,46 +2396,46 @@
         <v>30</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="V2" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>43</v>
@@ -2441,7 +2447,7 @@
         <v>47</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>88</v>
@@ -2483,37 +2489,37 @@
         <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>113</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>42</v>
@@ -2567,32 +2573,32 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
@@ -2683,37 +2689,37 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>14</v>
@@ -2782,7 +2788,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2831,7 +2837,7 @@
         <v>70</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>51</v>
@@ -2896,7 +2902,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2947,7 +2953,7 @@
         <v>70</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y12" s="5" t="s">
         <v>51</v>
@@ -2992,7 +2998,7 @@
         <v>70</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>51</v>
@@ -3037,7 +3043,7 @@
         <v>70</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>51</v>
@@ -3082,7 +3088,7 @@
         <v>70</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y15" s="5" t="s">
         <v>51</v>
@@ -3096,7 +3102,7 @@
         <v>1004</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -3112,7 +3118,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3146,7 +3152,7 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3187,7 +3193,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -3217,7 +3223,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -3252,7 +3258,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -3287,7 +3293,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3322,7 +3328,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3370,13 +3376,13 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA23" s="1">
         <v>300</v>
@@ -3415,13 +3421,13 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="X24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="AA24" s="1">
         <v>300</v>
@@ -3460,13 +3466,13 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA25" s="1">
         <v>400</v>
@@ -3495,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
@@ -3531,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
@@ -3568,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
@@ -3604,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
@@ -3636,7 +3642,7 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3813,7 +3819,7 @@
         <v>2002</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -3860,7 +3866,6 @@
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
@@ -3897,7 +3902,6 @@
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
@@ -3933,7 +3937,6 @@
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
@@ -3969,7 +3972,6 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
@@ -4347,7 +4349,7 @@
         <v>2004</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -4363,7 +4365,7 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Y52" s="2"/>
     </row>
@@ -4394,7 +4396,7 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S53" s="1">
         <v>0</v>
@@ -4433,7 +4435,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="S54" s="1">
         <v>0</v>
@@ -4471,7 +4473,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
@@ -4509,7 +4511,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S56" s="1">
         <v>1</v>
@@ -4537,7 +4539,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="R57" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
@@ -4567,7 +4569,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="R58" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="S58" s="1">
         <v>0</v>
@@ -4597,7 +4599,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="R59" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S59" s="1">
         <v>0</v>
@@ -4635,7 +4637,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="S60" s="1">
         <v>0</v>
@@ -4666,7 +4668,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4701,7 +4703,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4736,7 +4738,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4771,7 +4773,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4806,7 +4808,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4841,7 +4843,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4876,7 +4878,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4922,10 +4924,10 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA68" s="1">
         <v>100</v>
@@ -4962,10 +4964,10 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA69" s="1">
         <v>100</v>
@@ -5002,10 +5004,10 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA70" s="1">
         <v>100</v>
@@ -5042,10 +5044,10 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA71" s="1">
         <v>200</v>
@@ -5082,10 +5084,10 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA72" s="1">
         <v>250</v>
@@ -5122,10 +5124,10 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA73" s="1">
         <v>250</v>
@@ -5225,7 +5227,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -5451,9 +5453,11 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L82" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -5523,7 +5527,9 @@
       <c r="K84" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L84" s="2"/>
+      <c r="L84" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="M84" s="2">
         <v>1</v>
       </c>
@@ -5558,9 +5564,11 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="L85" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="M85" s="2">
         <v>1</v>
       </c>
@@ -5595,9 +5603,11 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L86" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="M86" s="2">
         <v>1</v>
       </c>
@@ -5624,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="G87" s="2">
-        <v>2.3332999999999999</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H87" s="2">
         <v>0.4083</v>
@@ -5648,7 +5658,7 @@
         <v>70</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="Y87" s="1" t="s">
         <v>71</v>
@@ -5669,7 +5679,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="2">
-        <v>2.4750000000000001</v>
+        <v>2.516</v>
       </c>
       <c r="H88" s="2">
         <v>0.45829999999999999</v>
@@ -5693,7 +5703,7 @@
         <v>70</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="Y88" s="1" t="s">
         <v>71</v>
@@ -5714,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="2">
-        <v>2.6667000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="H89" s="2">
         <v>0.85</v>
@@ -5738,7 +5748,7 @@
         <v>70</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="Y89" s="1" t="s">
         <v>71</v>
@@ -5838,9 +5848,11 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L92" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -5916,7 +5928,9 @@
       <c r="K94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L94" s="2"/>
+      <c r="L94" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="M94" s="2">
         <v>1</v>
       </c>
@@ -5951,9 +5965,11 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L95" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="M95" s="2">
         <v>1</v>
       </c>
@@ -5988,9 +6004,11 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L96" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="M96" s="2">
         <v>1</v>
       </c>
@@ -6017,7 +6035,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="2">
-        <v>2.3332999999999999</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H97" s="2">
         <v>0.4083</v>
@@ -6041,7 +6059,7 @@
         <v>70</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Y97" s="1" t="s">
         <v>71</v>
@@ -6062,7 +6080,7 @@
         <v>3</v>
       </c>
       <c r="G98" s="2">
-        <v>2.4750000000000001</v>
+        <v>2.516</v>
       </c>
       <c r="H98" s="2">
         <v>0.45829999999999999</v>
@@ -6086,7 +6104,7 @@
         <v>70</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Y98" s="1" t="s">
         <v>71</v>
@@ -6107,7 +6125,7 @@
         <v>3</v>
       </c>
       <c r="G99" s="2">
-        <v>2.6667000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="H99" s="2">
         <v>0.85</v>
@@ -6131,7 +6149,7 @@
         <v>70</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Y99" s="1" t="s">
         <v>71</v>
@@ -6145,7 +6163,7 @@
         <v>3004</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -6195,7 +6213,7 @@
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -6229,7 +6247,7 @@
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -6270,7 +6288,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="S103" s="2">
         <v>0</v>
@@ -6300,7 +6318,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -6335,7 +6353,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -6370,7 +6388,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -6405,7 +6423,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -6440,7 +6458,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -6475,7 +6493,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
@@ -6529,13 +6547,13 @@
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="X110" s="1" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AA110" s="1">
         <v>1000</v>
@@ -6819,7 +6837,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -7383,7 +7401,7 @@
         <v>8002</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
@@ -7399,7 +7417,7 @@
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -7434,10 +7452,10 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L134" s="4" t="s">
-        <v>135</v>
+        <v>229</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -7477,7 +7495,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -7512,7 +7530,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -7536,18 +7554,19 @@
         <v>5</v>
       </c>
       <c r="F137" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G137" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H137" s="2">
-        <v>2</v>
-      </c>
-      <c r="I137" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I137" s="2"/>
       <c r="J137" s="2"/>
+      <c r="K137" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -7559,42 +7578,29 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
-      <c r="W137" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X137" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y137" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA137" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W137" s="2"/>
     </row>
     <row r="138" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C138" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>8002</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F138" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G138" s="2">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H138" s="2">
-        <v>5.6333000000000002</v>
-      </c>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
+      <c r="J138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -7606,45 +7612,52 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
+      <c r="W138" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y138" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA138" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="139" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C139" s="2">
         <v>8004</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
       </c>
       <c r="H139" s="2">
-        <v>5.2332999999999998</v>
+        <v>5.6333000000000002</v>
       </c>
       <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
+      <c r="J139" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
-      <c r="R139" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="S139" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="T139" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="U139" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
@@ -7652,81 +7665,86 @@
       <c r="C140" s="2">
         <v>8004</v>
       </c>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4">
-        <v>3</v>
-      </c>
-      <c r="F140" s="4">
+      <c r="D140" s="2"/>
+      <c r="E140" s="2">
+        <v>2</v>
+      </c>
+      <c r="F140" s="2">
         <v>6</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
         <v>5.2332999999999998</v>
       </c>
-      <c r="H140" s="4">
-        <v>3.5666000000000002</v>
-      </c>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4" t="s">
-        <v>233</v>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="T140" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="U140" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
-      <c r="AA140" s="5"/>
-      <c r="AB140" s="5"/>
-      <c r="AC140" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
     </row>
     <row r="141" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C141" s="2">
         <v>8004</v>
       </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2">
-        <v>4</v>
-      </c>
-      <c r="F141" s="2">
-        <v>2</v>
-      </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-      <c r="H141" s="2">
-        <v>10.833</v>
-      </c>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
-      <c r="S141" s="2"/>
-      <c r="T141" s="2"/>
-      <c r="U141" s="2"/>
-      <c r="V141" s="2"/>
-      <c r="W141" s="2"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4">
+        <v>3</v>
+      </c>
+      <c r="F141" s="4">
+        <v>6</v>
+      </c>
+      <c r="G141" s="4">
+        <v>5.2332999999999998</v>
+      </c>
+      <c r="H141" s="4">
+        <v>3.5666000000000002</v>
+      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="T141" s="4"/>
+      <c r="U141" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
     </row>
     <row r="142" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C142" s="2">
@@ -7734,21 +7752,21 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F142" s="2">
         <v>2</v>
       </c>
       <c r="G142" s="2">
-        <v>5.1665999999999999</v>
+        <v>0</v>
       </c>
       <c r="H142" s="2">
-        <v>5</v>
+        <v>10.833</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
@@ -7769,21 +7787,21 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F143" s="2">
         <v>2</v>
       </c>
       <c r="G143" s="2">
-        <v>5.3666</v>
+        <v>5.1665999999999999</v>
       </c>
       <c r="H143" s="2">
-        <v>1.6659999999999999</v>
+        <v>5</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -7804,7 +7822,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F144" s="2">
         <v>2</v>
@@ -7813,12 +7831,12 @@
         <v>5.3666</v>
       </c>
       <c r="H144" s="2">
-        <v>5</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -7839,19 +7857,22 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F145" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" s="2">
-        <v>5.3666999999999998</v>
+        <v>5.3666</v>
       </c>
       <c r="H145" s="2">
-        <v>0.1333000000000002</v>
+        <v>5</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
+      <c r="K145" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -7863,9 +7884,7 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
-      <c r="W145" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="W145" s="2"/>
     </row>
     <row r="146" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C146" s="2">
@@ -7873,16 +7892,16 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" s="2">
-        <v>5.5</v>
+        <v>5.3666999999999998</v>
       </c>
       <c r="H146" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.1333000000000002</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -7898,7 +7917,7 @@
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
       <c r="W146" s="2" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="3:29" x14ac:dyDescent="0.2">
@@ -7907,16 +7926,16 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" s="2">
-        <v>5.6669999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="H147" s="2">
-        <v>1.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -7932,31 +7951,27 @@
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
       <c r="W147" s="2" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C148" s="2">
         <v>8004</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="D148" s="2"/>
       <c r="E148" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F148" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G148" s="2">
-        <v>6.867</v>
+        <v>5.6669999999999998</v>
       </c>
       <c r="H148" s="2">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I148" s="2">
-        <v>1</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -7970,93 +7985,95 @@
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
       <c r="W148" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y148" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA148" s="1">
-        <v>1000</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C149" s="2">
         <v>8004</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E149" s="4">
-        <v>12</v>
-      </c>
-      <c r="F149" s="4">
-        <v>1</v>
+      <c r="D149" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E149" s="2">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2">
+        <v>3</v>
       </c>
       <c r="G149" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="H149" s="4">
-        <v>2</v>
-      </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
+        <v>6.867</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="I149" s="2">
+        <v>1</v>
+      </c>
+      <c r="J149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2"/>
+      <c r="V149" s="2"/>
       <c r="W149" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
-      <c r="Z149" s="5"/>
-      <c r="AA149" s="5"/>
-      <c r="AB149" s="5"/>
-      <c r="AC149" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="Y149" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA149" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="150" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C150" s="2">
         <v>8004</v>
       </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2">
-        <v>13</v>
-      </c>
-      <c r="F150" s="2">
-        <v>7</v>
+      <c r="D150" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E150" s="4">
+        <v>12</v>
+      </c>
+      <c r="F150" s="4">
+        <v>1</v>
       </c>
       <c r="G150" s="2">
-        <v>0</v>
-      </c>
-      <c r="H150" s="2">
-        <v>12</v>
-      </c>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q150" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
-      <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="H150" s="4">
+        <v>2</v>
+      </c>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
     </row>
     <row r="151" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C151" s="2">
@@ -8064,7 +8081,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F151" s="2">
         <v>7</v>
@@ -8082,10 +8099,10 @@
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q151" s="24" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
@@ -8100,7 +8117,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F152" s="2">
         <v>7</v>
@@ -8118,10 +8135,10 @@
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q152" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
@@ -8136,7 +8153,7 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F153" s="2">
         <v>7</v>
@@ -8147,31 +8164,24 @@
       <c r="H153" s="2">
         <v>12</v>
       </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4">
-        <v>4</v>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2">
+        <v>3</v>
       </c>
       <c r="Q153" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="4"/>
-      <c r="X153" s="5"/>
-      <c r="Y153" s="5"/>
-      <c r="Z153" s="5"/>
-      <c r="AA153" s="5"/>
-      <c r="AB153" s="5"/>
-      <c r="AC153" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2"/>
+      <c r="V153" s="2"/>
+      <c r="W153" s="2"/>
     </row>
     <row r="154" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C154" s="2">
@@ -8179,7 +8189,7 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F154" s="2">
         <v>7</v>
@@ -8190,24 +8200,31 @@
       <c r="H154" s="2">
         <v>12</v>
       </c>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2">
-        <v>5</v>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4">
+        <v>4</v>
       </c>
       <c r="Q154" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2"/>
-      <c r="V154" s="2"/>
-      <c r="W154" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
     </row>
     <row r="155" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C155" s="2">
@@ -8215,7 +8232,7 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F155" s="2">
         <v>7</v>
@@ -8233,10 +8250,10 @@
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q155" s="24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
@@ -8251,29 +8268,29 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F156" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
       </c>
       <c r="H156" s="2">
-        <v>5.4666666666666668</v>
+        <v>12</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
-      <c r="N156" s="2">
-        <v>1</v>
-      </c>
-      <c r="O156" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="24"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q156" s="24" t="s">
+        <v>241</v>
+      </c>
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
@@ -8287,7 +8304,7 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F157" s="2">
         <v>5</v>
@@ -8303,10 +8320,10 @@
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O157" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="24"/>
@@ -8323,7 +8340,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F158" s="2">
         <v>5</v>
@@ -8339,10 +8356,10 @@
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O158" s="24" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="24"/>
@@ -8357,9 +8374,9 @@
       <c r="C159" s="2">
         <v>8004</v>
       </c>
-      <c r="D159" s="4"/>
+      <c r="D159" s="2"/>
       <c r="E159" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F159" s="2">
         <v>5</v>
@@ -8370,39 +8387,32 @@
       <c r="H159" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4">
-        <v>4</v>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2">
+        <v>3</v>
       </c>
       <c r="O159" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="P159" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="P159" s="2"/>
       <c r="Q159" s="24"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="4"/>
-      <c r="X159" s="5"/>
-      <c r="Y159" s="5"/>
-      <c r="Z159" s="5"/>
-      <c r="AA159" s="5"/>
-      <c r="AB159" s="5"/>
-      <c r="AC159" s="5"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2"/>
+      <c r="V159" s="2"/>
+      <c r="W159" s="2"/>
     </row>
     <row r="160" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C160" s="2">
         <v>8004</v>
       </c>
-      <c r="D160" s="2"/>
+      <c r="D160" s="4"/>
       <c r="E160" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F160" s="2">
         <v>5</v>
@@ -8413,24 +8423,31 @@
       <c r="H160" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2">
-        <v>5</v>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4">
+        <v>4</v>
       </c>
       <c r="O160" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="P160" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="P160" s="4"/>
       <c r="Q160" s="24"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2"/>
-      <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
+      <c r="R160" s="4"/>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+      <c r="U160" s="4"/>
+      <c r="V160" s="4"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
     </row>
     <row r="161" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C161" s="2">
@@ -8438,7 +8455,7 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F161" s="2">
         <v>5</v>
@@ -8454,10 +8471,10 @@
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O161" s="24" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="24"/>
@@ -8474,30 +8491,29 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F162" s="2">
         <v>5</v>
       </c>
       <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
         <v>5.4666666666666668</v>
-      </c>
-      <c r="H162" s="2">
-        <f>171/30</f>
-        <v>5.7</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O162" s="24" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
+      <c r="Q162" s="24"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
@@ -8511,7 +8527,7 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F163" s="2">
         <v>5</v>
@@ -8520,7 +8536,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H163" s="2">
-        <f t="shared" ref="H163:H167" si="0">171/30</f>
+        <f>171/30</f>
         <v>5.7</v>
       </c>
       <c r="I163" s="2"/>
@@ -8528,10 +8544,10 @@
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O163" s="24" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
@@ -8548,7 +8564,7 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F164" s="2">
         <v>5</v>
@@ -8557,7 +8573,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H164:H168" si="0">171/30</f>
         <v>5.7</v>
       </c>
       <c r="I164" s="2"/>
@@ -8565,10 +8581,10 @@
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O164" s="24" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
@@ -8585,7 +8601,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F165" s="2">
         <v>5</v>
@@ -8602,10 +8618,10 @@
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O165" s="24" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
@@ -8622,7 +8638,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2">
         <v>5</v>
@@ -8639,10 +8655,10 @@
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O166" s="24" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
@@ -8659,7 +8675,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F167" s="2">
         <v>5</v>
@@ -8676,10 +8692,10 @@
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O167" s="24" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
@@ -8694,80 +8710,81 @@
       <c r="C168" s="2">
         <v>8004</v>
       </c>
-      <c r="D168" s="4"/>
+      <c r="D168" s="2"/>
       <c r="E168" s="2">
-        <v>31</v>
-      </c>
-      <c r="F168" s="4">
+        <v>30</v>
+      </c>
+      <c r="F168" s="2">
         <v>5</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H168" s="2">
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="H168" s="4">
-        <v>12</v>
-      </c>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4">
-        <v>1</v>
-      </c>
-      <c r="O168" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
-      <c r="X168" s="5"/>
-      <c r="Y168" s="5"/>
-      <c r="Z168" s="5"/>
-      <c r="AA168" s="5"/>
-      <c r="AB168" s="5"/>
-      <c r="AC168" s="5"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2">
+        <v>6</v>
+      </c>
+      <c r="O168" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
     </row>
     <row r="169" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C169" s="2">
         <v>8004</v>
       </c>
-      <c r="D169" s="2"/>
+      <c r="D169" s="4"/>
       <c r="E169" s="2">
-        <v>32</v>
-      </c>
-      <c r="F169" s="2">
+        <v>31</v>
+      </c>
+      <c r="F169" s="4">
         <v>5</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169" s="4">
         <v>5.7</v>
       </c>
       <c r="H169" s="4">
         <v>12</v>
       </c>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2">
-        <v>2</v>
-      </c>
-      <c r="O169" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2"/>
-      <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4">
+        <v>1</v>
+      </c>
+      <c r="O169" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="5"/>
+      <c r="Y169" s="5"/>
+      <c r="Z169" s="5"/>
+      <c r="AA169" s="5"/>
+      <c r="AB169" s="5"/>
+      <c r="AC169" s="5"/>
     </row>
     <row r="170" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C170" s="2">
@@ -8775,7 +8792,7 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F170" s="2">
         <v>5</v>
@@ -8791,10 +8808,10 @@
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
@@ -8811,7 +8828,7 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F171" s="2">
         <v>5</v>
@@ -8827,10 +8844,10 @@
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
@@ -8847,7 +8864,7 @@
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F172" s="2">
         <v>5</v>
@@ -8863,10 +8880,10 @@
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
@@ -8883,7 +8900,7 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F173" s="2">
         <v>5</v>
@@ -8899,10 +8916,10 @@
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
@@ -8914,18 +8931,32 @@
       <c r="W173" s="2"/>
     </row>
     <row r="174" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C174" s="2"/>
+      <c r="C174" s="2">
+        <v>8004</v>
+      </c>
       <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="E174" s="2">
+        <v>36</v>
+      </c>
+      <c r="F174" s="2">
+        <v>5</v>
+      </c>
+      <c r="G174" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H174" s="4">
+        <v>12</v>
+      </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
+      <c r="N174" s="2">
+        <v>6</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
@@ -9288,33 +9319,55 @@
       <c r="W190" s="2"/>
     </row>
     <row r="191" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="5"/>
-      <c r="L191" s="4"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
-      <c r="Q191" s="4"/>
-      <c r="R191" s="4"/>
-      <c r="S191" s="4"/>
-      <c r="T191" s="4"/>
-      <c r="U191" s="4"/>
-      <c r="V191" s="4"/>
-      <c r="W191" s="4"/>
-      <c r="X191" s="5"/>
-      <c r="Y191" s="5"/>
-      <c r="Z191" s="5"/>
-      <c r="AA191" s="5"/>
-      <c r="AB191" s="5"/>
-      <c r="AC191" s="5"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2"/>
+      <c r="V191" s="2"/>
+      <c r="W191" s="2"/>
+    </row>
+    <row r="192" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+      <c r="T192" s="4"/>
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="5"/>
+      <c r="Y192" s="5"/>
+      <c r="Z192" s="5"/>
+      <c r="AA192" s="5"/>
+      <c r="AB192" s="5"/>
+      <c r="AC192" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E81441-5EEA-4F37-92CE-262F1974DAAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD017F2-85A1-4979-9EC5-9B48ED108E8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="279">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,6 +1140,14 @@
   </si>
   <si>
     <t>Fx_attack1_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bip01 Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2258,10 +2266,10 @@
   <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="P124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S139" sqref="S139"/>
+      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7618,8 +7626,8 @@
       <c r="X138" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Y138" s="1" t="s">
-        <v>71</v>
+      <c r="Y138" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="AA138" s="1">
         <v>1000</v>
@@ -8967,14 +8975,26 @@
       <c r="W174" s="2"/>
     </row>
     <row r="175" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C175" s="2"/>
+      <c r="C175" s="2">
+        <v>9002</v>
+      </c>
       <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="E175" s="2">
+        <v>1</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
+      <c r="J175" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -8989,13 +9009,25 @@
       <c r="W175" s="2"/>
     </row>
     <row r="176" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C176" s="2"/>
+      <c r="C176" s="2">
+        <v>9002</v>
+      </c>
       <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
+      <c r="E176" s="2">
+        <v>2</v>
+      </c>
+      <c r="F176" s="2">
+        <v>3</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I176" s="2">
+        <v>1</v>
+      </c>
       <c r="J176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -9008,7 +9040,18 @@
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
-      <c r="W176" s="2"/>
+      <c r="W176" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA176" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="177" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C177" s="2"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD017F2-85A1-4979-9EC5-9B48ED108E8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A4717-5552-4A1F-8075-A867C84DB8A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="288">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,10 +917,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>luoji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朝向挂载点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1148,6 +1144,46 @@
   </si>
   <si>
     <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM vcam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM vcam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM vcam3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1201,6 +1237,23 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1353,7 +1406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1425,6 +1478,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1965,8 +2024,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC192" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC192" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC209" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC209" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="25"/>
@@ -2263,13 +2322,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
+      <selection pane="bottomRight" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2346,7 +2405,7 @@
         <v>213</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>148</v>
@@ -2355,13 +2414,13 @@
         <v>150</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>149</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>22</v>
@@ -2425,7 +2484,7 @@
         <v>143</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>214</v>
@@ -2437,13 +2496,13 @@
         <v>146</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>147</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>43</v>
@@ -2509,7 +2568,7 @@
         <v>141</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>215</v>
@@ -2521,13 +2580,13 @@
         <v>152</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>153</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>42</v>
@@ -2721,13 +2780,13 @@
         <v>7</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>14</v>
@@ -3204,10 +3263,12 @@
         <v>161</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
@@ -4522,6 +4583,9 @@
         <v>195</v>
       </c>
       <c r="S56" s="1">
+        <v>1</v>
+      </c>
+      <c r="U56" s="1">
         <v>1</v>
       </c>
       <c r="W56" s="15"/>
@@ -5403,7 +5467,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="4">
         <v>3002</v>
       </c>
@@ -5441,7 +5505,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="2">
         <v>3002</v>
       </c>
@@ -5461,10 +5525,10 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -5478,7 +5542,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="2">
         <v>3002</v>
       </c>
@@ -5513,7 +5577,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="2">
         <v>3002</v>
       </c>
@@ -5536,7 +5600,7 @@
         <v>78</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M84" s="2">
         <v>1</v>
@@ -5552,7 +5616,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="2">
         <v>3002</v>
       </c>
@@ -5572,10 +5636,10 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M85" s="2">
         <v>1</v>
@@ -5591,7 +5655,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="2">
         <v>3002</v>
       </c>
@@ -5611,10 +5675,10 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L86" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="M86" s="2">
         <v>1</v>
@@ -5630,7 +5694,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="2">
         <v>3002</v>
       </c>
@@ -5666,7 +5730,7 @@
         <v>70</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y87" s="1" t="s">
         <v>71</v>
@@ -5675,7 +5739,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="2">
         <v>3002</v>
       </c>
@@ -5711,7 +5775,7 @@
         <v>70</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y88" s="1" t="s">
         <v>71</v>
@@ -5720,7 +5784,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="2">
         <v>3002</v>
       </c>
@@ -5756,7 +5820,7 @@
         <v>70</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y89" s="1" t="s">
         <v>71</v>
@@ -5765,269 +5829,269 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="2">
-        <v>3003</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>3002</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F90" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
       </c>
       <c r="H90" s="2">
-        <v>3.8330000000000002</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="I90" s="2"/>
-      <c r="J90" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
+      <c r="R90" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0</v>
+      </c>
       <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
+      <c r="U90" s="2">
+        <v>0</v>
+      </c>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F91" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G91" s="2">
-        <v>0.8</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="H91" s="2">
-        <v>3.0329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
+      <c r="R91" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S91" s="26">
+        <v>0</v>
+      </c>
       <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
+      <c r="U91" s="2">
+        <v>0</v>
+      </c>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F92" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G92" s="2">
-        <v>1</v>
+        <v>0.5333</v>
       </c>
       <c r="H92" s="2">
-        <v>2.8330000000000002</v>
+        <v>0.58333000000000002</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
+      <c r="R92" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S92" s="26">
+        <v>0</v>
+      </c>
       <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
+      <c r="U92" s="2">
+        <v>0</v>
+      </c>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C93" s="4">
-        <v>3003</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4">
-        <v>4</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2</v>
-      </c>
-      <c r="G93" s="4">
-        <v>2.1829999999999998</v>
-      </c>
-      <c r="H93" s="4">
-        <v>1.133</v>
-      </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
-      <c r="AC93" s="5"/>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C93" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>14</v>
+      </c>
+      <c r="F93" s="2">
+        <v>6</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H93" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S93" s="26">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2">
+        <v>0</v>
+      </c>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F94" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G94" s="2">
-        <v>2.2330000000000001</v>
+        <v>1</v>
       </c>
       <c r="H94" s="2">
-        <v>0.1</v>
+        <v>1.1666000000000001</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M94" s="2">
-        <v>1</v>
-      </c>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
+      <c r="R94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S94" s="26">
+        <v>0</v>
+      </c>
       <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
+      <c r="U94" s="2">
+        <v>0</v>
+      </c>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
+        <v>16</v>
+      </c>
+      <c r="F95" s="2">
         <v>6</v>
       </c>
-      <c r="F95" s="2">
-        <v>4</v>
-      </c>
       <c r="G95" s="2">
-        <v>2.3330000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="H95" s="2">
-        <v>0.183</v>
+        <v>1.7</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M95" s="2">
-        <v>1</v>
-      </c>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
+      <c r="R95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S95" s="26">
+        <v>0</v>
+      </c>
       <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
+      <c r="U95" s="2">
+        <v>0</v>
+      </c>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F96" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G96" s="2">
-        <v>2.5670000000000002</v>
+        <v>2</v>
       </c>
       <c r="H96" s="2">
-        <v>0.183</v>
+        <v>1.45</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M96" s="2">
-        <v>1</v>
-      </c>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
+      <c r="R96" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="S96" s="26">
+        <v>0</v>
+      </c>
       <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
+      <c r="U96" s="2">
+        <v>0</v>
+      </c>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
@@ -6035,23 +6099,25 @@
       <c r="C97" s="2">
         <v>3003</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E97" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F97" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G97" s="2">
-        <v>2.3330000000000002</v>
+        <v>0</v>
       </c>
       <c r="H97" s="2">
-        <v>0.4083</v>
-      </c>
-      <c r="I97" s="2">
-        <v>1</v>
-      </c>
-      <c r="J97" s="2"/>
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -6063,18 +6129,7 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
-      <c r="W97" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X97" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y97" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA97" s="1">
-        <v>300</v>
-      </c>
+      <c r="W97" s="2"/>
     </row>
     <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
@@ -6082,21 +6137,22 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98" s="2">
-        <v>2.516</v>
+        <v>0.8</v>
       </c>
       <c r="H98" s="2">
-        <v>0.45829999999999999</v>
-      </c>
-      <c r="I98" s="2">
-        <v>1</v>
-      </c>
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I98" s="2"/>
       <c r="J98" s="2"/>
+      <c r="K98" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -6108,18 +6164,7 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
-      <c r="W98" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X98" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y98" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA98" s="1">
-        <v>300</v>
-      </c>
+      <c r="W98" s="2"/>
     </row>
     <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="2">
@@ -6127,22 +6172,25 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F99" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" s="2">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="H99" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I99" s="2">
-        <v>1</v>
-      </c>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="L99" s="2"/>
+      <c r="K99" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -6153,78 +6201,77 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
-      <c r="W99" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X99" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y99" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA99" s="1">
-        <v>400</v>
-      </c>
+      <c r="W99" s="2"/>
     </row>
     <row r="100" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C100" s="2">
-        <v>3004</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2">
-        <v>1</v>
-      </c>
-      <c r="G100" s="2">
-        <v>0</v>
-      </c>
-      <c r="H100" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
+      <c r="C100" s="4">
+        <v>3003</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4">
+        <v>4</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1.133</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
     </row>
     <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F101" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101" s="2">
-        <v>0</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="H101" s="2">
-        <v>5.1660000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="I101" s="2"/>
-      <c r="J101" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M101" s="2">
+        <v>1</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -6238,27 +6285,32 @@
     </row>
     <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F102" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G102" s="2">
-        <v>5.1669999999999998</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H102" s="2">
-        <v>1.6</v>
+        <v>0.183</v>
       </c>
       <c r="I102" s="2"/>
-      <c r="J102" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M102" s="2">
+        <v>1</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -6272,35 +6324,38 @@
     </row>
     <row r="103" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C103" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2">
+        <v>7</v>
+      </c>
+      <c r="F103" s="2">
         <v>4</v>
       </c>
-      <c r="F103" s="2">
-        <v>6</v>
-      </c>
       <c r="G103" s="2">
-        <v>0</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="H103" s="2">
-        <v>6.7</v>
+        <v>0.183</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="K103" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M103" s="2">
+        <v>1</v>
+      </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S103" s="2">
-        <v>0</v>
-      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
@@ -6308,26 +6363,25 @@
     </row>
     <row r="104" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C104" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F104" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G104" s="2">
-        <v>0.16700000000000001</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H104" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="I104" s="2"/>
+        <v>0.4083</v>
+      </c>
+      <c r="I104" s="2">
+        <v>1</v>
+      </c>
       <c r="J104" s="2"/>
-      <c r="K104" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -6339,30 +6393,40 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
+      <c r="W104" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="105" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C105" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F105" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G105" s="2">
-        <v>0.216</v>
+        <v>2.516</v>
       </c>
       <c r="H105" s="2">
-        <v>6.55</v>
-      </c>
-      <c r="I105" s="2"/>
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="I105" s="2">
+        <v>1</v>
+      </c>
       <c r="J105" s="2"/>
-      <c r="K105" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -6374,30 +6438,40 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
+      <c r="W105" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X105" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="106" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C106" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F106" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G106" s="2">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="H106" s="2">
-        <v>6.2670000000000003</v>
-      </c>
-      <c r="I106" s="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1</v>
+      </c>
       <c r="J106" s="2"/>
-      <c r="K106" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -6409,139 +6483,151 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
+      <c r="W106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X106" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>400</v>
+      </c>
     </row>
     <row r="107" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C107" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F107" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G107" s="2">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="H107" s="2">
-        <v>2.4500000000000002</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
+      <c r="R107" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S107" s="2">
+        <v>0</v>
+      </c>
       <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
+      <c r="U107" s="2">
+        <v>0</v>
+      </c>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
     <row r="108" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C108" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F108" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G108" s="2">
-        <v>2.15</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="H108" s="2">
-        <v>1.583</v>
+        <v>0.7</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
+      <c r="R108" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S108" s="2">
+        <v>0</v>
+      </c>
       <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
+      <c r="U108" s="2">
+        <v>0</v>
+      </c>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
     <row r="109" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C109" s="4">
-        <v>3004</v>
-      </c>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4">
-        <v>10</v>
-      </c>
-      <c r="F109" s="4">
-        <v>2</v>
-      </c>
-      <c r="G109" s="4">
-        <v>4.383</v>
-      </c>
-      <c r="H109" s="4">
-        <v>2.383</v>
-      </c>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
-      <c r="W109" s="4"/>
-      <c r="X109" s="5"/>
-      <c r="Y109" s="5"/>
-      <c r="Z109" s="5"/>
-      <c r="AA109" s="5"/>
-      <c r="AB109" s="5"/>
-      <c r="AC109" s="5"/>
+      <c r="C109" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2">
+        <v>13</v>
+      </c>
+      <c r="F109" s="2">
+        <v>6</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.5333</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0.58333000000000002</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S109" s="2">
+        <v>0</v>
+      </c>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2">
+        <v>0</v>
+      </c>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
     </row>
     <row r="110" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C110" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F110" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G110" s="2">
-        <v>5.2329999999999997</v>
-      </c>
-      <c r="H110" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="I110" s="2">
-        <v>1</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="H110" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -6549,111 +6635,113 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
+      <c r="R110" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S110" s="2">
+        <v>0</v>
+      </c>
       <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
+      <c r="U110" s="2">
+        <v>0</v>
+      </c>
       <c r="V110" s="2"/>
-      <c r="W110" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="X110" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y110" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA110" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W110" s="2"/>
     </row>
     <row r="111" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C111" s="2">
-        <v>4001</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>3003</v>
+      </c>
+      <c r="D111" s="2"/>
       <c r="E111" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F111" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="2">
-        <v>2.0329999999999999</v>
+        <v>1.1666000000000001</v>
       </c>
       <c r="I111" s="2"/>
-      <c r="J111" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="J111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
+      <c r="R111" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
       <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
+      <c r="U111" s="2">
+        <v>0</v>
+      </c>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
     <row r="112" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C112" s="2">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F112" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1.7</v>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
+      <c r="R112" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S112" s="2">
+        <v>0</v>
+      </c>
       <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
+      <c r="U112" s="2">
+        <v>0</v>
+      </c>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
     <row r="113" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C113" s="2">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F113" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G113" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -6661,30 +6749,25 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
+      <c r="R113" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0</v>
+      </c>
       <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
+      <c r="U113" s="2">
+        <v>0</v>
+      </c>
       <c r="V113" s="2"/>
-      <c r="W113" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X113" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y113" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA113" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W113" s="2"/>
     </row>
     <row r="114" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C114" s="2">
-        <v>4002</v>
+        <v>3004</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -6696,11 +6779,11 @@
         <v>0</v>
       </c>
       <c r="H114" s="2">
-        <v>2.9670000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -6717,23 +6800,24 @@
     </row>
     <row r="115" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C115" s="2">
-        <v>4002</v>
+        <v>3004</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2">
         <v>2</v>
       </c>
       <c r="F115" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="H115" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>5.1660000000000004</v>
+      </c>
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="1" t="s">
-        <v>101</v>
+      <c r="J115" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -6750,23 +6834,25 @@
     </row>
     <row r="116" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C116" s="2">
-        <v>4002</v>
+        <v>3004</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2">
         <v>3</v>
       </c>
       <c r="F116" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G116" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2">
-        <v>1</v>
-      </c>
-      <c r="J116" s="2"/>
+        <v>5.1669999999999998</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -6778,74 +6864,67 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
-      <c r="W116" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X116" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y116" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA116" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W116" s="2"/>
     </row>
     <row r="117" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C117" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>3004</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F117" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
       </c>
       <c r="H117" s="2">
-        <v>1.167</v>
+        <v>6.7</v>
       </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="J117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
+      <c r="R117" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S117" s="2">
+        <v>1</v>
+      </c>
       <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
+      <c r="U117" s="2">
+        <v>1</v>
+      </c>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
     <row r="118" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C118" s="2">
-        <v>5001</v>
+        <v>3004</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F118" s="2">
         <v>2</v>
       </c>
       <c r="G118" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H118" s="2"/>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H118" s="2">
+        <v>6.6</v>
+      </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -6862,23 +6941,26 @@
     </row>
     <row r="119" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C119" s="2">
-        <v>5001</v>
+        <v>3004</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F119" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2">
-        <v>1</v>
-      </c>
+        <v>0.216</v>
+      </c>
+      <c r="H119" s="2">
+        <v>6.55</v>
+      </c>
+      <c r="I119" s="2"/>
       <c r="J119" s="2"/>
+      <c r="K119" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -6890,41 +6972,29 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
-      <c r="W119" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y119" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA119" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W119" s="2"/>
     </row>
     <row r="120" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C120" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>3004</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F120" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H120" s="2">
-        <v>2.5670000000000002</v>
+        <v>6.2670000000000003</v>
       </c>
       <c r="I120" s="2"/>
-      <c r="J120" s="2" t="s">
-        <v>52</v>
+      <c r="J120" s="2"/>
+      <c r="K120" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -6941,23 +7011,25 @@
     </row>
     <row r="121" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C121" s="2">
-        <v>5002</v>
+        <v>3004</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F121" s="2">
         <v>2</v>
       </c>
       <c r="G121" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H121" s="2"/>
+        <v>2.15</v>
+      </c>
+      <c r="H121" s="2">
+        <v>2.4500000000000002</v>
+      </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -6974,23 +7046,25 @@
     </row>
     <row r="122" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C122" s="2">
-        <v>5002</v>
+        <v>3004</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F122" s="2">
         <v>2</v>
       </c>
       <c r="G122" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H122" s="2"/>
+        <v>2.15</v>
+      </c>
+      <c r="H122" s="2">
+        <v>1.583</v>
+      </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="1" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -7006,53 +7080,63 @@
       <c r="W122" s="2"/>
     </row>
     <row r="123" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C123" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2">
-        <v>4</v>
-      </c>
-      <c r="F123" s="2">
+      <c r="C123" s="4">
+        <v>3004</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4">
+        <v>10</v>
+      </c>
+      <c r="F123" s="4">
         <v>2</v>
       </c>
-      <c r="G123" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
+      <c r="G123" s="4">
+        <v>4.383</v>
+      </c>
+      <c r="H123" s="4">
+        <v>2.383</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
     </row>
     <row r="124" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C124" s="2">
-        <v>5002</v>
+        <v>3004</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F124" s="2">
         <v>3</v>
       </c>
       <c r="G124" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H124" s="2"/>
+        <v>5.2329999999999997</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1.6</v>
+      </c>
       <c r="I124" s="2">
         <v>1</v>
       </c>
@@ -7069,136 +7153,106 @@
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
       <c r="W124" s="2" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="X124" s="1" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="Y124" s="1" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="AA124" s="1">
-        <v>800</v>
-      </c>
-      <c r="AB124" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC124" s="1">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="125" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C125" s="4">
-        <v>5002</v>
-      </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4">
-        <v>6</v>
-      </c>
-      <c r="F125" s="4">
-        <v>3</v>
-      </c>
-      <c r="G125" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4">
-        <v>1</v>
-      </c>
-      <c r="J125" s="4"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X125" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y125" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="5">
-        <v>150</v>
-      </c>
-      <c r="AB125" s="5"/>
-      <c r="AC125" s="5">
-        <v>2</v>
-      </c>
+      <c r="C125" s="2">
+        <v>4001</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
     </row>
     <row r="126" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C126" s="2">
-        <v>5002</v>
+        <v>4001</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F126" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G126" s="2">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H126" s="2"/>
-      <c r="I126" s="4">
-        <v>1</v>
-      </c>
+      <c r="I126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="W126" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X126" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y126" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="K126" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
     </row>
     <row r="127" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C127" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>4001</v>
+      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F127" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G127" s="2">
-        <v>0</v>
-      </c>
-      <c r="H127" s="2">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -7210,27 +7264,41 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
+      <c r="W127" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X127" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA127" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="128" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C128" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>4002</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E128" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H128" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>2.9670000000000001</v>
+      </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="1" t="s">
-        <v>101</v>
+      <c r="J128" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -7247,23 +7315,24 @@
     </row>
     <row r="129" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C129" s="2">
-        <v>6001</v>
+        <v>4002</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" s="2">
-        <v>0.65</v>
+        <v>1.333</v>
       </c>
       <c r="H129" s="2"/>
-      <c r="I129" s="2">
-        <v>1</v>
-      </c>
+      <c r="I129" s="2"/>
       <c r="J129" s="2"/>
+      <c r="K129" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -7275,42 +7344,27 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
-      <c r="W129" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X129" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y129" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA129" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W129" s="2"/>
     </row>
     <row r="130" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C130" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>4002</v>
+      </c>
+      <c r="D130" s="2"/>
       <c r="E130" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F130" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G130" s="2">
-        <v>0</v>
-      </c>
-      <c r="H130" s="2">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>1.333</v>
+      </c>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2">
+        <v>1</v>
+      </c>
+      <c r="J130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -7322,27 +7376,41 @@
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
+      <c r="W130" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X130" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA130" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="131" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C131" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D131" s="2"/>
+        <v>5001</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E131" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" s="2">
-        <v>2</v>
-      </c>
-      <c r="G131" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H131" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>1.167</v>
+      </c>
       <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="1" t="s">
-        <v>101</v>
+      <c r="J131" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -7358,75 +7426,57 @@
       <c r="W131" s="2"/>
     </row>
     <row r="132" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C132" s="4">
-        <v>6002</v>
-      </c>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4">
-        <v>3</v>
-      </c>
-      <c r="F132" s="4">
-        <v>3</v>
-      </c>
-      <c r="G132" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4">
-        <v>1</v>
-      </c>
-      <c r="J132" s="4"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X132" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y132" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z132" s="5"/>
-      <c r="AA132" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AB132" s="5"/>
-      <c r="AC132" s="5"/>
+      <c r="C132" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2">
+        <v>2</v>
+      </c>
+      <c r="F132" s="2">
+        <v>2</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
     </row>
     <row r="133" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C133" s="2">
-        <v>8002</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>5001</v>
+      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F133" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G133" s="2">
-        <v>0</v>
-      </c>
-      <c r="H133" s="2">
-        <v>4</v>
-      </c>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2">
+        <v>1</v>
+      </c>
+      <c r="J133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -7438,72 +7488,74 @@
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
+      <c r="W133" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y133" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA133" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="134" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C134" s="2">
-        <v>8002</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4">
-        <v>2</v>
-      </c>
-      <c r="F134" s="4">
-        <v>2</v>
-      </c>
-      <c r="G134" s="4">
-        <v>0</v>
-      </c>
-      <c r="H134" s="4">
-        <v>4</v>
-      </c>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4"/>
-      <c r="T134" s="4"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="5"/>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
-      <c r="AA134" s="5"/>
-      <c r="AB134" s="5"/>
-      <c r="AC134" s="5"/>
+        <v>5002</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
     </row>
     <row r="135" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C135" s="2">
-        <v>8002</v>
+        <v>5002</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" s="2">
         <v>2</v>
       </c>
       <c r="G135" s="2">
-        <v>0</v>
-      </c>
-      <c r="H135" s="2">
-        <v>4</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -7520,25 +7572,23 @@
     </row>
     <row r="136" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C136" s="2">
-        <v>8002</v>
+        <v>5002</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F136" s="2">
         <v>2</v>
       </c>
       <c r="G136" s="2">
-        <v>0</v>
-      </c>
-      <c r="H136" s="2">
-        <v>4</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -7555,25 +7605,23 @@
     </row>
     <row r="137" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C137" s="2">
-        <v>8002</v>
+        <v>5002</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F137" s="2">
         <v>2</v>
       </c>
       <c r="G137" s="2">
-        <v>0</v>
-      </c>
-      <c r="H137" s="2">
-        <v>4</v>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="1" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -7590,21 +7638,19 @@
     </row>
     <row r="138" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C138" s="2">
-        <v>8002</v>
+        <v>5002</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F138" s="2">
         <v>3</v>
       </c>
       <c r="G138" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="H138" s="2">
-        <v>2</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H138" s="2"/>
       <c r="I138" s="2">
         <v>1</v>
       </c>
@@ -7624,157 +7670,165 @@
         <v>70</v>
       </c>
       <c r="X138" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y138" s="2" t="s">
-        <v>277</v>
+        <v>50</v>
+      </c>
+      <c r="Y138" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AA138" s="1">
-        <v>1000</v>
+        <v>800</v>
+      </c>
+      <c r="AB138" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC138" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C139" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E139" s="2">
-        <v>1</v>
-      </c>
-      <c r="F139" s="2">
-        <v>1</v>
-      </c>
-      <c r="G139" s="2">
-        <v>0</v>
-      </c>
-      <c r="H139" s="2">
-        <v>5.6333000000000002</v>
-      </c>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
+      <c r="C139" s="4">
+        <v>5002</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4">
+        <v>6</v>
+      </c>
+      <c r="F139" s="4">
+        <v>3</v>
+      </c>
+      <c r="G139" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4">
+        <v>1</v>
+      </c>
+      <c r="J139" s="4"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X139" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y139" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5">
+        <v>150</v>
+      </c>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="140" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C140" s="2">
-        <v>8004</v>
+        <v>5002</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F140" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G140" s="2">
-        <v>0</v>
-      </c>
-      <c r="H140" s="2">
-        <v>5.2332999999999998</v>
-      </c>
-      <c r="I140" s="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="4">
+        <v>1</v>
+      </c>
       <c r="J140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S140" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="T140" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U140" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="V140" s="2"/>
-      <c r="W140" s="2"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y140" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="141" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C141" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4">
-        <v>3</v>
-      </c>
-      <c r="F141" s="4">
-        <v>6</v>
-      </c>
-      <c r="G141" s="4">
-        <v>5.2332999999999998</v>
-      </c>
-      <c r="H141" s="4">
-        <v>3.5666000000000002</v>
-      </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="S141" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="T141" s="4"/>
-      <c r="U141" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-      <c r="AA141" s="5"/>
-      <c r="AB141" s="5"/>
-      <c r="AC141" s="5"/>
+        <v>6001</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+      <c r="W141" s="2"/>
     </row>
     <row r="142" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C142" s="2">
-        <v>8004</v>
+        <v>6001</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F142" s="2">
         <v>2</v>
       </c>
       <c r="G142" s="2">
-        <v>0</v>
-      </c>
-      <c r="H142" s="2">
-        <v>10.833</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="1" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
@@ -7791,26 +7845,23 @@
     </row>
     <row r="143" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C143" s="2">
-        <v>8004</v>
+        <v>6001</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F143" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G143" s="2">
-        <v>5.1665999999999999</v>
-      </c>
-      <c r="H143" s="2">
-        <v>5</v>
-      </c>
-      <c r="I143" s="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2">
+        <v>1</v>
+      </c>
       <c r="J143" s="2"/>
-      <c r="K143" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -7822,29 +7873,41 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
+      <c r="W143" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y143" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA143" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="144" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C144" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>6002</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E144" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="2">
-        <v>5.3666</v>
+        <v>0</v>
       </c>
       <c r="H144" s="2">
-        <v>1.6659999999999999</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="1" t="s">
-        <v>231</v>
+      <c r="J144" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -7861,25 +7924,23 @@
     </row>
     <row r="145" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C145" s="2">
-        <v>8004</v>
+        <v>6002</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F145" s="2">
         <v>2</v>
       </c>
-      <c r="G145" s="2">
-        <v>5.3666</v>
-      </c>
-      <c r="H145" s="2">
-        <v>5</v>
-      </c>
+      <c r="G145" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="1" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -7895,58 +7956,75 @@
       <c r="W145" s="2"/>
     </row>
     <row r="146" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C146" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2">
-        <v>8</v>
-      </c>
-      <c r="F146" s="2">
-        <v>1</v>
-      </c>
-      <c r="G146" s="2">
-        <v>5.3666999999999998</v>
-      </c>
-      <c r="H146" s="2">
-        <v>0.1333000000000002</v>
-      </c>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2"/>
-      <c r="V146" s="2"/>
-      <c r="W146" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="C146" s="4">
+        <v>6002</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4">
+        <v>3</v>
+      </c>
+      <c r="F146" s="4">
+        <v>3</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4">
+        <v>1</v>
+      </c>
+      <c r="J146" s="4"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X146" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y146" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
     </row>
     <row r="147" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C147" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>8002</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E147" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" s="2">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="H147" s="2">
-        <v>0.16669999999999999</v>
+        <v>4</v>
       </c>
       <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
+      <c r="J147" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -7958,67 +8036,73 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
-      <c r="W147" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="W147" s="2"/>
     </row>
     <row r="148" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C148" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2">
-        <v>10</v>
-      </c>
-      <c r="F148" s="2">
-        <v>1</v>
-      </c>
-      <c r="G148" s="2">
-        <v>5.6669999999999998</v>
-      </c>
-      <c r="H148" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2"/>
-      <c r="V148" s="2"/>
-      <c r="W148" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>8002</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4">
+        <v>2</v>
+      </c>
+      <c r="F148" s="4">
+        <v>2</v>
+      </c>
+      <c r="G148" s="4">
+        <v>0</v>
+      </c>
+      <c r="H148" s="4">
+        <v>4</v>
+      </c>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
     </row>
     <row r="149" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C149" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>8002</v>
+      </c>
+      <c r="D149" s="2"/>
       <c r="E149" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F149" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G149" s="2">
-        <v>6.867</v>
+        <v>0</v>
       </c>
       <c r="H149" s="2">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I149" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I149" s="2"/>
       <c r="J149" s="2"/>
+      <c r="K149" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -8030,88 +8114,71 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
-      <c r="W149" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y149" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA149" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W149" s="2"/>
     </row>
     <row r="150" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C150" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E150" s="4">
-        <v>12</v>
-      </c>
-      <c r="F150" s="4">
-        <v>1</v>
+        <v>8002</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2">
+        <v>4</v>
+      </c>
+      <c r="F150" s="2">
+        <v>2</v>
       </c>
       <c r="G150" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="H150" s="4">
-        <v>2</v>
-      </c>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="X150" s="5"/>
-      <c r="Y150" s="5"/>
-      <c r="Z150" s="5"/>
-      <c r="AA150" s="5"/>
-      <c r="AB150" s="5"/>
-      <c r="AC150" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>4</v>
+      </c>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="2"/>
     </row>
     <row r="151" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C151" s="2">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F151" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G151" s="2">
         <v>0</v>
       </c>
       <c r="H151" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
+      <c r="K151" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
-      <c r="P151" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q151" s="24" t="s">
-        <v>237</v>
-      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
@@ -8121,56 +8188,65 @@
     </row>
     <row r="152" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C152" s="2">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F152" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G152" s="2">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H152" s="2">
-        <v>12</v>
-      </c>
-      <c r="I152" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="I152" s="2">
+        <v>1</v>
+      </c>
       <c r="J152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
-      <c r="P152" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q152" s="24" t="s">
-        <v>238</v>
-      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
-      <c r="W152" s="2"/>
+      <c r="W152" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X152" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y152" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA152" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="153" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C153" s="2">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F153" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
       </c>
       <c r="H153" s="2">
-        <v>12</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
@@ -8178,78 +8254,75 @@
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
-      <c r="P153" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q153" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S153" s="2">
+        <v>0</v>
+      </c>
       <c r="T153" s="2"/>
-      <c r="U153" s="2"/>
+      <c r="U153" s="2">
+        <v>0</v>
+      </c>
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
     <row r="154" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C154" s="2">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F154" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G154" s="2">
-        <v>0</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H154" s="2">
-        <v>12</v>
-      </c>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q154" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="R154" s="4"/>
-      <c r="S154" s="4"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="4"/>
-      <c r="X154" s="5"/>
-      <c r="Y154" s="5"/>
-      <c r="Z154" s="5"/>
-      <c r="AA154" s="5"/>
-      <c r="AB154" s="5"/>
-      <c r="AC154" s="5"/>
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S154" s="2">
+        <v>0</v>
+      </c>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2">
+        <v>0</v>
+      </c>
+      <c r="V154" s="2"/>
+      <c r="W154" s="2"/>
     </row>
     <row r="155" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C155" s="2">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F155" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G155" s="2">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H155" s="2">
-        <v>12</v>
+        <v>1.266</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -8257,16 +8330,18 @@
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
-      <c r="P155" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q155" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S155" s="2">
+        <v>0</v>
+      </c>
       <c r="T155" s="2"/>
-      <c r="U155" s="2"/>
+      <c r="U155" s="2">
+        <v>0</v>
+      </c>
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
@@ -8274,31 +8349,31 @@
       <c r="C156" s="2">
         <v>8004</v>
       </c>
-      <c r="D156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E156" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F156" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
       </c>
       <c r="H156" s="2">
-        <v>12</v>
+        <v>5.6333000000000002</v>
       </c>
       <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
+      <c r="J156" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
-      <c r="P156" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q156" s="24" t="s">
-        <v>241</v>
-      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
@@ -8312,33 +8387,37 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F157" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
       </c>
       <c r="H157" s="2">
-        <v>5.4666666666666668</v>
+        <v>5.2332999999999998</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
-      <c r="N157" s="2">
-        <v>1</v>
-      </c>
-      <c r="O157" s="24" t="s">
-        <v>244</v>
-      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
       <c r="P157" s="2"/>
-      <c r="Q157" s="24"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="S157" s="2">
+        <v>0</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="U157" s="2">
+        <v>0</v>
+      </c>
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
@@ -8346,37 +8425,48 @@
       <c r="C158" s="2">
         <v>8004</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2">
-        <v>20</v>
-      </c>
-      <c r="F158" s="2">
-        <v>5</v>
-      </c>
-      <c r="G158" s="2">
-        <v>0</v>
-      </c>
-      <c r="H158" s="2">
-        <v>5.4666666666666668</v>
-      </c>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2">
-        <v>2</v>
-      </c>
-      <c r="O158" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="24"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4">
+        <v>3</v>
+      </c>
+      <c r="F158" s="4">
+        <v>6</v>
+      </c>
+      <c r="G158" s="4">
+        <v>5.2332999999999998</v>
+      </c>
+      <c r="H158" s="4">
+        <v>3.5666000000000002</v>
+      </c>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="S158" s="2">
+        <v>0</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="U158" s="2">
+        <v>0</v>
+      </c>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+      <c r="AA158" s="5"/>
+      <c r="AB158" s="5"/>
+      <c r="AC158" s="5"/>
     </row>
     <row r="159" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C159" s="2">
@@ -8384,29 +8474,28 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F159" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G159" s="2">
         <v>0</v>
       </c>
       <c r="H159" s="2">
-        <v>5.4666666666666668</v>
+        <v>10.833</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
+      <c r="K159" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
-      <c r="N159" s="2">
-        <v>3</v>
-      </c>
-      <c r="O159" s="24" t="s">
-        <v>246</v>
-      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
       <c r="P159" s="2"/>
-      <c r="Q159" s="24"/>
+      <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
@@ -8418,44 +8507,36 @@
       <c r="C160" s="2">
         <v>8004</v>
       </c>
-      <c r="D160" s="4"/>
+      <c r="D160" s="2"/>
       <c r="E160" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F160" s="2">
+        <v>2</v>
+      </c>
+      <c r="G160" s="2">
+        <v>5.1665999999999999</v>
+      </c>
+      <c r="H160" s="2">
         <v>5</v>
       </c>
-      <c r="G160" s="2">
-        <v>0</v>
-      </c>
-      <c r="H160" s="2">
-        <v>5.4666666666666668</v>
-      </c>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4">
-        <v>4</v>
-      </c>
-      <c r="O160" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="P160" s="4"/>
-      <c r="Q160" s="24"/>
-      <c r="R160" s="4"/>
-      <c r="S160" s="4"/>
-      <c r="T160" s="4"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="W160" s="4"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
-      <c r="Z160" s="5"/>
-      <c r="AA160" s="5"/>
-      <c r="AB160" s="5"/>
-      <c r="AC160" s="5"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2"/>
+      <c r="V160" s="2"/>
+      <c r="W160" s="2"/>
     </row>
     <row r="161" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C161" s="2">
@@ -8463,29 +8544,28 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F161" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G161" s="2">
-        <v>0</v>
+        <v>5.3666</v>
       </c>
       <c r="H161" s="2">
-        <v>5.4666666666666668</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
+      <c r="K161" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
-      <c r="N161" s="2">
-        <v>5</v>
-      </c>
-      <c r="O161" s="24" t="s">
-        <v>249</v>
-      </c>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
       <c r="P161" s="2"/>
-      <c r="Q161" s="24"/>
+      <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
@@ -8499,29 +8579,28 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F162" s="2">
+        <v>2</v>
+      </c>
+      <c r="G162" s="2">
+        <v>5.3666</v>
+      </c>
+      <c r="H162" s="2">
         <v>5</v>
-      </c>
-      <c r="G162" s="2">
-        <v>0</v>
-      </c>
-      <c r="H162" s="2">
-        <v>5.4666666666666668</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
+      <c r="K162" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
-      <c r="N162" s="2">
-        <v>6</v>
-      </c>
-      <c r="O162" s="24" t="s">
-        <v>250</v>
-      </c>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
       <c r="P162" s="2"/>
-      <c r="Q162" s="24"/>
+      <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
@@ -8535,28 +8614,23 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F163" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G163" s="2">
-        <v>5.4666666666666668</v>
+        <v>5.3666999999999998</v>
       </c>
       <c r="H163" s="2">
-        <f>171/30</f>
-        <v>5.7</v>
+        <v>0.1333000000000002</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
-      <c r="N163" s="2">
-        <v>1</v>
-      </c>
-      <c r="O163" s="24" t="s">
-        <v>252</v>
-      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
@@ -8564,7 +8638,9 @@
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
+      <c r="W163" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="164" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C164" s="2">
@@ -8572,28 +8648,23 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F164" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G164" s="2">
-        <v>5.4666666666666668</v>
+        <v>5.5</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" ref="H164:H168" si="0">171/30</f>
-        <v>5.7</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
-      <c r="N164" s="2">
-        <v>2</v>
-      </c>
-      <c r="O164" s="24" t="s">
-        <v>254</v>
-      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
@@ -8601,7 +8672,9 @@
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
+      <c r="W164" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="165" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C165" s="2">
@@ -8609,28 +8682,23 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F165" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G165" s="2">
-        <v>5.4666666666666668</v>
+        <v>5.6669999999999998</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
-      <c r="N165" s="2">
-        <v>3</v>
-      </c>
-      <c r="O165" s="24" t="s">
-        <v>256</v>
-      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
@@ -8638,36 +8706,37 @@
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
+      <c r="W165" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="166" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C166" s="2">
         <v>8004</v>
       </c>
-      <c r="D166" s="2"/>
+      <c r="D166" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="E166" s="2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F166" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G166" s="2">
-        <v>5.4666666666666668</v>
+        <v>6.867</v>
       </c>
       <c r="H166" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="I166" s="2"/>
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="I166" s="2">
+        <v>1</v>
+      </c>
       <c r="J166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
-      <c r="N166" s="2">
-        <v>4</v>
-      </c>
-      <c r="O166" s="24" t="s">
-        <v>258</v>
-      </c>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
@@ -8675,44 +8744,58 @@
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
+      <c r="W166" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA166" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="167" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C167" s="2">
         <v>8004</v>
       </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2">
-        <v>29</v>
-      </c>
-      <c r="F167" s="2">
-        <v>5</v>
+      <c r="D167" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E167" s="4">
+        <v>12</v>
+      </c>
+      <c r="F167" s="4">
+        <v>1</v>
       </c>
       <c r="G167" s="2">
-        <v>5.4666666666666668</v>
-      </c>
-      <c r="H167" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2">
-        <v>5</v>
-      </c>
-      <c r="O167" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2"/>
-      <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="H167" s="4">
+        <v>2</v>
+      </c>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="X167" s="5"/>
+      <c r="Y167" s="5"/>
+      <c r="Z167" s="5"/>
+      <c r="AA167" s="5"/>
+      <c r="AB167" s="5"/>
+      <c r="AC167" s="5"/>
     </row>
     <row r="168" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C168" s="2">
@@ -8720,30 +8803,29 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F168" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G168" s="2">
-        <v>5.4666666666666668</v>
+        <v>0</v>
       </c>
       <c r="H168" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
+        <v>12</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
-      <c r="N168" s="2">
-        <v>6</v>
-      </c>
-      <c r="O168" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="24" t="s">
+        <v>236</v>
+      </c>
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
@@ -8755,44 +8837,37 @@
       <c r="C169" s="2">
         <v>8004</v>
       </c>
-      <c r="D169" s="4"/>
+      <c r="D169" s="2"/>
       <c r="E169" s="2">
-        <v>31</v>
-      </c>
-      <c r="F169" s="4">
-        <v>5</v>
-      </c>
-      <c r="G169" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H169" s="4">
+        <v>14</v>
+      </c>
+      <c r="F169" s="2">
+        <v>7</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2">
         <v>12</v>
       </c>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4">
-        <v>1</v>
-      </c>
-      <c r="O169" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="P169" s="4"/>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
-      <c r="S169" s="4"/>
-      <c r="T169" s="4"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
-      <c r="W169" s="4"/>
-      <c r="X169" s="5"/>
-      <c r="Y169" s="5"/>
-      <c r="Z169" s="5"/>
-      <c r="AA169" s="5"/>
-      <c r="AB169" s="5"/>
-      <c r="AC169" s="5"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q169" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
     </row>
     <row r="170" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C170" s="2">
@@ -8800,29 +8875,29 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F170" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G170" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H170" s="4">
+        <v>0</v>
+      </c>
+      <c r="H170" s="2">
         <v>12</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="N170" s="2">
-        <v>2</v>
-      </c>
-      <c r="O170" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q170" s="24" t="s">
+        <v>238</v>
+      </c>
       <c r="R170" s="2"/>
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
@@ -8836,35 +8911,42 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F171" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G171" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H171" s="4">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
         <v>12</v>
       </c>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2">
-        <v>3</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q171" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="5"/>
+      <c r="Y171" s="5"/>
+      <c r="Z171" s="5"/>
+      <c r="AA171" s="5"/>
+      <c r="AB171" s="5"/>
+      <c r="AC171" s="5"/>
     </row>
     <row r="172" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C172" s="2">
@@ -8872,29 +8954,29 @@
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F172" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G172" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H172" s="4">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
         <v>12</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
-      <c r="N172" s="2">
-        <v>4</v>
-      </c>
-      <c r="O172" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q172" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
@@ -8908,29 +8990,29 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F173" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G173" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H173" s="4">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2">
         <v>12</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
-      <c r="N173" s="2">
-        <v>5</v>
-      </c>
-      <c r="O173" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q173" s="24" t="s">
+        <v>240</v>
+      </c>
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
@@ -8944,29 +9026,29 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F174" s="2">
         <v>5</v>
       </c>
       <c r="G174" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H174" s="4">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>5.4666666666666668</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2">
-        <v>6</v>
-      </c>
-      <c r="O174" s="2" t="s">
-        <v>261</v>
+        <v>1</v>
+      </c>
+      <c r="O174" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
+      <c r="Q174" s="24"/>
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
@@ -8976,31 +9058,33 @@
     </row>
     <row r="175" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C175" s="2">
-        <v>9002</v>
+        <v>8004</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F175" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G175" s="2">
         <v>0</v>
       </c>
       <c r="H175" s="2">
-        <v>2.5</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="I175" s="2"/>
-      <c r="J175" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="J175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
+      <c r="N175" s="2">
+        <v>2</v>
+      </c>
+      <c r="O175" s="24" t="s">
+        <v>244</v>
+      </c>
       <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
+      <c r="Q175" s="24"/>
       <c r="R175" s="2"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
@@ -9010,86 +9094,112 @@
     </row>
     <row r="176" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C176" s="2">
-        <v>9002</v>
+        <v>8004</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F176" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>1.6667000000000001</v>
+        <v>0</v>
       </c>
       <c r="H176" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I176" s="2">
-        <v>1</v>
-      </c>
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
+      <c r="N176" s="2">
+        <v>3</v>
+      </c>
+      <c r="O176" s="24" t="s">
+        <v>245</v>
+      </c>
       <c r="P176" s="2"/>
-      <c r="Q176" s="2"/>
+      <c r="Q176" s="24"/>
       <c r="R176" s="2"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
-      <c r="W176" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X176" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y176" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA176" s="1">
-        <v>300</v>
-      </c>
+      <c r="W176" s="2"/>
     </row>
     <row r="177" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2"/>
-      <c r="V177" s="2"/>
-      <c r="W177" s="2"/>
+      <c r="C177" s="2">
+        <v>8004</v>
+      </c>
+      <c r="D177" s="4"/>
+      <c r="E177" s="2">
+        <v>22</v>
+      </c>
+      <c r="F177" s="2">
+        <v>5</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4">
+        <v>4</v>
+      </c>
+      <c r="O177" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="24"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="5"/>
+      <c r="Y177" s="5"/>
+      <c r="Z177" s="5"/>
+      <c r="AA177" s="5"/>
+      <c r="AB177" s="5"/>
+      <c r="AC177" s="5"/>
     </row>
     <row r="178" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C178" s="2"/>
+      <c r="C178" s="2">
+        <v>8004</v>
+      </c>
       <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="E178" s="2">
+        <v>23</v>
+      </c>
+      <c r="F178" s="2">
+        <v>5</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2">
+        <v>5.4666666666666668</v>
+      </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
+      <c r="N178" s="2">
+        <v>5</v>
+      </c>
+      <c r="O178" s="24" t="s">
+        <v>248</v>
+      </c>
       <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
+      <c r="Q178" s="24"/>
       <c r="R178" s="2"/>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
@@ -9098,20 +9208,34 @@
       <c r="W178" s="2"/>
     </row>
     <row r="179" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C179" s="2"/>
+      <c r="C179" s="2">
+        <v>8004</v>
+      </c>
       <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="E179" s="2">
+        <v>24</v>
+      </c>
+      <c r="F179" s="2">
+        <v>5</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2">
+        <v>5.4666666666666668</v>
+      </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
+      <c r="N179" s="2">
+        <v>6</v>
+      </c>
+      <c r="O179" s="24" t="s">
+        <v>249</v>
+      </c>
       <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
+      <c r="Q179" s="24"/>
       <c r="R179" s="2"/>
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
@@ -9120,18 +9244,33 @@
       <c r="W179" s="2"/>
     </row>
     <row r="180" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C180" s="2"/>
+      <c r="C180" s="2">
+        <v>8004</v>
+      </c>
       <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
+      <c r="E180" s="2">
+        <v>25</v>
+      </c>
+      <c r="F180" s="2">
+        <v>5</v>
+      </c>
+      <c r="G180" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H180" s="2">
+        <f>171/30</f>
+        <v>5.7</v>
+      </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
+      <c r="N180" s="2">
+        <v>1</v>
+      </c>
+      <c r="O180" s="24" t="s">
+        <v>251</v>
+      </c>
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
@@ -9142,18 +9281,33 @@
       <c r="W180" s="2"/>
     </row>
     <row r="181" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C181" s="2"/>
+      <c r="C181" s="2">
+        <v>8004</v>
+      </c>
       <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
+      <c r="E181" s="2">
+        <v>26</v>
+      </c>
+      <c r="F181" s="2">
+        <v>5</v>
+      </c>
+      <c r="G181" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H181" s="2">
+        <f t="shared" ref="H181:H185" si="0">171/30</f>
+        <v>5.7</v>
+      </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
+      <c r="N181" s="2">
+        <v>2</v>
+      </c>
+      <c r="O181" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
@@ -9164,18 +9318,33 @@
       <c r="W181" s="2"/>
     </row>
     <row r="182" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C182" s="2"/>
+      <c r="C182" s="2">
+        <v>8004</v>
+      </c>
       <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
+      <c r="E182" s="2">
+        <v>27</v>
+      </c>
+      <c r="F182" s="2">
+        <v>5</v>
+      </c>
+      <c r="G182" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H182" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
+      <c r="N182" s="2">
+        <v>3</v>
+      </c>
+      <c r="O182" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
@@ -9186,18 +9355,33 @@
       <c r="W182" s="2"/>
     </row>
     <row r="183" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C183" s="2"/>
+      <c r="C183" s="2">
+        <v>8004</v>
+      </c>
       <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
+      <c r="E183" s="2">
+        <v>28</v>
+      </c>
+      <c r="F183" s="2">
+        <v>5</v>
+      </c>
+      <c r="G183" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H183" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
+      <c r="N183" s="2">
+        <v>4</v>
+      </c>
+      <c r="O183" s="24" t="s">
+        <v>257</v>
+      </c>
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
@@ -9208,18 +9392,33 @@
       <c r="W183" s="2"/>
     </row>
     <row r="184" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C184" s="2"/>
+      <c r="C184" s="2">
+        <v>8004</v>
+      </c>
       <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
+      <c r="E184" s="2">
+        <v>29</v>
+      </c>
+      <c r="F184" s="2">
+        <v>5</v>
+      </c>
+      <c r="G184" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H184" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
+      <c r="N184" s="2">
+        <v>5</v>
+      </c>
+      <c r="O184" s="24" t="s">
+        <v>259</v>
+      </c>
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
@@ -9230,18 +9429,33 @@
       <c r="W184" s="2"/>
     </row>
     <row r="185" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C185" s="2"/>
+      <c r="C185" s="2">
+        <v>8004</v>
+      </c>
       <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
+      <c r="E185" s="2">
+        <v>30</v>
+      </c>
+      <c r="F185" s="2">
+        <v>5</v>
+      </c>
+      <c r="G185" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H185" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
+      <c r="N185" s="2">
+        <v>6</v>
+      </c>
+      <c r="O185" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
@@ -9252,40 +9466,75 @@
       <c r="W185" s="2"/>
     </row>
     <row r="186" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="2"/>
-      <c r="R186" s="2"/>
-      <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="U186" s="2"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="2"/>
+      <c r="C186" s="2">
+        <v>8004</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="2">
+        <v>31</v>
+      </c>
+      <c r="F186" s="4">
+        <v>5</v>
+      </c>
+      <c r="G186" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H186" s="4">
+        <v>12</v>
+      </c>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4">
+        <v>1</v>
+      </c>
+      <c r="O186" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="5"/>
+      <c r="Y186" s="5"/>
+      <c r="Z186" s="5"/>
+      <c r="AA186" s="5"/>
+      <c r="AB186" s="5"/>
+      <c r="AC186" s="5"/>
     </row>
     <row r="187" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C187" s="2"/>
+      <c r="C187" s="2">
+        <v>8004</v>
+      </c>
       <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
+      <c r="E187" s="2">
+        <v>32</v>
+      </c>
+      <c r="F187" s="2">
+        <v>5</v>
+      </c>
+      <c r="G187" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H187" s="4">
+        <v>12</v>
+      </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
+      <c r="N187" s="2">
+        <v>2</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
@@ -9296,18 +9545,32 @@
       <c r="W187" s="2"/>
     </row>
     <row r="188" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C188" s="2"/>
+      <c r="C188" s="2">
+        <v>8004</v>
+      </c>
       <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
+      <c r="E188" s="2">
+        <v>33</v>
+      </c>
+      <c r="F188" s="2">
+        <v>5</v>
+      </c>
+      <c r="G188" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H188" s="4">
+        <v>12</v>
+      </c>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
+      <c r="N188" s="2">
+        <v>3</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
@@ -9318,18 +9581,32 @@
       <c r="W188" s="2"/>
     </row>
     <row r="189" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C189" s="2"/>
+      <c r="C189" s="2">
+        <v>8004</v>
+      </c>
       <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="E189" s="2">
+        <v>34</v>
+      </c>
+      <c r="F189" s="2">
+        <v>5</v>
+      </c>
+      <c r="G189" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H189" s="4">
+        <v>12</v>
+      </c>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
+      <c r="N189" s="2">
+        <v>4</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
@@ -9340,18 +9617,32 @@
       <c r="W189" s="2"/>
     </row>
     <row r="190" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C190" s="2"/>
+      <c r="C190" s="2">
+        <v>8004</v>
+      </c>
       <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="E190" s="2">
+        <v>35</v>
+      </c>
+      <c r="F190" s="2">
+        <v>5</v>
+      </c>
+      <c r="G190" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H190" s="4">
+        <v>12</v>
+      </c>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
+      <c r="N190" s="2">
+        <v>5</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
@@ -9362,18 +9653,32 @@
       <c r="W190" s="2"/>
     </row>
     <row r="191" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C191" s="2"/>
+      <c r="C191" s="2">
+        <v>8004</v>
+      </c>
       <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
+      <c r="E191" s="2">
+        <v>36</v>
+      </c>
+      <c r="F191" s="2">
+        <v>5</v>
+      </c>
+      <c r="G191" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H191" s="4">
+        <v>12</v>
+      </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
+      <c r="N191" s="2">
+        <v>6</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
@@ -9384,33 +9689,442 @@
       <c r="W191" s="2"/>
     </row>
     <row r="192" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
-      <c r="K192" s="5"/>
-      <c r="L192" s="4"/>
-      <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
-      <c r="P192" s="4"/>
-      <c r="Q192" s="4"/>
-      <c r="R192" s="4"/>
-      <c r="S192" s="4"/>
-      <c r="T192" s="4"/>
-      <c r="U192" s="4"/>
-      <c r="V192" s="4"/>
-      <c r="W192" s="4"/>
-      <c r="X192" s="5"/>
-      <c r="Y192" s="5"/>
-      <c r="Z192" s="5"/>
-      <c r="AA192" s="5"/>
-      <c r="AB192" s="5"/>
-      <c r="AC192" s="5"/>
+      <c r="C192" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2">
+        <v>1</v>
+      </c>
+      <c r="F192" s="2">
+        <v>1</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0</v>
+      </c>
+      <c r="H192" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="2"/>
+    </row>
+    <row r="193" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C193" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2">
+        <v>2</v>
+      </c>
+      <c r="F193" s="2">
+        <v>3</v>
+      </c>
+      <c r="G193" s="2">
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I193" s="2">
+        <v>1</v>
+      </c>
+      <c r="J193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X193" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y193" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA193" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="2"/>
+    </row>
+    <row r="195" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="2"/>
+    </row>
+    <row r="196" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="2"/>
+    </row>
+    <row r="197" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="2"/>
+    </row>
+    <row r="198" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="2"/>
+    </row>
+    <row r="199" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="2"/>
+    </row>
+    <row r="200" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="2"/>
+    </row>
+    <row r="201" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2"/>
+      <c r="V201" s="2"/>
+      <c r="W201" s="2"/>
+    </row>
+    <row r="202" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+      <c r="V202" s="2"/>
+      <c r="W202" s="2"/>
+    </row>
+    <row r="203" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+      <c r="V203" s="2"/>
+      <c r="W203" s="2"/>
+    </row>
+    <row r="204" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2"/>
+      <c r="V204" s="2"/>
+      <c r="W204" s="2"/>
+    </row>
+    <row r="205" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+      <c r="V205" s="2"/>
+      <c r="W205" s="2"/>
+    </row>
+    <row r="206" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2"/>
+      <c r="V206" s="2"/>
+      <c r="W206" s="2"/>
+    </row>
+    <row r="207" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2"/>
+      <c r="V207" s="2"/>
+      <c r="W207" s="2"/>
+    </row>
+    <row r="208" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
+    </row>
+    <row r="209" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+      <c r="W209" s="4"/>
+      <c r="X209" s="5"/>
+      <c r="Y209" s="5"/>
+      <c r="Z209" s="5"/>
+      <c r="AA209" s="5"/>
+      <c r="AB209" s="5"/>
+      <c r="AC209" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60483869-336B-4DEE-A2C1-B951F142FE84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0DFD5C-208E-4848-8FB2-41761CD74321}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>dd</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{AA35A9E3-C17F-4B50-962A-A91DF382FC26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1-这个触发的顺序根据前面轨道开始时间来决定
+2-时间一致时由trackID的序列来决定先后
+3-战技：重复的effectID不执行，仅执行第1个
+4-这里配了第几个但timeline配置中没有对应的effect，同样不执行
+5-这里没配置，timeline中有的，都是在技能表演结束后，根据timeline表演里的先后顺序生效对应的effect
+6-若为同一个effect，表演顺序要相邻，中间不能穿插其他的effectID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="308">
   <si>
@@ -413,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梅林-技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,18 +462,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扫把-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>狼白-普攻1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狼白-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fx_PLMXS_atk_hit2</t>
   </si>
   <si>
@@ -455,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蝙蝠-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瓦尔基里-普攻1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,10 +522,6 @@
   </si>
   <si>
     <t>Fx_PLMXS_atk_slash1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛基-技能2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,11 +572,6 @@
   <si>
     <t>4类-移动特效
 的移动目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3类-SkillEffect
-逻辑效果读取配置中第几个effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1262,12 +1267,37 @@
     <t>CM vcam2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3类-SkillEffect
+逻辑效果读取配置中第几个effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼白-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,6 +1361,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1482,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1564,6 +1602,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2400,14 +2447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I153" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2459,7 +2506,7 @@
       <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="28" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -2469,37 +2516,37 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="U1" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>22</v>
@@ -2533,7 +2580,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -2541,47 +2588,47 @@
       <c r="H2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="P2" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>43</v>
@@ -2593,7 +2640,7 @@
         <v>47</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>88</v>
@@ -2625,7 +2672,7 @@
       <c r="H3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="30" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -2635,37 +2682,37 @@
         <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>42</v>
@@ -2709,7 +2756,7 @@
       <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="30" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -2719,32 +2766,32 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="S4" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
@@ -2783,7 +2830,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2825,7 +2872,7 @@
       <c r="H6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="30" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -2835,37 +2882,37 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>14</v>
@@ -2894,7 +2941,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -2910,7 +2957,7 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y7" s="2"/>
     </row>
@@ -2934,7 +2981,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2983,7 +3030,7 @@
         <v>70</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>51</v>
@@ -2997,7 +3044,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -3048,7 +3095,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -3071,13 +3118,13 @@
       <c r="E12" s="2">
         <v>6</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="25">
         <v>3</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="25">
         <v>0.6</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="25">
         <v>0.4667</v>
       </c>
       <c r="I12" s="2">
@@ -3099,7 +3146,7 @@
         <v>70</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Y12" s="5" t="s">
         <v>51</v>
@@ -3116,17 +3163,17 @@
       <c r="E13" s="2">
         <v>7</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="25">
         <v>3</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="25">
         <v>1.2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="25">
         <v>0.4667</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
@@ -3144,7 +3191,7 @@
         <v>70</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>51</v>
@@ -3161,17 +3208,17 @@
       <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="25">
         <v>3</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="25">
         <v>2.1</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="25">
         <v>0.4667</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="2"/>
       <c r="L14" s="2"/>
@@ -3189,7 +3236,7 @@
         <v>70</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>51</v>
@@ -3206,17 +3253,17 @@
       <c r="E15" s="2">
         <v>9</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="25">
         <v>3</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="25">
         <v>2.6667000000000001</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="25">
         <v>1.9666999999999999</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
@@ -3234,7 +3281,7 @@
         <v>70</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Y15" s="5" t="s">
         <v>51</v>
@@ -3248,7 +3295,7 @@
         <v>1003</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -3299,7 +3346,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3350,7 +3397,7 @@
         <v>70</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Y18" s="5" t="s">
         <v>51</v>
@@ -3377,7 +3424,7 @@
         <v>0.4667</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="2"/>
       <c r="L19" s="2"/>
@@ -3395,7 +3442,7 @@
         <v>70</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>51</v>
@@ -3422,7 +3469,7 @@
         <v>0.4667</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2"/>
       <c r="L20" s="2"/>
@@ -3440,7 +3487,7 @@
         <v>70</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>51</v>
@@ -3467,7 +3514,7 @@
         <v>1.9666999999999999</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="2"/>
       <c r="L21" s="2"/>
@@ -3485,7 +3532,7 @@
         <v>70</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Y21" s="5" t="s">
         <v>51</v>
@@ -3499,7 +3546,7 @@
         <v>1004</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -3515,7 +3562,7 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3549,7 +3596,7 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3590,7 +3637,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S24" s="2">
         <v>1</v>
@@ -3622,7 +3669,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3657,7 +3704,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3692,7 +3739,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3727,7 +3774,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3775,13 +3822,13 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="X29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AA29" s="1">
         <v>300</v>
@@ -3820,13 +3867,13 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AA30" s="1">
         <v>300</v>
@@ -3865,13 +3912,13 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AA31" s="1">
         <v>400</v>
@@ -3900,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
@@ -3936,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
@@ -3973,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
@@ -4009,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
@@ -4041,7 +4088,7 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4074,7 +4121,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -4166,7 +4213,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -4218,7 +4265,7 @@
         <v>2002</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -4502,7 +4549,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -4540,7 +4587,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -4578,7 +4625,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -4611,7 +4658,7 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y53" s="2"/>
     </row>
@@ -4635,7 +4682,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -4672,7 +4719,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
@@ -4708,7 +4755,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4744,7 +4791,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="15" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4785,7 +4832,7 @@
         <v>23</v>
       </c>
       <c r="X58" s="15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y58" s="2" t="s">
         <v>51</v>
@@ -4819,7 +4866,7 @@
         <v>23</v>
       </c>
       <c r="X59" s="15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y59" s="5" t="s">
         <v>51</v>
@@ -4853,7 +4900,7 @@
         <v>23</v>
       </c>
       <c r="X60" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y60" s="5" t="s">
         <v>51</v>
@@ -4899,7 +4946,7 @@
         <v>23</v>
       </c>
       <c r="X61" s="15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Y61" s="5" t="s">
         <v>51</v>
@@ -4934,7 +4981,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="S62" s="2">
         <v>0</v>
@@ -4972,7 +5019,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="S63" s="2">
         <v>0</v>
@@ -4989,7 +5036,7 @@
         <v>2004</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -5005,7 +5052,7 @@
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Y64" s="2"/>
     </row>
@@ -5036,7 +5083,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -5075,7 +5122,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S66" s="1">
         <v>0</v>
@@ -5113,7 +5160,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="S67" s="1">
         <v>0</v>
@@ -5151,7 +5198,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="S68" s="1">
         <v>1</v>
@@ -5182,7 +5229,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="R69" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -5212,7 +5259,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="R70" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
@@ -5242,7 +5289,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="R71" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="S71" s="1">
         <v>0</v>
@@ -5280,7 +5327,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="S72" s="1">
         <v>0</v>
@@ -5311,7 +5358,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -5346,7 +5393,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -5381,7 +5428,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -5416,7 +5463,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -5451,7 +5498,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -5486,7 +5533,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -5521,7 +5568,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -5567,10 +5614,10 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AA80" s="1">
         <v>100</v>
@@ -5607,10 +5654,10 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AA81" s="1">
         <v>100</v>
@@ -5647,10 +5694,10 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AA82" s="1">
         <v>100</v>
@@ -5687,10 +5734,10 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AA83" s="1">
         <v>200</v>
@@ -5727,10 +5774,10 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AA84" s="1">
         <v>250</v>
@@ -5767,10 +5814,10 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AA85" s="1">
         <v>250</v>
@@ -5870,7 +5917,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -6007,7 +6054,7 @@
         <v>3002</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
@@ -6096,10 +6143,10 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -6171,7 +6218,7 @@
         <v>78</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M96" s="2">
         <v>1</v>
@@ -6207,10 +6254,10 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M97" s="2">
         <v>1</v>
@@ -6246,10 +6293,10 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M98" s="2">
         <v>1</v>
@@ -6301,7 +6348,7 @@
         <v>70</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Y99" s="1" t="s">
         <v>71</v>
@@ -6346,7 +6393,7 @@
         <v>70</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Y100" s="1" t="s">
         <v>71</v>
@@ -6391,7 +6438,7 @@
         <v>70</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Y101" s="1" t="s">
         <v>71</v>
@@ -6426,7 +6473,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S102" s="2">
         <v>0</v>
@@ -6464,7 +6511,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="S103" s="26">
         <v>0</v>
@@ -6502,7 +6549,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S104" s="26">
         <v>0</v>
@@ -6540,7 +6587,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="S105" s="26">
         <v>0</v>
@@ -6578,7 +6625,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="S106" s="26">
         <v>0</v>
@@ -6616,7 +6663,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S107" s="26">
         <v>0</v>
@@ -6654,7 +6701,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="S108" s="26">
         <v>0</v>
@@ -6671,7 +6718,7 @@
         <v>3003</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2">
         <v>1</v>
@@ -6757,10 +6804,10 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -6838,7 +6885,7 @@
         <v>77</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M113" s="2">
         <v>1</v>
@@ -6874,10 +6921,10 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M114" s="2">
         <v>1</v>
@@ -6913,10 +6960,10 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M115" s="2">
         <v>1</v>
@@ -6968,7 +7015,7 @@
         <v>70</v>
       </c>
       <c r="X116" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Y116" s="1" t="s">
         <v>71</v>
@@ -7013,7 +7060,7 @@
         <v>70</v>
       </c>
       <c r="X117" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Y117" s="1" t="s">
         <v>71</v>
@@ -7058,7 +7105,7 @@
         <v>70</v>
       </c>
       <c r="X118" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Y118" s="1" t="s">
         <v>71</v>
@@ -7093,7 +7140,7 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S119" s="2">
         <v>0</v>
@@ -7131,7 +7178,7 @@
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="S120" s="2">
         <v>0</v>
@@ -7169,7 +7216,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S121" s="2">
         <v>0</v>
@@ -7207,7 +7254,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="S122" s="2">
         <v>0</v>
@@ -7245,7 +7292,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="S123" s="2">
         <v>0</v>
@@ -7283,7 +7330,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S124" s="2">
         <v>0</v>
@@ -7321,7 +7368,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="S125" s="2">
         <v>0</v>
@@ -7338,7 +7385,7 @@
         <v>3004</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
@@ -7388,7 +7435,7 @@
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -7422,7 +7469,7 @@
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -7463,7 +7510,7 @@
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="S129" s="2">
         <v>1</v>
@@ -7495,7 +7542,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -7530,7 +7577,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -7565,7 +7612,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -7600,7 +7647,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -7635,7 +7682,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -7670,7 +7717,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
@@ -7724,13 +7771,13 @@
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
       <c r="W136" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="X136" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Y136" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA136" s="1">
         <v>1000</v>
@@ -7741,7 +7788,7 @@
         <v>4001</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E137" s="2">
         <v>1</v>
@@ -7757,7 +7804,7 @@
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -7853,7 +7900,7 @@
         <v>4002</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -7902,7 +7949,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
@@ -7965,7 +8012,7 @@
         <v>5001</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
@@ -7981,7 +8028,7 @@
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -8014,7 +8061,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -8077,7 +8124,7 @@
         <v>5002</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="E146" s="2">
         <v>1</v>
@@ -8126,7 +8173,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -8159,7 +8206,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -8192,7 +8239,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
@@ -8291,7 +8338,7 @@
         <v>70</v>
       </c>
       <c r="X151" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y151" s="5" t="s">
         <v>71</v>
@@ -8350,7 +8397,7 @@
         <v>6001</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -8399,7 +8446,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -8462,7 +8509,7 @@
         <v>6002</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
@@ -8511,7 +8558,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -8578,7 +8625,7 @@
         <v>8002</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -8594,7 +8641,7 @@
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -8629,10 +8676,10 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -8672,7 +8719,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -8707,7 +8754,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -8742,7 +8789,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -8793,10 +8840,10 @@
         <v>70</v>
       </c>
       <c r="X164" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Y164" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AA164" s="1">
         <v>1000</v>
@@ -8828,7 +8875,7 @@
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S165" s="2">
         <v>0</v>
@@ -8866,7 +8913,7 @@
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="S166" s="2">
         <v>0</v>
@@ -8904,7 +8951,7 @@
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="S167" s="2">
         <v>0</v>
@@ -8921,7 +8968,7 @@
         <v>8003</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E168" s="2">
         <v>1</v>
@@ -8937,7 +8984,7 @@
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
@@ -8972,10 +9019,10 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -9009,7 +9056,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -9058,10 +9105,10 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
       <c r="X171" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Y171" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AA171" s="1">
         <v>1000</v>
@@ -9093,7 +9140,7 @@
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="S172" s="2">
         <v>0</v>
@@ -9131,7 +9178,7 @@
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="S173" s="2">
         <v>0</v>
@@ -9148,7 +9195,7 @@
         <v>8004</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E174" s="2">
         <v>1</v>
@@ -9164,7 +9211,7 @@
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -9205,13 +9252,13 @@
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
       <c r="R175" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="S175" s="2">
         <v>0</v>
       </c>
       <c r="T175" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="U175" s="2">
         <v>0</v>
@@ -9246,13 +9293,13 @@
       <c r="P176" s="4"/>
       <c r="Q176" s="4"/>
       <c r="R176" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="S176" s="2">
         <v>0</v>
       </c>
       <c r="T176" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="U176" s="2">
         <v>0</v>
@@ -9286,7 +9333,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -9321,7 +9368,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -9356,7 +9403,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
@@ -9391,7 +9438,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -9437,7 +9484,7 @@
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
       <c r="W181" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" spans="3:29" x14ac:dyDescent="0.2">
@@ -9471,7 +9518,7 @@
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
       <c r="W182" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="3:29" x14ac:dyDescent="0.2">
@@ -9505,7 +9552,7 @@
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
       <c r="W183" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="3:29" x14ac:dyDescent="0.2">
@@ -9513,7 +9560,7 @@
         <v>8004</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E184" s="2">
         <v>11</v>
@@ -9543,10 +9590,10 @@
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
       <c r="W184" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y184" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AA184" s="1">
         <v>1000</v>
@@ -9557,7 +9604,7 @@
         <v>8004</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E185" s="4">
         <v>12</v>
@@ -9586,7 +9633,7 @@
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
       <c r="W185" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
@@ -9622,7 +9669,7 @@
         <v>1</v>
       </c>
       <c r="Q186" s="24" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
@@ -9658,7 +9705,7 @@
         <v>2</v>
       </c>
       <c r="Q187" s="24" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
@@ -9694,7 +9741,7 @@
         <v>3</v>
       </c>
       <c r="Q188" s="24" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
@@ -9731,7 +9778,7 @@
         <v>4</v>
       </c>
       <c r="Q189" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
@@ -9773,7 +9820,7 @@
         <v>5</v>
       </c>
       <c r="Q190" s="24" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
@@ -9809,7 +9856,7 @@
         <v>6</v>
       </c>
       <c r="Q191" s="24" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
@@ -9843,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="O192" s="24" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" s="24"/>
@@ -9879,7 +9926,7 @@
         <v>2</v>
       </c>
       <c r="O193" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" s="24"/>
@@ -9915,7 +9962,7 @@
         <v>3</v>
       </c>
       <c r="O194" s="24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" s="24"/>
@@ -9952,7 +9999,7 @@
         <v>4</v>
       </c>
       <c r="O195" s="24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P195" s="4"/>
       <c r="Q195" s="24"/>
@@ -9994,7 +10041,7 @@
         <v>5</v>
       </c>
       <c r="O196" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" s="24"/>
@@ -10030,7 +10077,7 @@
         <v>6</v>
       </c>
       <c r="O197" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" s="24"/>
@@ -10067,7 +10114,7 @@
         <v>1</v>
       </c>
       <c r="O198" s="24" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
@@ -10104,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="O199" s="24" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
@@ -10141,7 +10188,7 @@
         <v>3</v>
       </c>
       <c r="O200" s="24" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
@@ -10178,7 +10225,7 @@
         <v>4</v>
       </c>
       <c r="O201" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
@@ -10215,7 +10262,7 @@
         <v>5</v>
       </c>
       <c r="O202" s="24" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
@@ -10252,7 +10299,7 @@
         <v>6</v>
       </c>
       <c r="O203" s="24" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
@@ -10289,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="O204" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P204" s="4"/>
       <c r="Q204" s="4"/>
@@ -10331,7 +10378,7 @@
         <v>2</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P205" s="2"/>
       <c r="Q205" s="2"/>
@@ -10367,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" s="2"/>
@@ -10403,7 +10450,7 @@
         <v>4</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" s="2"/>
@@ -10439,7 +10486,7 @@
         <v>5</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" s="2"/>
@@ -10475,7 +10522,7 @@
         <v>6</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" s="2"/>
@@ -10505,7 +10552,7 @@
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
@@ -10556,7 +10603,7 @@
         <v>70</v>
       </c>
       <c r="X211" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Y211" s="1" t="s">
         <v>71</v>
@@ -10928,8 +10975,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0DFD5C-208E-4848-8FB2-41761CD74321}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F7CB4-87CF-4AFF-B9A0-F86539C80DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrack" sheetId="1" r:id="rId1"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,6 +1286,10 @@
   </si>
   <si>
     <t>洛基-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect顺序(作废)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2159,7 +2159,7 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="类型" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="开始时间" dataDxfId="22"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="effect顺序" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="effect顺序(作废)" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="表演ID" dataDxfId="19"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="18"/>
     <tableColumn id="13" xr3:uid="{8692EDDB-C4C2-425A-8362-E7FA0DAB0755}" name="施法挂载点" dataDxfId="17"/>
@@ -2451,10 +2451,10 @@
   <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2489,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>12</v>
@@ -2501,13 +2501,13 @@
         <v>32</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>16</v>
@@ -2516,37 +2516,37 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>22</v>
@@ -2555,19 +2555,19 @@
         <v>9</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="99.75" x14ac:dyDescent="0.2">
@@ -2575,12 +2575,12 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -2589,67 +2589,67 @@
         <v>30</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="W2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -2664,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>19</v>
@@ -2673,7 +2673,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>25</v>
@@ -2682,58 +2682,58 @@
         <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="W3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AC3" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -2757,7 +2757,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>26</v>
@@ -2766,54 +2766,54 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Z4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AC4" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2882,46 +2882,46 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="17" t="s">
         <v>20</v>
@@ -2941,7 +2941,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="2"/>
     </row>
@@ -2981,7 +2981,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -3027,13 +3027,13 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA9" s="1">
         <v>1000</v>
@@ -3044,7 +3044,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3095,7 +3095,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -3143,13 +3143,13 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA12" s="1">
         <v>150</v>
@@ -3188,13 +3188,13 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA13" s="1">
         <v>150</v>
@@ -3233,13 +3233,13 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="1">
         <v>200</v>
@@ -3278,13 +3278,13 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="1">
         <v>500</v>
@@ -3295,7 +3295,7 @@
         <v>1003</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3346,7 +3346,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3394,13 +3394,13 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA18" s="1">
         <v>150</v>
@@ -3439,13 +3439,13 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA19" s="1">
         <v>150</v>
@@ -3484,13 +3484,13 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA20" s="1">
         <v>200</v>
@@ -3529,13 +3529,13 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA21" s="1">
         <v>500</v>
@@ -3546,7 +3546,7 @@
         <v>1004</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3637,7 +3637,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S24" s="2">
         <v>1</v>
@@ -3669,7 +3669,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3704,7 +3704,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3739,7 +3739,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3774,7 +3774,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3822,13 +3822,13 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA29" s="1">
         <v>300</v>
@@ -3867,13 +3867,13 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA30" s="1">
         <v>300</v>
@@ -3912,13 +3912,13 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA31" s="1">
         <v>400</v>
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
@@ -4020,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
@@ -4072,7 +4072,7 @@
         <v>20011</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4121,7 +4121,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -4159,10 +4159,10 @@
         <v>23</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA38" s="1">
         <v>1000</v>
@@ -4173,7 +4173,7 @@
         <v>20012</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y39" s="2"/>
     </row>
@@ -4213,7 +4213,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -4254,7 +4254,7 @@
         <v>28</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA41" s="1">
         <v>1000</v>
@@ -4265,7 +4265,7 @@
         <v>2002</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y42" s="2"/>
     </row>
@@ -4305,7 +4305,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
@@ -4341,7 +4341,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
@@ -4376,7 +4376,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -4411,7 +4411,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
@@ -4449,10 +4449,10 @@
         <v>23</v>
       </c>
       <c r="X47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y47" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="AA47" s="1">
         <v>300</v>
@@ -4481,10 +4481,10 @@
         <v>23</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA48" s="1">
         <v>300</v>
@@ -4513,10 +4513,10 @@
         <v>23</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z49" s="5"/>
       <c r="AA49" s="1">
@@ -4549,7 +4549,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -4587,7 +4587,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -4625,7 +4625,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>2003</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y53" s="2"/>
     </row>
@@ -4682,7 +4682,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -4719,7 +4719,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
@@ -4755,7 +4755,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4791,7 +4791,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4832,10 +4832,10 @@
         <v>23</v>
       </c>
       <c r="X58" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA58" s="1">
         <v>250</v>
@@ -4866,10 +4866,10 @@
         <v>23</v>
       </c>
       <c r="X59" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA59" s="1">
         <v>250</v>
@@ -4900,10 +4900,10 @@
         <v>23</v>
       </c>
       <c r="X60" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z60" s="5"/>
       <c r="AA60" s="1">
@@ -4946,10 +4946,10 @@
         <v>23</v>
       </c>
       <c r="X61" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA61" s="1">
         <v>250</v>
@@ -4981,7 +4981,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S62" s="2">
         <v>0</v>
@@ -5019,7 +5019,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S63" s="2">
         <v>0</v>
@@ -5036,7 +5036,7 @@
         <v>2004</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y64" s="2"/>
     </row>
@@ -5083,7 +5083,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -5122,7 +5122,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S66" s="1">
         <v>0</v>
@@ -5160,7 +5160,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S67" s="1">
         <v>0</v>
@@ -5198,7 +5198,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S68" s="1">
         <v>1</v>
@@ -5229,7 +5229,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="R69" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -5259,7 +5259,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="R70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
@@ -5289,7 +5289,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="R71" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S71" s="1">
         <v>0</v>
@@ -5327,7 +5327,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S72" s="1">
         <v>0</v>
@@ -5358,7 +5358,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -5393,7 +5393,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -5428,7 +5428,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -5463,7 +5463,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -5498,7 +5498,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -5533,7 +5533,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -5568,7 +5568,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -5614,10 +5614,10 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA80" s="1">
         <v>100</v>
@@ -5654,10 +5654,10 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y81" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="Y81" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="AA81" s="1">
         <v>100</v>
@@ -5694,10 +5694,10 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA82" s="1">
         <v>100</v>
@@ -5734,10 +5734,10 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y83" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="Y83" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="AA83" s="1">
         <v>200</v>
@@ -5774,10 +5774,10 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA84" s="1">
         <v>250</v>
@@ -5814,10 +5814,10 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y85" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="Y85" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="AA85" s="1">
         <v>250</v>
@@ -5828,7 +5828,7 @@
         <v>3001</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -5879,7 +5879,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -5917,7 +5917,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -5952,7 +5952,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -5987,7 +5987,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2">
@@ -6037,13 +6037,13 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y91" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="Y91" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="AA91" s="1">
         <v>1000</v>
@@ -6054,7 +6054,7 @@
         <v>3002</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -6105,7 +6105,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -6143,10 +6143,10 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -6180,7 +6180,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -6215,10 +6215,10 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M96" s="2">
         <v>1</v>
@@ -6254,10 +6254,10 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M97" s="2">
         <v>1</v>
@@ -6293,10 +6293,10 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L98" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="M98" s="2">
         <v>1</v>
@@ -6345,13 +6345,13 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y99" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X99" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y99" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA99" s="1">
         <v>300</v>
@@ -6390,13 +6390,13 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y100" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X100" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y100" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA100" s="1">
         <v>300</v>
@@ -6435,13 +6435,13 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y101" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X101" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y101" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA101" s="1">
         <v>400</v>
@@ -6473,7 +6473,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S102" s="2">
         <v>0</v>
@@ -6511,7 +6511,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S103" s="26">
         <v>0</v>
@@ -6549,7 +6549,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S104" s="26">
         <v>0</v>
@@ -6587,7 +6587,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S105" s="26">
         <v>0</v>
@@ -6625,7 +6625,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S106" s="26">
         <v>0</v>
@@ -6663,7 +6663,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S107" s="26">
         <v>0</v>
@@ -6701,7 +6701,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S108" s="26">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>3003</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E109" s="2">
         <v>1</v>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -6769,7 +6769,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -6804,10 +6804,10 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L111" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -6841,7 +6841,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -6882,10 +6882,10 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M113" s="2">
         <v>1</v>
@@ -6921,10 +6921,10 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M114" s="2">
         <v>1</v>
@@ -6960,10 +6960,10 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M115" s="2">
         <v>1</v>
@@ -7012,13 +7012,13 @@
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y116" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X116" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y116" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA116" s="1">
         <v>300</v>
@@ -7057,13 +7057,13 @@
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y117" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X117" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y117" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA117" s="1">
         <v>300</v>
@@ -7102,13 +7102,13 @@
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X118" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y118" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X118" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y118" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA118" s="1">
         <v>400</v>
@@ -7140,7 +7140,7 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S119" s="2">
         <v>0</v>
@@ -7178,7 +7178,7 @@
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S120" s="2">
         <v>0</v>
@@ -7216,7 +7216,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S121" s="2">
         <v>0</v>
@@ -7254,7 +7254,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S122" s="2">
         <v>0</v>
@@ -7292,7 +7292,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S123" s="2">
         <v>0</v>
@@ -7330,7 +7330,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S124" s="2">
         <v>0</v>
@@ -7368,7 +7368,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S125" s="2">
         <v>0</v>
@@ -7385,7 +7385,7 @@
         <v>3004</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -7510,7 +7510,7 @@
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S129" s="2">
         <v>1</v>
@@ -7542,7 +7542,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -7577,7 +7577,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -7612,7 +7612,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -7647,7 +7647,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -7682,7 +7682,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -7717,7 +7717,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
@@ -7771,13 +7771,13 @@
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
       <c r="W136" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="X136" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y136" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="X136" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y136" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="AA136" s="1">
         <v>1000</v>
@@ -7788,7 +7788,7 @@
         <v>4001</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E137" s="2">
         <v>1</v>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -7837,7 +7837,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
@@ -7883,13 +7883,13 @@
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
       <c r="W139" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y139" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X139" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y139" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA139" s="1">
         <v>1000</v>
@@ -7900,7 +7900,7 @@
         <v>4002</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
@@ -7949,7 +7949,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
@@ -7995,13 +7995,13 @@
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
       <c r="W142" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X142" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y142" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X142" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y142" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA142" s="1">
         <v>1000</v>
@@ -8012,7 +8012,7 @@
         <v>5001</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -8061,7 +8061,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -8107,13 +8107,13 @@
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
       <c r="W145" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y145" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X145" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y145" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA145" s="1">
         <v>1000</v>
@@ -8124,7 +8124,7 @@
         <v>5002</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E146" s="2">
         <v>1</v>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -8173,7 +8173,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -8206,7 +8206,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -8239,7 +8239,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
@@ -8285,13 +8285,13 @@
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
       <c r="W150" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y150" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X150" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y150" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA150" s="1">
         <v>800</v>
@@ -8335,13 +8335,13 @@
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X151" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y151" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="X151" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y151" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5">
@@ -8383,13 +8383,13 @@
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y152" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X152" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y152" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="153" spans="3:29" x14ac:dyDescent="0.2">
@@ -8397,7 +8397,7 @@
         <v>6001</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -8446,7 +8446,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -8492,13 +8492,13 @@
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
       <c r="W155" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y155" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X155" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y155" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA155" s="1">
         <v>1000</v>
@@ -8509,7 +8509,7 @@
         <v>6002</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -8558,7 +8558,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -8605,13 +8605,13 @@
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
       <c r="W158" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X158" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y158" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="X158" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y158" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5">
@@ -8625,7 +8625,7 @@
         <v>8002</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -8676,10 +8676,10 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -8719,7 +8719,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -8754,7 +8754,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -8789,7 +8789,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -8837,13 +8837,13 @@
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
       <c r="W164" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X164" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y164" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA164" s="1">
         <v>1000</v>
@@ -8875,7 +8875,7 @@
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S165" s="2">
         <v>0</v>
@@ -8913,7 +8913,7 @@
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S166" s="2">
         <v>0</v>
@@ -8951,7 +8951,7 @@
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S167" s="2">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>8003</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E168" s="2">
         <v>1</v>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
@@ -9019,10 +9019,10 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -9056,7 +9056,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -9105,10 +9105,10 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
       <c r="X171" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y171" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="Y171" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="AA171" s="1">
         <v>1000</v>
@@ -9140,7 +9140,7 @@
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S172" s="2">
         <v>0</v>
@@ -9178,7 +9178,7 @@
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S173" s="2">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>8004</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E174" s="2">
         <v>1</v>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -9252,13 +9252,13 @@
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
       <c r="R175" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S175" s="2">
         <v>0</v>
       </c>
       <c r="T175" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U175" s="2">
         <v>0</v>
@@ -9293,13 +9293,13 @@
       <c r="P176" s="4"/>
       <c r="Q176" s="4"/>
       <c r="R176" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S176" s="2">
         <v>0</v>
       </c>
       <c r="T176" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U176" s="2">
         <v>0</v>
@@ -9333,7 +9333,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -9368,7 +9368,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -9403,7 +9403,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
@@ -9438,7 +9438,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -9484,7 +9484,7 @@
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
       <c r="W181" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" spans="3:29" x14ac:dyDescent="0.2">
@@ -9518,7 +9518,7 @@
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
       <c r="W182" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="3:29" x14ac:dyDescent="0.2">
@@ -9552,7 +9552,7 @@
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
       <c r="W183" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="184" spans="3:29" x14ac:dyDescent="0.2">
@@ -9560,7 +9560,7 @@
         <v>8004</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E184" s="2">
         <v>11</v>
@@ -9590,10 +9590,10 @@
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
       <c r="W184" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y184" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA184" s="1">
         <v>1000</v>
@@ -9604,7 +9604,7 @@
         <v>8004</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E185" s="4">
         <v>12</v>
@@ -9633,7 +9633,7 @@
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
       <c r="W185" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
@@ -9669,7 +9669,7 @@
         <v>1</v>
       </c>
       <c r="Q186" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
@@ -9705,7 +9705,7 @@
         <v>2</v>
       </c>
       <c r="Q187" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
@@ -9741,7 +9741,7 @@
         <v>3</v>
       </c>
       <c r="Q188" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
@@ -9778,7 +9778,7 @@
         <v>4</v>
       </c>
       <c r="Q189" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
@@ -9820,7 +9820,7 @@
         <v>5</v>
       </c>
       <c r="Q190" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
@@ -9856,7 +9856,7 @@
         <v>6</v>
       </c>
       <c r="Q191" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="O192" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" s="24"/>
@@ -9926,7 +9926,7 @@
         <v>2</v>
       </c>
       <c r="O193" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" s="24"/>
@@ -9962,7 +9962,7 @@
         <v>3</v>
       </c>
       <c r="O194" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" s="24"/>
@@ -9999,7 +9999,7 @@
         <v>4</v>
       </c>
       <c r="O195" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P195" s="4"/>
       <c r="Q195" s="24"/>
@@ -10041,7 +10041,7 @@
         <v>5</v>
       </c>
       <c r="O196" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" s="24"/>
@@ -10077,7 +10077,7 @@
         <v>6</v>
       </c>
       <c r="O197" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" s="24"/>
@@ -10114,7 +10114,7 @@
         <v>1</v>
       </c>
       <c r="O198" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
@@ -10151,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="O199" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
@@ -10188,7 +10188,7 @@
         <v>3</v>
       </c>
       <c r="O200" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
@@ -10225,7 +10225,7 @@
         <v>4</v>
       </c>
       <c r="O201" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
@@ -10262,7 +10262,7 @@
         <v>5</v>
       </c>
       <c r="O202" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
@@ -10299,7 +10299,7 @@
         <v>6</v>
       </c>
       <c r="O203" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
@@ -10336,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="O204" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P204" s="4"/>
       <c r="Q204" s="4"/>
@@ -10378,7 +10378,7 @@
         <v>2</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P205" s="2"/>
       <c r="Q205" s="2"/>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" s="2"/>
@@ -10450,7 +10450,7 @@
         <v>4</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" s="2"/>
@@ -10486,7 +10486,7 @@
         <v>5</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" s="2"/>
@@ -10522,7 +10522,7 @@
         <v>6</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" s="2"/>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
@@ -10600,13 +10600,13 @@
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
       <c r="W211" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X211" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y211" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="X211" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y211" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AA211" s="1">
         <v>300</v>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F7CB4-87CF-4AFF-B9A0-F86539C80DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CAAD9F-3290-4878-AB4F-AE5B9F669233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="320">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>Fx_attack1_xuli</t>
-  </si>
-  <si>
-    <t>Fx_attack1_xuli_explore</t>
   </si>
   <si>
     <t>Fx_attack1_xuli_explore</t>
@@ -497,23 +494,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_atk1_daoguang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fx_atk1_daoguang_hit01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_atk1_daoguang_hit02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_atk1_daoguang_hit03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_atk1_daoguang_hit04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1098,16 +1079,10 @@
   </si>
   <si>
     <t>Fx_attack_bullet01</t>
-  </si>
-  <si>
-    <t>Fx_attack_bullet01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fx_attack_bullet02</t>
-  </si>
-  <si>
-    <t>Fx_attack_bullet02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1117,12 +1092,6 @@
   <si>
     <t>Fx_skill_hit_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_attack_xuli_merlin</t>
-  </si>
-  <si>
-    <t>Bone02</t>
   </si>
   <si>
     <t>fazhen</t>
@@ -1290,6 +1259,79 @@
   </si>
   <si>
     <t>effect顺序(作废)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang</t>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang_hit01</t>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang_hit02</t>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang_hit03</t>
+  </si>
+  <si>
+    <t>Fx_atk1_daoguang_hit04</t>
+  </si>
+  <si>
+    <t>atk2</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk2_slash1</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk2_slash2</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk2_slash3</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk2_slash4</t>
+  </si>
+  <si>
+    <t>CM vcam2</t>
+  </si>
+  <si>
+    <t>男主-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_whole_xuli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_whole_start_loop_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bak1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,7 +1562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1611,6 +1653,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2150,8 +2195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC227" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC227" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC225" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC225" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="25"/>
@@ -2448,13 +2493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2552,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>16</v>
@@ -2516,37 +2561,37 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>22</v>
@@ -2561,13 +2606,13 @@
         <v>59</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="99.75" x14ac:dyDescent="0.2">
@@ -2580,7 +2625,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -2589,46 +2634,46 @@
         <v>30</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>42</v>
@@ -2640,16 +2685,16 @@
         <v>46</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -2682,37 +2727,37 @@
         <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>41</v>
@@ -2727,13 +2772,13 @@
         <v>60</v>
       </c>
       <c r="AA3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AC3" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -2766,32 +2811,32 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
@@ -2807,13 +2852,13 @@
         <v>42</v>
       </c>
       <c r="AA4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AC4" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2882,37 +2927,37 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>14</v>
@@ -2941,7 +2986,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -2957,7 +3002,7 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y7" s="2"/>
     </row>
@@ -2981,7 +3026,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -3030,7 +3075,7 @@
         <v>69</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>50</v>
@@ -3044,7 +3089,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -3056,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>4.633</v>
+        <v>1.633</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3084,19 +3129,14 @@
         <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4.633</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3109,28 +3149,36 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
+      <c r="Y11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
-        <v>1002</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>1003</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E12" s="2">
-        <v>6</v>
-      </c>
-      <c r="F12" s="25">
-        <v>3</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0.4667</v>
-      </c>
-      <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.1333000000000002</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3142,40 +3190,30 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>150</v>
-      </c>
+      <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>7</v>
-      </c>
-      <c r="F13" s="25">
-        <v>3</v>
-      </c>
-      <c r="G13" s="25">
-        <v>1.2</v>
-      </c>
-      <c r="H13" s="25">
-        <v>0.4667</v>
-      </c>
-      <c r="I13" s="2">
         <v>2</v>
       </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.1333000000000002</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3187,38 +3225,27 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>150</v>
-      </c>
+      <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>8</v>
-      </c>
-      <c r="F14" s="25">
         <v>3</v>
       </c>
-      <c r="G14" s="25">
-        <v>2.1</v>
-      </c>
-      <c r="H14" s="25">
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.4667</v>
       </c>
       <c r="I14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2"/>
       <c r="L14" s="2"/>
@@ -3236,34 +3263,32 @@
         <v>69</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AA14" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <v>9</v>
-      </c>
-      <c r="F15" s="25">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="25">
-        <v>2.6667000000000001</v>
-      </c>
-      <c r="H15" s="25">
-        <v>1.9666999999999999</v>
-      </c>
+      <c r="G15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
@@ -3277,25 +3302,20 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>50</v>
+      <c r="W15" s="2"/>
+      <c r="Y15" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="AA15" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
-        <v>1003</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>1005</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>302</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -3311,7 +3331,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3328,7 +3348,7 @@
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
@@ -3346,7 +3366,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3363,11 +3383,11 @@
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
@@ -3397,22 +3417,22 @@
         <v>69</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>50</v>
+        <v>304</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA18" s="1">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2">
         <v>3</v>
@@ -3442,22 +3462,22 @@
         <v>69</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>50</v>
+        <v>305</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA19" s="1">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
@@ -3487,22 +3507,22 @@
         <v>69</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>50</v>
+        <v>306</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA20" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2">
         <v>3</v>
@@ -3532,13 +3552,13 @@
         <v>69</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>50</v>
+        <v>307</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA21" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.2">
@@ -3546,7 +3566,7 @@
         <v>1004</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -3562,7 +3582,7 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3596,7 +3616,7 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3637,7 +3657,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="S24" s="2">
         <v>1</v>
@@ -3669,7 +3689,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3704,7 +3724,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3739,7 +3759,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3774,7 +3794,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3822,13 +3842,13 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="AA29" s="1">
         <v>300</v>
@@ -3867,13 +3887,13 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AA30" s="1">
         <v>300</v>
@@ -3912,13 +3932,13 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AA31" s="1">
         <v>400</v>
@@ -3947,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
@@ -3983,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
@@ -4020,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
@@ -4056,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
@@ -4088,7 +4108,7 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4121,7 +4141,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -4213,7 +4233,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -4265,7 +4285,7 @@
         <v>2002</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -4474,7 +4494,7 @@
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="2"/>
       <c r="W48" s="1" t="s">
@@ -4506,7 +4526,7 @@
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" s="2"/>
       <c r="W49" s="1" t="s">
@@ -4549,7 +4569,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -4587,7 +4607,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -4625,7 +4645,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -4658,7 +4678,7 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Y53" s="2"/>
     </row>
@@ -4682,7 +4702,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="15" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -4719,7 +4739,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="15" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
@@ -4755,7 +4775,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="15" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4791,7 +4811,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="15" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4832,7 +4852,7 @@
         <v>23</v>
       </c>
       <c r="X58" s="15" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Y58" s="2" t="s">
         <v>50</v>
@@ -4859,14 +4879,14 @@
         <v>0.3</v>
       </c>
       <c r="I59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" s="2"/>
       <c r="W59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="X59" s="15" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Y59" s="5" t="s">
         <v>50</v>
@@ -4893,14 +4913,14 @@
         <v>0.3</v>
       </c>
       <c r="I60" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" s="2"/>
       <c r="W60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="X60" s="27" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Y60" s="5" t="s">
         <v>50</v>
@@ -4928,7 +4948,7 @@
         <v>0.2</v>
       </c>
       <c r="I61" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" s="2"/>
       <c r="L61" s="2"/>
@@ -4946,7 +4966,7 @@
         <v>23</v>
       </c>
       <c r="X61" s="15" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="Y61" s="5" t="s">
         <v>50</v>
@@ -4981,7 +5001,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="S62" s="2">
         <v>0</v>
@@ -5019,7 +5039,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S63" s="2">
         <v>0</v>
@@ -5033,292 +5053,335 @@
     </row>
     <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" s="4">
+        <v>314</v>
+      </c>
+      <c r="E64" s="2">
         <v>1</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="2">
         <v>1</v>
       </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
-        <v>7.3330000000000002</v>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2.8330000000000002</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
     </row>
     <row r="65" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C65" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2">
         <v>2</v>
       </c>
       <c r="F65" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H65" s="2">
-        <v>0.9</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S65" s="1">
-        <v>0</v>
-      </c>
-      <c r="U65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="2"/>
+      <c r="K65" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
     </row>
     <row r="66" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C66" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
         <v>3</v>
       </c>
       <c r="F66" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G66" s="2">
-        <v>0.86699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H66" s="2">
-        <v>1.5329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S66" s="1">
-        <v>0</v>
-      </c>
-      <c r="U66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
+      <c r="K66" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
     </row>
     <row r="67" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C67" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
         <v>4</v>
       </c>
       <c r="F67" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G67" s="2">
-        <v>2.25</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="H67" s="2">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S67" s="1">
-        <v>0</v>
-      </c>
-      <c r="U67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
     </row>
     <row r="68" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C68" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2">
         <v>5</v>
       </c>
       <c r="F68" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G68" s="2">
-        <v>2.516</v>
+        <v>2.1</v>
       </c>
       <c r="H68" s="2">
-        <v>0.41599999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S68" s="1">
-        <v>1</v>
-      </c>
-      <c r="U68" s="1">
-        <v>1</v>
-      </c>
-      <c r="W68" s="15"/>
-      <c r="X68" s="15"/>
+      <c r="K68" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
     </row>
     <row r="69" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C69" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
         <v>6</v>
       </c>
       <c r="F69" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G69" s="2">
-        <v>2.9329999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="H69" s="2">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="I69" s="2"/>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
       <c r="J69" s="2"/>
-      <c r="R69" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="S69" s="1">
-        <v>0</v>
-      </c>
-      <c r="U69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="70" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C70" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
         <v>7</v>
       </c>
       <c r="F70" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G70" s="2">
-        <v>3.516</v>
+        <v>1.2</v>
       </c>
       <c r="H70" s="2">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="I70" s="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I70" s="2">
+        <v>2</v>
+      </c>
       <c r="J70" s="2"/>
-      <c r="R70" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S70" s="1">
-        <v>0</v>
-      </c>
-      <c r="U70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="5"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="71" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C71" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
         <v>8</v>
       </c>
       <c r="F71" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G71" s="2">
-        <v>4.4329999999999998</v>
+        <v>1.633</v>
       </c>
       <c r="H71" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I71" s="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
       <c r="J71" s="2"/>
-      <c r="R71" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0</v>
-      </c>
-      <c r="U71" s="1">
-        <v>0</v>
-      </c>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="72" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C72" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2">
         <v>9</v>
       </c>
       <c r="F72" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G72" s="2">
-        <v>4.883</v>
+        <v>2.1</v>
       </c>
       <c r="H72" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I72" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I72" s="2">
+        <v>4</v>
+      </c>
       <c r="J72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -5326,85 +5389,97 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0</v>
-      </c>
-      <c r="U72" s="1">
-        <v>0</v>
-      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
+      <c r="W72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="73" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C73" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2">
         <v>10</v>
       </c>
       <c r="F73" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G73" s="2">
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>2.0329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
+      <c r="R73" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0</v>
+      </c>
       <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
+      <c r="U73" s="2">
+        <v>0</v>
+      </c>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
     <row r="74" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C74" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G74" s="2">
-        <v>0.91669999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="H74" s="2">
-        <v>0.7167</v>
+        <v>2.8</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
+      <c r="R74" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0</v>
+      </c>
       <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
+      <c r="U74" s="2">
+        <v>0</v>
+      </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
@@ -5412,36 +5487,26 @@
       <c r="C75" s="2">
         <v>2004</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2">
-        <v>2</v>
-      </c>
-      <c r="G75" s="2">
-        <v>1.3833</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0.56669999999999998</v>
+      <c r="D75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>7.3330000000000002</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C76" s="2">
@@ -5449,34 +5514,38 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F76" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G76" s="2">
-        <v>1.8667</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2">
-        <v>0.51590000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="2"/>
     </row>
     <row r="77" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C77" s="2">
@@ -5484,34 +5553,37 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F77" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G77" s="2">
-        <v>2.3330000000000002</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="H77" s="2">
-        <v>1.8</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
+        <v>0</v>
+      </c>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
     </row>
     <row r="78" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C78" s="2">
@@ -5519,34 +5591,37 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F78" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G78" s="2">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="H78" s="2">
-        <v>3.7330000000000001</v>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0</v>
+      </c>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
     </row>
     <row r="79" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C79" s="2">
@@ -5554,34 +5629,37 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F79" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G79" s="2">
-        <v>5.367</v>
+        <v>2.516</v>
       </c>
       <c r="H79" s="2">
-        <v>2</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S79" s="1">
+        <v>1</v>
+      </c>
+      <c r="U79" s="1">
+        <v>1</v>
+      </c>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
     </row>
     <row r="80" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C80" s="2">
@@ -5589,39 +5667,29 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F80" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G80" s="2">
-        <v>0.9</v>
+        <v>2.9329999999999998</v>
       </c>
       <c r="H80" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y80" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA80" s="1">
-        <v>100</v>
-      </c>
+      <c r="R80" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="2">
@@ -5629,39 +5697,29 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F81" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G81" s="2">
-        <v>1.4159999999999999</v>
+        <v>3.516</v>
       </c>
       <c r="H81" s="2">
-        <v>0.433</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y81" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA81" s="1">
-        <v>100</v>
-      </c>
+      <c r="R81" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="5"/>
     </row>
     <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="2">
@@ -5669,39 +5727,31 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F82" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G82" s="2">
-        <v>1.85</v>
+        <v>4.4329999999999998</v>
       </c>
       <c r="H82" s="2">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y82" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA82" s="1">
-        <v>100</v>
-      </c>
+      <c r="R82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0</v>
+      </c>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
     </row>
     <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="2">
@@ -5709,16 +5759,16 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F83" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G83" s="2">
-        <v>2.5</v>
+        <v>4.883</v>
       </c>
       <c r="H83" s="2">
-        <v>0.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -5728,20 +5778,17 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
+      <c r="R83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="U83" s="1">
+        <v>0</v>
+      </c>
       <c r="V83" s="2"/>
-      <c r="W83" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y83" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA83" s="1">
-        <v>200</v>
-      </c>
+      <c r="W83" s="2"/>
     </row>
     <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="2">
@@ -5749,19 +5796,22 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F84" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="H84" s="2">
-        <v>0.83299999999999996</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
+      <c r="K84" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -5773,15 +5823,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
-      <c r="W84" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y84" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA84" s="1">
-        <v>250</v>
-      </c>
+      <c r="W84" s="2"/>
     </row>
     <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="2">
@@ -5789,19 +5831,22 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85" s="2">
-        <v>5.3330000000000002</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="H85" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.7167</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
+      <c r="K85" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -5813,38 +5858,29 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
-      <c r="W85" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y85" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA85" s="1">
-        <v>250</v>
-      </c>
+      <c r="W85" s="2"/>
     </row>
     <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="2">
-        <v>3001</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="D86" s="2"/>
       <c r="E86" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>1.3833</v>
       </c>
       <c r="H86" s="2">
-        <v>1.87</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="I86" s="2"/>
-      <c r="J86" s="2" t="s">
-        <v>73</v>
+      <c r="J86" s="2"/>
+      <c r="K86" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -5861,63 +5897,60 @@
     </row>
     <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="2">
-        <v>3001</v>
-      </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
+        <v>13</v>
+      </c>
+      <c r="F87" s="2">
         <v>2</v>
       </c>
-      <c r="F87" s="4">
-        <v>2</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H87" s="4">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
+      <c r="G87" s="2">
+        <v>1.8667</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
     </row>
     <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="2">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F88" s="2">
         <v>2</v>
       </c>
       <c r="G88" s="2">
-        <v>0.433</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H88" s="2">
-        <v>1.4330000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="1" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -5934,25 +5967,25 @@
     </row>
     <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="2">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F89" s="2">
         <v>2</v>
       </c>
       <c r="G89" s="2">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H89" s="2">
-        <v>1.133</v>
+        <v>3.7330000000000001</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="1" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -5969,30 +6002,28 @@
     </row>
     <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="2">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F90" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90" s="2">
-        <v>0.9</v>
+        <v>5.367</v>
       </c>
       <c r="H90" s="2">
-        <v>0.433</v>
+        <v>2</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="1" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="L90" s="2"/>
-      <c r="M90" s="2">
-        <v>1</v>
-      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -6006,24 +6037,22 @@
     </row>
     <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F91" s="2">
         <v>3</v>
       </c>
       <c r="G91" s="2">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H91" s="2">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1</v>
-      </c>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -6037,41 +6066,34 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X91" s="1" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AA91" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
-        <v>3002</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G92" s="2">
-        <v>0</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="H92" s="2">
-        <v>3.8330000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="I92" s="2"/>
-      <c r="J92" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="J92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -6083,71 +6105,76 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
+      <c r="W92" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="93" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C93" s="4">
-        <v>3002</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4">
-        <v>2</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2</v>
-      </c>
-      <c r="G93" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="H93" s="4">
-        <v>3.0329999999999999</v>
-      </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
+      <c r="C93" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>19</v>
+      </c>
+      <c r="F93" s="2">
+        <v>3</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y93" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="2">
-        <v>3002</v>
+        <v>2004</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
         <v>3</v>
       </c>
-      <c r="F94" s="2">
-        <v>2</v>
-      </c>
       <c r="G94" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H94" s="2">
-        <v>2.8330000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -6158,30 +6185,35 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
+      <c r="W94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="2">
-        <v>3002</v>
+        <v>2004</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F95" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G95" s="2">
-        <v>2.1829999999999998</v>
+        <v>2.95</v>
       </c>
       <c r="H95" s="2">
-        <v>1.133</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -6193,36 +6225,37 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
+      <c r="W95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>250</v>
+      </c>
     </row>
     <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="2">
-        <v>3002</v>
+        <v>2004</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F96" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G96" s="2">
-        <v>2.2330000000000001</v>
+        <v>5.3330000000000002</v>
       </c>
       <c r="H96" s="2">
-        <v>0.1</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M96" s="2">
-        <v>1</v>
-      </c>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -6232,36 +6265,41 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="W96" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="2">
-        <v>3002</v>
-      </c>
-      <c r="D97" s="2"/>
+        <v>3001</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E97" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F97" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G97" s="2">
-        <v>2.3330000000000002</v>
+        <v>0</v>
       </c>
       <c r="H97" s="2">
-        <v>0.183</v>
+        <v>1.87</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M97" s="2">
-        <v>1</v>
-      </c>
+      <c r="J97" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -6273,66 +6311,66 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
-        <v>3002</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2">
-        <v>7</v>
-      </c>
-      <c r="F98" s="2">
-        <v>4</v>
-      </c>
-      <c r="G98" s="2">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0.183</v>
-      </c>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M98" s="2">
-        <v>1</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+        <v>3001</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4">
+        <v>2</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F99" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" s="2">
-        <v>2.3330000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="H99" s="2">
-        <v>0.4083</v>
-      </c>
-      <c r="I99" s="2">
-        <v>1</v>
-      </c>
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="I99" s="2"/>
       <c r="J99" s="2"/>
+      <c r="K99" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -6344,40 +6382,30 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
-      <c r="W99" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X99" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y99" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA99" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="W99" s="2"/>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F100" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" s="2">
-        <v>2.516</v>
+        <v>0.8</v>
       </c>
       <c r="H100" s="2">
-        <v>0.45829999999999999</v>
-      </c>
-      <c r="I100" s="2">
-        <v>1</v>
-      </c>
+        <v>1.133</v>
+      </c>
+      <c r="I100" s="2"/>
       <c r="J100" s="2"/>
+      <c r="K100" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -6389,42 +6417,34 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
-      <c r="W100" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X100" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y100" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA100" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="W100" s="2"/>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F101" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101" s="2">
-        <v>2.75</v>
+        <v>0.9</v>
       </c>
       <c r="H101" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I101" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2">
         <v>1</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -6434,37 +6454,28 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
-      <c r="W101" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X101" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y101" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA101" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="W101" s="2"/>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F102" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H102" s="2">
-        <v>0.48330000000000001</v>
-      </c>
-      <c r="I102" s="2"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I102" s="2">
+        <v>1</v>
+      </c>
       <c r="J102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -6472,272 +6483,276 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
-      <c r="R102" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="S102" s="2">
-        <v>0</v>
-      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
       <c r="T102" s="2"/>
-      <c r="U102" s="2">
-        <v>0</v>
-      </c>
+      <c r="U102" s="2"/>
       <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-    </row>
-    <row r="103" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="W102" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C103" s="2">
         <v>3002</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E103" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F103" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G103" s="2">
-        <v>6.6600000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="H103" s="2">
-        <v>0.7</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
+      <c r="J103" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S103" s="26">
-        <v>0</v>
-      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
       <c r="T103" s="2"/>
-      <c r="U103" s="2">
-        <v>0</v>
-      </c>
+      <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C104" s="2">
+    <row r="104" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C104" s="4">
         <v>3002</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2">
-        <v>13</v>
-      </c>
-      <c r="F104" s="2">
-        <v>6</v>
-      </c>
-      <c r="G104" s="2">
-        <v>0.5333</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0.58333000000000002</v>
-      </c>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="S104" s="26">
-        <v>0</v>
-      </c>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2">
-        <v>0</v>
-      </c>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-    </row>
-    <row r="105" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D104" s="4"/>
+      <c r="E104" s="4">
+        <v>2</v>
+      </c>
+      <c r="F104" s="4">
+        <v>2</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H104" s="4">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+    </row>
+    <row r="105" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C105" s="2">
         <v>3002</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F105" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G105" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H105" s="25">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="H105" s="2">
+        <v>2.8330000000000002</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="K105" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
-      <c r="R105" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="S105" s="26">
-        <v>0</v>
-      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
       <c r="T105" s="2"/>
-      <c r="U105" s="2">
-        <v>0</v>
-      </c>
+      <c r="U105" s="2"/>
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C106" s="2">
         <v>3002</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F106" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G106" s="2">
-        <v>1</v>
+        <v>2.1829999999999998</v>
       </c>
       <c r="H106" s="2">
-        <v>1.1666000000000001</v>
+        <v>1.133</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
+      <c r="K106" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
-      <c r="R106" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S106" s="26">
-        <v>0</v>
-      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
       <c r="T106" s="2"/>
-      <c r="U106" s="2">
-        <v>0</v>
-      </c>
+      <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C107" s="2">
         <v>3002</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F107" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G107" s="2">
-        <v>1.6</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="H107" s="2">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="K107" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M107" s="2">
+        <v>1</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
-      <c r="R107" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="S107" s="26">
-        <v>0</v>
-      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
       <c r="T107" s="2"/>
-      <c r="U107" s="2">
-        <v>0</v>
-      </c>
+      <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C108" s="2">
         <v>3002</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F108" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G108" s="2">
-        <v>2</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H108" s="2">
-        <v>1.45</v>
+        <v>0.183</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
+      <c r="K108" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M108" s="2">
+        <v>1</v>
+      </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
-      <c r="R108" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="S108" s="26">
-        <v>0</v>
-      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
       <c r="T108" s="2"/>
-      <c r="U108" s="2">
-        <v>0</v>
-      </c>
+      <c r="U108" s="2"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C109" s="2">
-        <v>3003</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>3002</v>
+      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="2">
+        <v>7</v>
+      </c>
+      <c r="F109" s="2">
+        <v>4</v>
+      </c>
+      <c r="G109" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M109" s="2">
         <v>1</v>
       </c>
-      <c r="F109" s="2">
-        <v>1</v>
-      </c>
-      <c r="G109" s="2">
-        <v>0</v>
-      </c>
-      <c r="H109" s="2">
-        <v>3.8330000000000002</v>
-      </c>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -6749,28 +6764,27 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C110" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F110" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G110" s="2">
-        <v>0.8</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="H110" s="2">
-        <v>3.0329999999999999</v>
-      </c>
-      <c r="I110" s="2"/>
+        <v>0.4083</v>
+      </c>
+      <c r="I110" s="2">
+        <v>1</v>
+      </c>
       <c r="J110" s="2"/>
-      <c r="K110" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -6782,33 +6796,41 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-    </row>
-    <row r="111" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="W110" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y110" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA110" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C111" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2">
         <v>3</v>
       </c>
-      <c r="F111" s="2">
-        <v>2</v>
-      </c>
       <c r="G111" s="2">
+        <v>2.516</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="I111" s="2">
         <v>1</v>
       </c>
-      <c r="H111" s="2">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -6819,186 +6841,196 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-    </row>
-    <row r="112" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C112" s="4">
-        <v>3003</v>
-      </c>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4">
-        <v>4</v>
-      </c>
-      <c r="F112" s="4">
-        <v>2</v>
-      </c>
-      <c r="G112" s="4">
-        <v>2.1829999999999998</v>
-      </c>
-      <c r="H112" s="4">
-        <v>1.133</v>
-      </c>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
-      <c r="W112" s="4"/>
-      <c r="X112" s="5"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
-      <c r="AB112" s="5"/>
-      <c r="AC112" s="5"/>
-    </row>
-    <row r="113" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="W111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X111" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA111" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C112" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2">
+        <v>10</v>
+      </c>
+      <c r="F112" s="2">
+        <v>3</v>
+      </c>
+      <c r="G112" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1</v>
+      </c>
+      <c r="J112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y112" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA112" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C113" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F113" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G113" s="2">
-        <v>2.2330000000000001</v>
+        <v>0</v>
       </c>
       <c r="H113" s="2">
-        <v>0.1</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="M113" s="2">
-        <v>1</v>
-      </c>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
+      <c r="R113" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0</v>
+      </c>
       <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
+      <c r="U113" s="2">
+        <v>0</v>
+      </c>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C114" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2">
+        <v>12</v>
+      </c>
+      <c r="F114" s="2">
         <v>6</v>
       </c>
-      <c r="F114" s="2">
-        <v>4</v>
-      </c>
       <c r="G114" s="2">
-        <v>2.3330000000000002</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="H114" s="2">
-        <v>0.183</v>
+        <v>0.7</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="M114" s="2">
-        <v>1</v>
-      </c>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
+      <c r="R114" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S114" s="26">
+        <v>0</v>
+      </c>
       <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
+      <c r="U114" s="2">
+        <v>0</v>
+      </c>
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C115" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F115" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G115" s="2">
-        <v>2.5670000000000002</v>
+        <v>0.5333</v>
       </c>
       <c r="H115" s="2">
-        <v>0.183</v>
+        <v>0.58333000000000002</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="M115" s="2">
-        <v>1</v>
-      </c>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
+      <c r="R115" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="S115" s="26">
+        <v>0</v>
+      </c>
       <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
+      <c r="U115" s="2">
+        <v>0</v>
+      </c>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C116" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F116" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G116" s="2">
-        <v>2.3330000000000002</v>
-      </c>
-      <c r="H116" s="2">
-        <v>0.4083</v>
-      </c>
-      <c r="I116" s="2">
-        <v>1</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="H116" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -7006,44 +7038,37 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
+      <c r="R116" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S116" s="26">
+        <v>0</v>
+      </c>
       <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
+      <c r="U116" s="2">
+        <v>0</v>
+      </c>
       <c r="V116" s="2"/>
-      <c r="W116" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X116" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y116" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA116" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="W116" s="2"/>
+    </row>
+    <row r="117" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C117" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F117" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G117" s="2">
-        <v>2.516</v>
+        <v>1</v>
       </c>
       <c r="H117" s="2">
-        <v>0.45829999999999999</v>
-      </c>
-      <c r="I117" s="2">
-        <v>1</v>
-      </c>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -7051,44 +7076,37 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
+      <c r="R117" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S117" s="26">
+        <v>0</v>
+      </c>
       <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
+      <c r="U117" s="2">
+        <v>0</v>
+      </c>
       <c r="V117" s="2"/>
-      <c r="W117" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X117" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y117" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA117" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="118" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="W117" s="2"/>
+    </row>
+    <row r="118" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C118" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F118" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G118" s="2">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="H118" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I118" s="2">
-        <v>1</v>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -7096,40 +7114,35 @@
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
+      <c r="R118" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S118" s="26">
+        <v>0</v>
+      </c>
       <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
+      <c r="U118" s="2">
+        <v>0</v>
+      </c>
       <c r="V118" s="2"/>
-      <c r="W118" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X118" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y118" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA118" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="119" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="W118" s="2"/>
+    </row>
+    <row r="119" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C119" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F119" s="2">
         <v>6</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H119" s="2">
-        <v>0.48330000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -7140,9 +7153,9 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="S119" s="2">
+        <v>268</v>
+      </c>
+      <c r="S119" s="26">
         <v>0</v>
       </c>
       <c r="T119" s="2"/>
@@ -7152,256 +7165,251 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C120" s="2">
         <v>3003</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E120" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F120" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G120" s="2">
-        <v>6.6600000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="H120" s="2">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
+      <c r="J120" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
-      <c r="R120" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S120" s="2">
-        <v>0</v>
-      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
       <c r="T120" s="2"/>
-      <c r="U120" s="2">
-        <v>0</v>
-      </c>
+      <c r="U120" s="2"/>
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C121" s="2">
         <v>3003</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F121" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G121" s="2">
-        <v>0.5333</v>
+        <v>1.2665999999999999</v>
       </c>
       <c r="H121" s="2">
-        <v>0.58333000000000002</v>
+        <v>2.0666000000000002</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
+      <c r="K121" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
-      <c r="R121" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="S121" s="2">
-        <v>0</v>
-      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
       <c r="T121" s="2"/>
-      <c r="U121" s="2">
-        <v>0</v>
-      </c>
+      <c r="U121" s="2"/>
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C122" s="2">
         <v>3003</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F122" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G122" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H122" s="25">
-        <v>0.5</v>
+        <v>2.3666</v>
+      </c>
+      <c r="H122" s="2">
+        <v>3.5666000000000002</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
+      <c r="K122" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
-      <c r="R122" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="S122" s="2">
-        <v>0</v>
-      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
       <c r="T122" s="2"/>
-      <c r="U122" s="2">
-        <v>0</v>
-      </c>
+      <c r="U122" s="2"/>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C123" s="2">
+    <row r="123" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C123" s="4">
         <v>3003</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2">
-        <v>15</v>
-      </c>
-      <c r="F123" s="2">
-        <v>6</v>
-      </c>
-      <c r="G123" s="2">
+      <c r="D123" s="4"/>
+      <c r="E123" s="4">
+        <v>4</v>
+      </c>
+      <c r="F123" s="4">
+        <v>3</v>
+      </c>
+      <c r="G123" s="4">
+        <v>4.0332999999999997</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="I123" s="4">
         <v>1</v>
       </c>
-      <c r="H123" s="2">
-        <v>1.1666000000000001</v>
-      </c>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S123" s="2">
-        <v>0</v>
-      </c>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2">
-        <v>0</v>
-      </c>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-    </row>
-    <row r="124" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="J123" s="4"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y123" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+    </row>
+    <row r="124" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C124" s="2">
-        <v>3003</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>3004</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="E124" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F124" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G124" s="2">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H124" s="2">
-        <v>1.7</v>
+        <v>6.7</v>
       </c>
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="J124" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
-      <c r="R124" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="S124" s="2">
-        <v>0</v>
-      </c>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
       <c r="T124" s="2"/>
-      <c r="U124" s="2">
-        <v>0</v>
-      </c>
+      <c r="U124" s="2"/>
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C125" s="2">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F125" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G125" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125" s="2">
-        <v>1.45</v>
+        <v>5.1660000000000004</v>
       </c>
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
+      <c r="J125" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
-      <c r="R125" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="S125" s="2">
-        <v>0</v>
-      </c>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
       <c r="T125" s="2"/>
-      <c r="U125" s="2">
-        <v>0</v>
-      </c>
+      <c r="U125" s="2"/>
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C126" s="2">
         <v>3004</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" s="2">
-        <v>0</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="H126" s="2">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -7416,60 +7424,65 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C127" s="2">
         <v>3004</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F127" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G127" s="2">
         <v>0</v>
       </c>
       <c r="H127" s="2">
-        <v>5.1660000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="J127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
+      <c r="R127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S127" s="2">
+        <v>1</v>
+      </c>
       <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
+      <c r="U127" s="2">
+        <v>1</v>
+      </c>
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C128" s="2">
         <v>3004</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="2">
-        <v>5.1669999999999998</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="H128" s="2">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="2" t="s">
-        <v>173</v>
+      <c r="J128" s="2"/>
+      <c r="K128" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -7490,35 +7503,32 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F129" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G129" s="2">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="H129" s="2">
-        <v>6.7</v>
+        <v>6.55</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
+      <c r="K129" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
-      <c r="R129" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="S129" s="2">
-        <v>1</v>
-      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
       <c r="T129" s="2"/>
-      <c r="U129" s="2">
-        <v>1</v>
-      </c>
+      <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
@@ -7528,21 +7538,21 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F130" s="2">
         <v>2</v>
       </c>
       <c r="G130" s="2">
-        <v>0.16700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H130" s="2">
-        <v>6.6</v>
+        <v>6.2670000000000003</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -7563,21 +7573,21 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F131" s="2">
         <v>2</v>
       </c>
       <c r="G131" s="2">
-        <v>0.216</v>
+        <v>2.15</v>
       </c>
       <c r="H131" s="2">
-        <v>6.55</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -7598,21 +7608,21 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F132" s="2">
         <v>2</v>
       </c>
       <c r="G132" s="2">
-        <v>0.5</v>
+        <v>2.15</v>
       </c>
       <c r="H132" s="2">
-        <v>6.2670000000000003</v>
+        <v>1.583</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -7628,39 +7638,45 @@
       <c r="W132" s="2"/>
     </row>
     <row r="133" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C133" s="2">
+      <c r="C133" s="4">
         <v>3004</v>
       </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2">
-        <v>8</v>
-      </c>
-      <c r="F133" s="2">
+      <c r="D133" s="4"/>
+      <c r="E133" s="4">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4">
         <v>2</v>
       </c>
-      <c r="G133" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="H133" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
+      <c r="G133" s="4">
+        <v>4.383</v>
+      </c>
+      <c r="H133" s="4">
+        <v>2.383</v>
+      </c>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
     </row>
     <row r="134" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C134" s="2">
@@ -7668,22 +7684,21 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F134" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G134" s="2">
-        <v>2.15</v>
+        <v>5.2329999999999997</v>
       </c>
       <c r="H134" s="2">
-        <v>1.583</v>
-      </c>
-      <c r="I134" s="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
       <c r="J134" s="2"/>
-      <c r="K134" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -7695,70 +7710,75 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
+      <c r="W134" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y134" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA134" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="135" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C135" s="4">
-        <v>3004</v>
-      </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4">
-        <v>10</v>
-      </c>
-      <c r="F135" s="4">
-        <v>2</v>
-      </c>
-      <c r="G135" s="4">
-        <v>4.383</v>
-      </c>
-      <c r="H135" s="4">
-        <v>2.383</v>
-      </c>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
-      <c r="AA135" s="5"/>
-      <c r="AB135" s="5"/>
-      <c r="AC135" s="5"/>
+      <c r="C135" s="2">
+        <v>4001</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
     </row>
     <row r="136" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C136" s="2">
-        <v>3004</v>
+        <v>4001</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F136" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G136" s="2">
-        <v>5.2329999999999997</v>
-      </c>
-      <c r="H136" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="I136" s="2">
         <v>1</v>
       </c>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
       <c r="J136" s="2"/>
+      <c r="K136" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -7770,42 +7790,27 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
-      <c r="W136" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="X136" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y136" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA136" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W136" s="2"/>
     </row>
     <row r="137" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C137" s="2">
         <v>4001</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="2">
+        <v>3</v>
+      </c>
+      <c r="F137" s="2">
+        <v>3</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2">
         <v>1</v>
       </c>
-      <c r="F137" s="2">
-        <v>1</v>
-      </c>
-      <c r="G137" s="2">
-        <v>0</v>
-      </c>
-      <c r="H137" s="2">
-        <v>2.0329999999999999</v>
-      </c>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="J137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -7817,27 +7822,41 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
-      <c r="W137" s="2"/>
+      <c r="W137" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y137" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA137" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="138" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C138" s="2">
-        <v>4001</v>
-      </c>
-      <c r="D138" s="2"/>
+        <v>4002</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E138" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" s="2">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>2.9670000000000001</v>
+      </c>
       <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="1" t="s">
-        <v>76</v>
+      <c r="J138" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
@@ -7854,23 +7873,24 @@
     </row>
     <row r="139" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C139" s="2">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139" s="2">
-        <v>0.9</v>
+        <v>1.333</v>
       </c>
       <c r="H139" s="2"/>
-      <c r="I139" s="2">
-        <v>1</v>
-      </c>
+      <c r="I139" s="2"/>
       <c r="J139" s="2"/>
+      <c r="K139" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -7882,42 +7902,27 @@
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
-      <c r="W139" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y139" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA139" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W139" s="2"/>
     </row>
     <row r="140" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C140" s="2">
         <v>4002</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="2">
+        <v>3</v>
+      </c>
+      <c r="F140" s="2">
+        <v>3</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1.333</v>
+      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2">
         <v>1</v>
       </c>
-      <c r="F140" s="2">
-        <v>1</v>
-      </c>
-      <c r="G140" s="2">
-        <v>0</v>
-      </c>
-      <c r="H140" s="2">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -7929,27 +7934,41 @@
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
-      <c r="W140" s="2"/>
+      <c r="W140" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA140" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="141" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C141" s="2">
-        <v>4002</v>
-      </c>
-      <c r="D141" s="2"/>
+        <v>5001</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="H141" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1.167</v>
+      </c>
       <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="1" t="s">
-        <v>99</v>
+      <c r="J141" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
@@ -7966,23 +7985,24 @@
     </row>
     <row r="142" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C142" s="2">
-        <v>4002</v>
+        <v>5001</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G142" s="2">
-        <v>1.333</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H142" s="2"/>
-      <c r="I142" s="2">
-        <v>1</v>
-      </c>
+      <c r="I142" s="2"/>
       <c r="J142" s="2"/>
+      <c r="K142" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -7994,42 +8014,27 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
-      <c r="W142" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X142" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y142" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA142" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W142" s="2"/>
     </row>
     <row r="143" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C143" s="2">
         <v>5001</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="2">
+        <v>3</v>
+      </c>
+      <c r="F143" s="2">
+        <v>3</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2">
         <v>1</v>
       </c>
-      <c r="F143" s="2">
-        <v>1</v>
-      </c>
-      <c r="G143" s="2">
-        <v>0</v>
-      </c>
-      <c r="H143" s="2">
-        <v>1.167</v>
-      </c>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="J143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -8041,27 +8046,41 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
+      <c r="W143" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA143" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="144" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C144" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>5002</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="E144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H144" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>2.5670000000000002</v>
+      </c>
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="1" t="s">
-        <v>118</v>
+      <c r="J144" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -8078,23 +8097,24 @@
     </row>
     <row r="145" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C145" s="2">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F145" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G145" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H145" s="2"/>
-      <c r="I145" s="2">
-        <v>1</v>
-      </c>
+      <c r="I145" s="2"/>
       <c r="J145" s="2"/>
+      <c r="K145" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -8106,41 +8126,27 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
-      <c r="W145" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X145" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y145" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA145" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W145" s="2"/>
     </row>
     <row r="146" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C146" s="2">
         <v>5002</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F146" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146" s="2">
-        <v>0</v>
-      </c>
-      <c r="H146" s="2">
-        <v>2.5670000000000002</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H146" s="2"/>
       <c r="I146" s="2"/>
-      <c r="J146" s="2" t="s">
-        <v>51</v>
+      <c r="J146" s="2"/>
+      <c r="K146" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -8161,19 +8167,19 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F147" s="2">
         <v>2</v>
       </c>
       <c r="G147" s="2">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -8194,20 +8200,19 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2">
+        <v>5</v>
+      </c>
+      <c r="F148" s="2">
         <v>3</v>
       </c>
-      <c r="F148" s="2">
-        <v>2</v>
-      </c>
       <c r="G148" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
+      <c r="I148" s="2">
+        <v>1</v>
+      </c>
       <c r="J148" s="2"/>
-      <c r="K148" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -8219,40 +8224,73 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
+      <c r="W148" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA148" s="1">
+        <v>800</v>
+      </c>
+      <c r="AB148" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC148" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="149" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C149" s="2">
+      <c r="C149" s="4">
         <v>5002</v>
       </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2">
-        <v>4</v>
-      </c>
-      <c r="F149" s="2">
+      <c r="D149" s="4"/>
+      <c r="E149" s="4">
+        <v>6</v>
+      </c>
+      <c r="F149" s="4">
+        <v>3</v>
+      </c>
+      <c r="G149" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4">
+        <v>1</v>
+      </c>
+      <c r="J149" s="4"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X149" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5">
+        <v>150</v>
+      </c>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5">
         <v>2</v>
       </c>
-      <c r="G149" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2"/>
-      <c r="V149" s="2"/>
-      <c r="W149" s="2"/>
     </row>
     <row r="150" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C150" s="2">
@@ -8260,31 +8298,31 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F150" s="2">
         <v>3</v>
       </c>
       <c r="G150" s="2">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H150" s="2"/>
-      <c r="I150" s="2">
+      <c r="I150" s="4">
         <v>1</v>
       </c>
       <c r="J150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
-      <c r="V150" s="2"/>
-      <c r="W150" s="2" t="s">
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4" t="s">
         <v>69</v>
       </c>
       <c r="X150" s="1" t="s">
@@ -8293,128 +8331,95 @@
       <c r="Y150" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA150" s="1">
-        <v>800</v>
-      </c>
-      <c r="AB150" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC150" s="1">
-        <v>8</v>
-      </c>
     </row>
     <row r="151" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C151" s="4">
-        <v>5002</v>
-      </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4">
-        <v>6</v>
-      </c>
-      <c r="F151" s="4">
-        <v>3</v>
-      </c>
-      <c r="G151" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4">
+      <c r="C151" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E151" s="2">
         <v>1</v>
       </c>
-      <c r="J151" s="4"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X151" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y151" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z151" s="5"/>
-      <c r="AA151" s="5">
-        <v>150</v>
-      </c>
-      <c r="AB151" s="5"/>
-      <c r="AC151" s="5">
-        <v>2</v>
-      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="V151" s="2"/>
+      <c r="W151" s="2"/>
     </row>
     <row r="152" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C152" s="2">
-        <v>5002</v>
+        <v>6001</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F152" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G152" s="2">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H152" s="2"/>
-      <c r="I152" s="4">
-        <v>1</v>
-      </c>
+      <c r="I152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-      <c r="S152" s="4"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X152" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y152" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="K152" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
+      <c r="U152" s="2"/>
+      <c r="V152" s="2"/>
+      <c r="W152" s="2"/>
     </row>
     <row r="153" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C153" s="2">
         <v>6001</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D153" s="2"/>
       <c r="E153" s="2">
+        <v>3</v>
+      </c>
+      <c r="F153" s="2">
+        <v>3</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2">
         <v>1</v>
       </c>
-      <c r="F153" s="2">
-        <v>1</v>
-      </c>
-      <c r="G153" s="2">
-        <v>0</v>
-      </c>
-      <c r="H153" s="2">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="J153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -8426,27 +8431,41 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
-      <c r="W153" s="2"/>
+      <c r="W153" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA153" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="154" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C154" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D154" s="2"/>
+        <v>6002</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G154" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H154" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>2.2669999999999999</v>
+      </c>
       <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="1" t="s">
-        <v>99</v>
+      <c r="J154" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -8463,23 +8482,24 @@
     </row>
     <row r="155" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C155" s="2">
-        <v>6001</v>
+        <v>6002</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F155" s="2">
-        <v>3</v>
-      </c>
-      <c r="G155" s="2">
-        <v>0.65</v>
+        <v>2</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1.1667000000000001</v>
       </c>
       <c r="H155" s="2"/>
-      <c r="I155" s="2">
-        <v>1</v>
-      </c>
+      <c r="I155" s="2"/>
       <c r="J155" s="2"/>
+      <c r="K155" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -8491,74 +8511,77 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
-      <c r="W155" s="2" t="s">
+      <c r="W155" s="2"/>
+    </row>
+    <row r="156" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C156" s="4">
+        <v>6002</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4">
+        <v>3</v>
+      </c>
+      <c r="F156" s="4">
+        <v>3</v>
+      </c>
+      <c r="G156" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4">
+        <v>1</v>
+      </c>
+      <c r="J156" s="4"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="4"/>
+      <c r="S156" s="4"/>
+      <c r="T156" s="4"/>
+      <c r="U156" s="4"/>
+      <c r="V156" s="4"/>
+      <c r="W156" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X155" s="1" t="s">
+      <c r="X156" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Y155" s="1" t="s">
+      <c r="Y156" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA155" s="1">
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="156" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C156" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E156" s="2">
-        <v>1</v>
-      </c>
-      <c r="F156" s="2">
-        <v>1</v>
-      </c>
-      <c r="G156" s="2">
-        <v>0</v>
-      </c>
-      <c r="H156" s="2">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2"/>
-      <c r="V156" s="2"/>
-      <c r="W156" s="2"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
     </row>
     <row r="157" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C157" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D157" s="2"/>
+        <v>8002</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="E157" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157" s="2">
-        <v>2</v>
-      </c>
-      <c r="G157" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H157" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>4</v>
+      </c>
       <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="1" t="s">
-        <v>99</v>
+      <c r="J157" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -8574,26 +8597,30 @@
       <c r="W157" s="2"/>
     </row>
     <row r="158" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C158" s="4">
-        <v>6002</v>
+      <c r="C158" s="2">
+        <v>8002</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F158" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G158" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" s="4">
+        <v>4</v>
+      </c>
+      <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="4"/>
+      <c r="K158" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
@@ -8604,19 +8631,11 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
-      <c r="W158" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X158" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y158" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="W158" s="4"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
-      <c r="AA158" s="5">
-        <v>1000</v>
-      </c>
+      <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
     </row>
@@ -8624,14 +8643,12 @@
       <c r="C159" s="2">
         <v>8002</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="D159" s="2"/>
       <c r="E159" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F159" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" s="2">
         <v>0</v>
@@ -8640,8 +8657,9 @@
         <v>4</v>
       </c>
       <c r="I159" s="2"/>
-      <c r="J159" s="2" t="s">
-        <v>119</v>
+      <c r="J159" s="2"/>
+      <c r="K159" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -8660,44 +8678,36 @@
       <c r="C160" s="2">
         <v>8002</v>
       </c>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4">
+      <c r="D160" s="2"/>
+      <c r="E160" s="2">
+        <v>4</v>
+      </c>
+      <c r="F160" s="2">
         <v>2</v>
       </c>
-      <c r="F160" s="4">
-        <v>2</v>
-      </c>
-      <c r="G160" s="4">
-        <v>0</v>
-      </c>
-      <c r="H160" s="4">
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
         <v>4</v>
       </c>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
       <c r="K160" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L160" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="4"/>
-      <c r="P160" s="4"/>
-      <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
-      <c r="S160" s="4"/>
-      <c r="T160" s="4"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="W160" s="4"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
-      <c r="Z160" s="5"/>
-      <c r="AA160" s="5"/>
-      <c r="AB160" s="5"/>
-      <c r="AC160" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2"/>
+      <c r="V160" s="2"/>
+      <c r="W160" s="2"/>
     </row>
     <row r="161" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C161" s="2">
@@ -8705,7 +8715,7 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F161" s="2">
         <v>2</v>
@@ -8719,7 +8729,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="1" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -8740,22 +8750,21 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F162" s="2">
+        <v>3</v>
+      </c>
+      <c r="G162" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H162" s="2">
         <v>2</v>
       </c>
-      <c r="G162" s="2">
-        <v>0</v>
-      </c>
-      <c r="H162" s="2">
-        <v>4</v>
-      </c>
-      <c r="I162" s="2"/>
+      <c r="I162" s="2">
+        <v>1</v>
+      </c>
       <c r="J162" s="2"/>
-      <c r="K162" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -8767,7 +8776,18 @@
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
+      <c r="W162" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y162" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="163" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C163" s="2">
@@ -8775,32 +8795,35 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F163" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G163" s="2">
         <v>0</v>
       </c>
       <c r="H163" s="2">
-        <v>4</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
-      <c r="K163" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
+      <c r="R163" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S163" s="2">
+        <v>0</v>
+      </c>
       <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
+      <c r="U163" s="2">
+        <v>0</v>
+      </c>
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
@@ -8810,20 +8833,18 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2">
+        <v>8</v>
+      </c>
+      <c r="F164" s="2">
         <v>6</v>
       </c>
-      <c r="F164" s="2">
-        <v>3</v>
-      </c>
       <c r="G164" s="2">
-        <v>2.8</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H164" s="2">
-        <v>2</v>
-      </c>
-      <c r="I164" s="2">
-        <v>1</v>
-      </c>
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
@@ -8831,23 +8852,18 @@
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
+      <c r="R164" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="S164" s="2">
+        <v>0</v>
+      </c>
       <c r="T164" s="2"/>
-      <c r="U164" s="2"/>
+      <c r="U164" s="2">
+        <v>0</v>
+      </c>
       <c r="V164" s="2"/>
-      <c r="W164" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X164" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y164" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA164" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W164" s="2"/>
     </row>
     <row r="165" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C165" s="2">
@@ -8855,16 +8871,16 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F165" s="2">
         <v>6</v>
       </c>
       <c r="G165" s="2">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H165" s="2">
-        <v>0.76700000000000002</v>
+        <v>1.266</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -8875,7 +8891,7 @@
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="S165" s="2">
         <v>0</v>
@@ -8889,77 +8905,74 @@
     </row>
     <row r="166" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C166" s="2">
-        <v>8002</v>
-      </c>
-      <c r="D166" s="2"/>
+        <v>8003</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="E166" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F166" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G166" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="H166" s="2">
-        <v>2.6669999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
+      <c r="J166" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
-      <c r="R166" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="S166" s="2">
-        <v>0</v>
-      </c>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
       <c r="T166" s="2"/>
-      <c r="U166" s="2">
-        <v>0</v>
-      </c>
+      <c r="U166" s="2"/>
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
     <row r="167" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C167" s="2">
-        <v>8002</v>
+        <v>8003</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F167" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G167" s="2">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="H167" s="2">
-        <v>1.266</v>
+        <v>1.9</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
-      <c r="L167" s="2"/>
+      <c r="K167" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
-      <c r="R167" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S167" s="2">
-        <v>0</v>
-      </c>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
       <c r="T167" s="2"/>
-      <c r="U167" s="2">
-        <v>0</v>
-      </c>
+      <c r="U167" s="2"/>
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
@@ -8967,24 +8980,23 @@
       <c r="C168" s="2">
         <v>8003</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="D168" s="2"/>
       <c r="E168" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F168" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="2">
         <v>0</v>
       </c>
       <c r="H168" s="2">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="I168" s="2"/>
-      <c r="J168" s="2" t="s">
-        <v>294</v>
+      <c r="J168" s="2"/>
+      <c r="K168" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
@@ -9005,25 +9017,22 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F169" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G169" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H169" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="I169" s="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I169" s="2">
+        <v>1</v>
+      </c>
       <c r="J169" s="2"/>
-      <c r="K169" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L169" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -9035,6 +9044,15 @@
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
+      <c r="X169" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA169" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="170" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C170" s="2">
@@ -9042,32 +9060,35 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F170" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G170" s="2">
         <v>0</v>
       </c>
       <c r="H170" s="2">
-        <v>1.833</v>
+        <v>1.1659999999999999</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
-      <c r="K170" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
+      <c r="R170" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S170" s="2">
+        <v>0</v>
+      </c>
       <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
+      <c r="U170" s="2">
+        <v>0</v>
+      </c>
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
@@ -9077,20 +9098,18 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F171" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G171" s="2">
-        <v>1.3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H171" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I171" s="2">
-        <v>1</v>
-      </c>
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
@@ -9098,76 +9117,71 @@
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
+      <c r="R171" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S171" s="2">
+        <v>0</v>
+      </c>
       <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
+      <c r="U171" s="2">
+        <v>0</v>
+      </c>
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
-      <c r="X171" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y171" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA171" s="1">
-        <v>1000</v>
-      </c>
     </row>
     <row r="172" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C172" s="2">
-        <v>8003</v>
-      </c>
-      <c r="D172" s="2"/>
+        <v>8004</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="E172" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F172" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G172" s="2">
         <v>0</v>
       </c>
       <c r="H172" s="2">
-        <v>1.1659999999999999</v>
+        <v>5.6333000000000002</v>
       </c>
       <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
+      <c r="J172" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
-      <c r="R172" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="S172" s="2">
-        <v>0</v>
-      </c>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
       <c r="T172" s="2"/>
-      <c r="U172" s="2">
-        <v>0</v>
-      </c>
+      <c r="U172" s="2"/>
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
     <row r="173" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C173" s="2">
-        <v>8003</v>
+        <v>8004</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F173" s="2">
         <v>6</v>
       </c>
       <c r="G173" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H173" s="2">
-        <v>2.7330000000000001</v>
+        <v>5.2332999999999998</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
@@ -9178,12 +9192,14 @@
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="S173" s="2">
         <v>0</v>
       </c>
-      <c r="T173" s="2"/>
+      <c r="T173" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="U173" s="2">
         <v>0</v>
       </c>
@@ -9194,37 +9210,48 @@
       <c r="C174" s="2">
         <v>8004</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E174" s="2">
-        <v>1</v>
-      </c>
-      <c r="F174" s="2">
-        <v>1</v>
-      </c>
-      <c r="G174" s="2">
-        <v>0</v>
-      </c>
-      <c r="H174" s="2">
-        <v>5.6333000000000002</v>
-      </c>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4">
+        <v>3</v>
+      </c>
+      <c r="F174" s="4">
+        <v>6</v>
+      </c>
+      <c r="G174" s="4">
+        <v>5.2332999999999998</v>
+      </c>
+      <c r="H174" s="4">
+        <v>3.5666000000000002</v>
+      </c>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S174" s="2">
+        <v>0</v>
+      </c>
+      <c r="T174" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="U174" s="2">
+        <v>0</v>
+      </c>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="5"/>
+      <c r="Y174" s="5"/>
+      <c r="Z174" s="5"/>
+      <c r="AA174" s="5"/>
+      <c r="AB174" s="5"/>
+      <c r="AC174" s="5"/>
     </row>
     <row r="175" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C175" s="2">
@@ -9232,37 +9259,32 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2">
+        <v>4</v>
+      </c>
+      <c r="F175" s="2">
         <v>2</v>
       </c>
-      <c r="F175" s="2">
-        <v>6</v>
-      </c>
       <c r="G175" s="2">
         <v>0</v>
       </c>
       <c r="H175" s="2">
-        <v>5.2332999999999998</v>
+        <v>10.833</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
+      <c r="K175" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
-      <c r="R175" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="S175" s="2">
-        <v>0</v>
-      </c>
-      <c r="T175" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="U175" s="2">
-        <v>0</v>
-      </c>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
@@ -9270,48 +9292,36 @@
       <c r="C176" s="2">
         <v>8004</v>
       </c>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4">
-        <v>3</v>
-      </c>
-      <c r="F176" s="4">
-        <v>6</v>
-      </c>
-      <c r="G176" s="4">
-        <v>5.2332999999999998</v>
-      </c>
-      <c r="H176" s="4">
-        <v>3.5666000000000002</v>
-      </c>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
-      <c r="Q176" s="4"/>
-      <c r="R176" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="S176" s="2">
-        <v>0</v>
-      </c>
-      <c r="T176" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="U176" s="2">
-        <v>0</v>
-      </c>
-      <c r="V176" s="4"/>
-      <c r="W176" s="4"/>
-      <c r="X176" s="5"/>
-      <c r="Y176" s="5"/>
-      <c r="Z176" s="5"/>
-      <c r="AA176" s="5"/>
-      <c r="AB176" s="5"/>
-      <c r="AC176" s="5"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2">
+        <v>5</v>
+      </c>
+      <c r="F176" s="2">
+        <v>2</v>
+      </c>
+      <c r="G176" s="2">
+        <v>5.1665999999999999</v>
+      </c>
+      <c r="H176" s="2">
+        <v>5</v>
+      </c>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="2"/>
     </row>
     <row r="177" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C177" s="2">
@@ -9319,21 +9329,21 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F177" s="2">
         <v>2</v>
       </c>
       <c r="G177" s="2">
-        <v>0</v>
+        <v>5.3666</v>
       </c>
       <c r="H177" s="2">
-        <v>10.833</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -9354,13 +9364,13 @@
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F178" s="2">
         <v>2</v>
       </c>
       <c r="G178" s="2">
-        <v>5.1665999999999999</v>
+        <v>5.3666</v>
       </c>
       <c r="H178" s="2">
         <v>5</v>
@@ -9368,7 +9378,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -9389,22 +9399,19 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F179" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G179" s="2">
-        <v>5.3666</v>
+        <v>5.3666999999999998</v>
       </c>
       <c r="H179" s="2">
-        <v>1.6659999999999999</v>
+        <v>0.1333000000000002</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -9416,7 +9423,9 @@
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
-      <c r="W179" s="2"/>
+      <c r="W179" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="180" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C180" s="2">
@@ -9424,22 +9433,19 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F180" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" s="2">
-        <v>5.3666</v>
+        <v>5.5</v>
       </c>
       <c r="H180" s="2">
-        <v>5</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
-      <c r="K180" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -9451,7 +9457,9 @@
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
+      <c r="W180" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="181" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C181" s="2">
@@ -9459,16 +9467,16 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F181" s="2">
         <v>1</v>
       </c>
       <c r="G181" s="2">
-        <v>5.3666999999999998</v>
+        <v>5.6669999999999998</v>
       </c>
       <c r="H181" s="2">
-        <v>0.1333000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -9484,27 +9492,31 @@
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
       <c r="W181" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C182" s="2">
         <v>8004</v>
       </c>
-      <c r="D182" s="2"/>
+      <c r="D182" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="E182" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F182" s="2">
+        <v>3</v>
+      </c>
+      <c r="G182" s="2">
+        <v>6.867</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="I182" s="2">
         <v>1</v>
       </c>
-      <c r="G182" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H182" s="2">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -9518,129 +9530,129 @@
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
       <c r="W182" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+      <c r="Y182" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA182" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="183" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C183" s="2">
         <v>8004</v>
       </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2">
-        <v>10</v>
-      </c>
-      <c r="F183" s="2">
+      <c r="D183" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E183" s="4">
+        <v>12</v>
+      </c>
+      <c r="F183" s="4">
         <v>1</v>
       </c>
       <c r="G183" s="2">
-        <v>5.6669999999999998</v>
-      </c>
-      <c r="H183" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2"/>
-      <c r="V183" s="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="H183" s="4">
+        <v>2</v>
+      </c>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
       <c r="W183" s="2" t="s">
-        <v>226</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X183" s="5"/>
+      <c r="Y183" s="5"/>
+      <c r="Z183" s="5"/>
+      <c r="AA183" s="5"/>
+      <c r="AB183" s="5"/>
+      <c r="AC183" s="5"/>
     </row>
     <row r="184" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C184" s="2">
         <v>8004</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="D184" s="2"/>
       <c r="E184" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F184" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G184" s="2">
-        <v>6.867</v>
+        <v>0</v>
       </c>
       <c r="H184" s="2">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I184" s="2">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
+      <c r="P184" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
-      <c r="W184" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y184" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA184" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W184" s="2"/>
     </row>
     <row r="185" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C185" s="2">
         <v>8004</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E185" s="4">
+      <c r="D185" s="2"/>
+      <c r="E185" s="2">
+        <v>14</v>
+      </c>
+      <c r="F185" s="2">
+        <v>7</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
         <v>12</v>
       </c>
-      <c r="F185" s="4">
-        <v>1</v>
-      </c>
-      <c r="G185" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="H185" s="4">
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2">
         <v>2</v>
       </c>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-      <c r="K185" s="5"/>
-      <c r="L185" s="4"/>
-      <c r="M185" s="4"/>
-      <c r="N185" s="4"/>
-      <c r="O185" s="4"/>
-      <c r="P185" s="4"/>
-      <c r="Q185" s="4"/>
-      <c r="R185" s="4"/>
-      <c r="S185" s="4"/>
-      <c r="T185" s="4"/>
-      <c r="U185" s="4"/>
-      <c r="V185" s="4"/>
-      <c r="W185" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="X185" s="5"/>
-      <c r="Y185" s="5"/>
-      <c r="Z185" s="5"/>
-      <c r="AA185" s="5"/>
-      <c r="AB185" s="5"/>
-      <c r="AC185" s="5"/>
+      <c r="Q185" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="2"/>
     </row>
     <row r="186" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C186" s="2">
@@ -9648,7 +9660,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F186" s="2">
         <v>7</v>
@@ -9666,10 +9678,10 @@
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q186" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
@@ -9684,7 +9696,7 @@
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F187" s="2">
         <v>7</v>
@@ -9695,24 +9707,31 @@
       <c r="H187" s="2">
         <v>12</v>
       </c>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2">
-        <v>2</v>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4">
+        <v>4</v>
       </c>
       <c r="Q187" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2"/>
-      <c r="V187" s="2"/>
-      <c r="W187" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="5"/>
+      <c r="Y187" s="5"/>
+      <c r="Z187" s="5"/>
+      <c r="AA187" s="5"/>
+      <c r="AB187" s="5"/>
+      <c r="AC187" s="5"/>
     </row>
     <row r="188" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C188" s="2">
@@ -9720,7 +9739,7 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F188" s="2">
         <v>7</v>
@@ -9738,10 +9757,10 @@
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q188" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
@@ -9756,7 +9775,7 @@
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F189" s="2">
         <v>7</v>
@@ -9767,31 +9786,24 @@
       <c r="H189" s="2">
         <v>12</v>
       </c>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="4"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-      <c r="P189" s="4">
-        <v>4</v>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2">
+        <v>6</v>
       </c>
       <c r="Q189" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="R189" s="4"/>
-      <c r="S189" s="4"/>
-      <c r="T189" s="4"/>
-      <c r="U189" s="4"/>
-      <c r="V189" s="4"/>
-      <c r="W189" s="4"/>
-      <c r="X189" s="5"/>
-      <c r="Y189" s="5"/>
-      <c r="Z189" s="5"/>
-      <c r="AA189" s="5"/>
-      <c r="AB189" s="5"/>
-      <c r="AC189" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2"/>
+      <c r="V189" s="2"/>
+      <c r="W189" s="2"/>
     </row>
     <row r="190" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C190" s="2">
@@ -9799,29 +9811,29 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F190" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G190" s="2">
         <v>0</v>
       </c>
       <c r="H190" s="2">
-        <v>12</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q190" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="N190" s="2">
+        <v>1</v>
+      </c>
+      <c r="O190" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="24"/>
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
@@ -9835,29 +9847,29 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F191" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G191" s="2">
         <v>0</v>
       </c>
       <c r="H191" s="2">
-        <v>12</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q191" s="24" t="s">
-        <v>233</v>
-      </c>
+      <c r="N191" s="2">
+        <v>2</v>
+      </c>
+      <c r="O191" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="24"/>
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
@@ -9871,7 +9883,7 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F192" s="2">
         <v>5</v>
@@ -9887,10 +9899,10 @@
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O192" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" s="24"/>
@@ -9905,9 +9917,9 @@
       <c r="C193" s="2">
         <v>8004</v>
       </c>
-      <c r="D193" s="2"/>
+      <c r="D193" s="4"/>
       <c r="E193" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F193" s="2">
         <v>5</v>
@@ -9918,24 +9930,31 @@
       <c r="H193" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2">
-        <v>2</v>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4">
+        <v>4</v>
       </c>
       <c r="O193" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="P193" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="P193" s="4"/>
       <c r="Q193" s="24"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
-      <c r="V193" s="2"/>
-      <c r="W193" s="2"/>
+      <c r="R193" s="4"/>
+      <c r="S193" s="4"/>
+      <c r="T193" s="4"/>
+      <c r="U193" s="4"/>
+      <c r="V193" s="4"/>
+      <c r="W193" s="4"/>
+      <c r="X193" s="5"/>
+      <c r="Y193" s="5"/>
+      <c r="Z193" s="5"/>
+      <c r="AA193" s="5"/>
+      <c r="AB193" s="5"/>
+      <c r="AC193" s="5"/>
     </row>
     <row r="194" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C194" s="2">
@@ -9943,7 +9962,7 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F194" s="2">
         <v>5</v>
@@ -9959,10 +9978,10 @@
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O194" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" s="24"/>
@@ -9977,9 +9996,9 @@
       <c r="C195" s="2">
         <v>8004</v>
       </c>
-      <c r="D195" s="4"/>
+      <c r="D195" s="2"/>
       <c r="E195" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F195" s="2">
         <v>5</v>
@@ -9990,31 +10009,24 @@
       <c r="H195" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="5"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4">
-        <v>4</v>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2">
+        <v>6</v>
       </c>
       <c r="O195" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="P195" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="P195" s="2"/>
       <c r="Q195" s="24"/>
-      <c r="R195" s="4"/>
-      <c r="S195" s="4"/>
-      <c r="T195" s="4"/>
-      <c r="U195" s="4"/>
-      <c r="V195" s="4"/>
-      <c r="W195" s="4"/>
-      <c r="X195" s="5"/>
-      <c r="Y195" s="5"/>
-      <c r="Z195" s="5"/>
-      <c r="AA195" s="5"/>
-      <c r="AB195" s="5"/>
-      <c r="AC195" s="5"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="2"/>
     </row>
     <row r="196" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C196" s="2">
@@ -10022,29 +10034,30 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F196" s="2">
         <v>5</v>
       </c>
       <c r="G196" s="2">
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="H196" s="2">
-        <v>5.4666666666666668</v>
+        <f>171/30</f>
+        <v>5.7</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O196" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P196" s="2"/>
-      <c r="Q196" s="24"/>
+      <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
@@ -10058,29 +10071,30 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F197" s="2">
         <v>5</v>
       </c>
       <c r="G197" s="2">
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="H197" s="2">
-        <v>5.4666666666666668</v>
+        <f t="shared" ref="H197:H201" si="0">171/30</f>
+        <v>5.7</v>
       </c>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O197" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P197" s="2"/>
-      <c r="Q197" s="24"/>
+      <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
@@ -10094,7 +10108,7 @@
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F198" s="2">
         <v>5</v>
@@ -10103,7 +10117,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H198" s="2">
-        <f>171/30</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="I198" s="2"/>
@@ -10111,10 +10125,10 @@
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O198" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
@@ -10131,7 +10145,7 @@
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F199" s="2">
         <v>5</v>
@@ -10140,7 +10154,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H199" s="2">
-        <f t="shared" ref="H199:H203" si="0">171/30</f>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="I199" s="2"/>
@@ -10148,10 +10162,10 @@
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O199" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
@@ -10168,7 +10182,7 @@
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F200" s="2">
         <v>5</v>
@@ -10185,10 +10199,10 @@
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
       <c r="N200" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O200" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
@@ -10205,7 +10219,7 @@
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F201" s="2">
         <v>5</v>
@@ -10222,10 +10236,10 @@
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O201" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
@@ -10240,38 +10254,44 @@
       <c r="C202" s="2">
         <v>8004</v>
       </c>
-      <c r="D202" s="2"/>
+      <c r="D202" s="4"/>
       <c r="E202" s="2">
-        <v>29</v>
-      </c>
-      <c r="F202" s="2">
+        <v>31</v>
+      </c>
+      <c r="F202" s="4">
         <v>5</v>
       </c>
-      <c r="G202" s="2">
-        <v>5.4666666666666668</v>
-      </c>
-      <c r="H202" s="2">
-        <f t="shared" si="0"/>
+      <c r="G202" s="4">
         <v>5.7</v>
       </c>
-      <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2">
-        <v>5</v>
-      </c>
-      <c r="O202" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
-      <c r="T202" s="2"/>
-      <c r="U202" s="2"/>
-      <c r="V202" s="2"/>
-      <c r="W202" s="2"/>
+      <c r="H202" s="4">
+        <v>12</v>
+      </c>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4">
+        <v>1</v>
+      </c>
+      <c r="O202" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+      <c r="X202" s="5"/>
+      <c r="Y202" s="5"/>
+      <c r="Z202" s="5"/>
+      <c r="AA202" s="5"/>
+      <c r="AB202" s="5"/>
+      <c r="AC202" s="5"/>
     </row>
     <row r="203" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C203" s="2">
@@ -10279,27 +10299,26 @@
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F203" s="2">
         <v>5</v>
       </c>
       <c r="G203" s="2">
-        <v>5.4666666666666668</v>
-      </c>
-      <c r="H203" s="2">
-        <f t="shared" si="0"/>
         <v>5.7</v>
+      </c>
+      <c r="H203" s="4">
+        <v>12</v>
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2">
-        <v>6</v>
-      </c>
-      <c r="O203" s="24" t="s">
-        <v>254</v>
+        <v>2</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
@@ -10314,44 +10333,37 @@
       <c r="C204" s="2">
         <v>8004</v>
       </c>
-      <c r="D204" s="4"/>
+      <c r="D204" s="2"/>
       <c r="E204" s="2">
-        <v>31</v>
-      </c>
-      <c r="F204" s="4">
+        <v>33</v>
+      </c>
+      <c r="F204" s="2">
         <v>5</v>
       </c>
-      <c r="G204" s="4">
+      <c r="G204" s="2">
         <v>5.7</v>
       </c>
       <c r="H204" s="4">
         <v>12</v>
       </c>
-      <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="5"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4">
-        <v>1</v>
-      </c>
-      <c r="O204" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P204" s="4"/>
-      <c r="Q204" s="4"/>
-      <c r="R204" s="4"/>
-      <c r="S204" s="4"/>
-      <c r="T204" s="4"/>
-      <c r="U204" s="4"/>
-      <c r="V204" s="4"/>
-      <c r="W204" s="4"/>
-      <c r="X204" s="5"/>
-      <c r="Y204" s="5"/>
-      <c r="Z204" s="5"/>
-      <c r="AA204" s="5"/>
-      <c r="AB204" s="5"/>
-      <c r="AC204" s="5"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2">
+        <v>3</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2"/>
+      <c r="V204" s="2"/>
+      <c r="W204" s="2"/>
     </row>
     <row r="205" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C205" s="2">
@@ -10359,7 +10371,7 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F205" s="2">
         <v>5</v>
@@ -10375,10 +10387,10 @@
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P205" s="2"/>
       <c r="Q205" s="2"/>
@@ -10395,7 +10407,7 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F206" s="2">
         <v>5</v>
@@ -10411,10 +10423,10 @@
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" s="2"/>
@@ -10431,7 +10443,7 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F207" s="2">
         <v>5</v>
@@ -10447,10 +10459,10 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" s="2"/>
@@ -10463,31 +10475,29 @@
     </row>
     <row r="208" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C208" s="2">
-        <v>8004</v>
+        <v>9002</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F208" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G208" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H208" s="4">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H208" s="2">
+        <v>2.5</v>
       </c>
       <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
+      <c r="J208" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
-      <c r="N208" s="2">
-        <v>5</v>
-      </c>
-      <c r="O208" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
       <c r="P208" s="2"/>
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
@@ -10499,31 +10509,29 @@
     </row>
     <row r="209" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C209" s="2">
-        <v>8004</v>
+        <v>9002</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F209" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G209" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H209" s="4">
-        <v>12</v>
-      </c>
-      <c r="I209" s="2"/>
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I209" s="2">
+        <v>1</v>
+      </c>
       <c r="J209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
-      <c r="N209" s="2">
-        <v>6</v>
-      </c>
-      <c r="O209" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
       <c r="P209" s="2"/>
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
@@ -10531,29 +10539,28 @@
       <c r="T209" s="2"/>
       <c r="U209" s="2"/>
       <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
+      <c r="W209" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X209" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y209" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA209" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="210" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C210" s="2">
-        <v>9002</v>
-      </c>
+      <c r="C210" s="2"/>
       <c r="D210" s="2"/>
-      <c r="E210" s="2">
-        <v>1</v>
-      </c>
-      <c r="F210" s="2">
-        <v>1</v>
-      </c>
-      <c r="G210" s="2">
-        <v>0</v>
-      </c>
-      <c r="H210" s="2">
-        <v>2.5</v>
-      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
       <c r="I210" s="2"/>
-      <c r="J210" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="J210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
@@ -10568,25 +10575,13 @@
       <c r="W210" s="2"/>
     </row>
     <row r="211" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C211" s="2">
-        <v>9002</v>
-      </c>
+      <c r="C211" s="2"/>
       <c r="D211" s="2"/>
-      <c r="E211" s="2">
-        <v>2</v>
-      </c>
-      <c r="F211" s="2">
-        <v>3</v>
-      </c>
-      <c r="G211" s="2">
-        <v>1.6667000000000001</v>
-      </c>
-      <c r="H211" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I211" s="2">
-        <v>1</v>
-      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
@@ -10599,18 +10594,7 @@
       <c r="T211" s="2"/>
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
-      <c r="W211" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X211" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y211" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA211" s="1">
-        <v>300</v>
-      </c>
+      <c r="W211" s="2"/>
     </row>
     <row r="212" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C212" s="2"/>
@@ -10899,77 +10883,33 @@
       <c r="W224" s="2"/>
     </row>
     <row r="225" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2"/>
-      <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-    </row>
-    <row r="226" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2"/>
-      <c r="V226" s="2"/>
-      <c r="W226" s="2"/>
-    </row>
-    <row r="227" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-      <c r="I227" s="4"/>
-      <c r="J227" s="4"/>
-      <c r="K227" s="5"/>
-      <c r="L227" s="4"/>
-      <c r="M227" s="4"/>
-      <c r="N227" s="4"/>
-      <c r="O227" s="4"/>
-      <c r="P227" s="4"/>
-      <c r="Q227" s="4"/>
-      <c r="R227" s="4"/>
-      <c r="S227" s="4"/>
-      <c r="T227" s="4"/>
-      <c r="U227" s="4"/>
-      <c r="V227" s="4"/>
-      <c r="W227" s="4"/>
-      <c r="X227" s="5"/>
-      <c r="Y227" s="5"/>
-      <c r="Z227" s="5"/>
-      <c r="AA227" s="5"/>
-      <c r="AB227" s="5"/>
-      <c r="AC227" s="5"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="4"/>
+      <c r="Q225" s="4"/>
+      <c r="R225" s="4"/>
+      <c r="S225" s="4"/>
+      <c r="T225" s="4"/>
+      <c r="U225" s="4"/>
+      <c r="V225" s="4"/>
+      <c r="W225" s="4"/>
+      <c r="X225" s="5"/>
+      <c r="Y225" s="5"/>
+      <c r="Z225" s="5"/>
+      <c r="AA225" s="5"/>
+      <c r="AB225" s="5"/>
+      <c r="AC225" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768830A8-18BF-47AB-981F-83E748F78B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706485D-A129-4F42-9201-32D9EA44F865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="331">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1355,10 +1355,6 @@
   </si>
   <si>
     <t>black_whole_start_loop_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio01 HeadNub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2542,7 +2538,7 @@
       <pane xSplit="8" ySplit="6" topLeftCell="I104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M118" sqref="M118"/>
+      <selection pane="bottomRight" activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2668,7 +2664,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -2689,7 +2685,7 @@
         <v>142</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>132</v>
@@ -7301,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="2">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
@@ -7342,9 +7338,7 @@
       <c r="K123" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="L123" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -7406,7 +7400,7 @@
         <v>3</v>
       </c>
       <c r="G125" s="4">
-        <v>3.5666000000000002</v>
+        <v>5.3666</v>
       </c>
       <c r="H125" s="4">
         <v>0.63339999999999996</v>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706485D-A129-4F42-9201-32D9EA44F865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69383813-44A3-493D-A4BD-331ECCE86493}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="333">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1371,6 +1371,14 @@
 6：相机
 7：旋转单位
 8：技能主目标挂特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk1_shifa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_act_effect_julong_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2234,8 +2242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC240" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC240" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC241" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC241" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="25"/>
@@ -2532,13 +2540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L123" sqref="L123"/>
+      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8036,18 +8044,22 @@
         <v>2</v>
       </c>
       <c r="F142" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
       </c>
-      <c r="H142" s="2"/>
+      <c r="H142" s="2">
+        <v>0.433</v>
+      </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L142" s="2"/>
+      <c r="L142" s="2">
+        <v>1</v>
+      </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -8151,13 +8163,15 @@
         <v>2</v>
       </c>
       <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
         <v>1.333</v>
       </c>
-      <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="1" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -8181,16 +8195,17 @@
         <v>3</v>
       </c>
       <c r="F146" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G146" s="2">
         <v>1.333</v>
       </c>
       <c r="H146" s="2"/>
-      <c r="I146" s="2">
-        <v>1</v>
-      </c>
+      <c r="I146" s="2"/>
       <c r="J146" s="2"/>
+      <c r="K146" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -8202,42 +8217,27 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
-      <c r="W146" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X146" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y146" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA146" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W146" s="2"/>
     </row>
     <row r="147" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C147" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>4002</v>
+      </c>
+      <c r="D147" s="2"/>
       <c r="E147" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F147" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G147" s="2">
-        <v>0</v>
-      </c>
-      <c r="H147" s="2">
-        <v>1.167</v>
-      </c>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>1.333</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2">
+        <v>1</v>
+      </c>
+      <c r="J147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -8249,27 +8249,41 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
+      <c r="W147" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X147" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y147" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA147" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="148" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C148" s="2">
         <v>5001</v>
       </c>
-      <c r="D148" s="2"/>
+      <c r="D148" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E148" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H148" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H148" s="2">
+        <v>1.167</v>
+      </c>
       <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="1" t="s">
-        <v>113</v>
+      <c r="J148" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -8290,19 +8304,20 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F149" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G149" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H149" s="2"/>
-      <c r="I149" s="2">
-        <v>1</v>
-      </c>
+      <c r="I149" s="2"/>
       <c r="J149" s="2"/>
+      <c r="K149" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -8314,42 +8329,27 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
-      <c r="W149" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X149" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y149" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA149" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W149" s="2"/>
     </row>
     <row r="150" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C150" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>5001</v>
+      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F150" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G150" s="2">
-        <v>0</v>
-      </c>
-      <c r="H150" s="2">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2">
+        <v>1</v>
+      </c>
+      <c r="J150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -8361,27 +8361,41 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
+      <c r="W150" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA150" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="151" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C151" s="2">
         <v>5002</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="E151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H151" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>2.5670000000000002</v>
+      </c>
       <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="1" t="s">
-        <v>98</v>
+      <c r="J151" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
@@ -8402,19 +8416,19 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F152" s="2">
         <v>2</v>
       </c>
       <c r="G152" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -8435,19 +8449,19 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F153" s="2">
         <v>2</v>
       </c>
       <c r="G153" s="2">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -8468,19 +8482,20 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F154" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G154" s="2">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H154" s="2"/>
-      <c r="I154" s="2">
-        <v>1</v>
-      </c>
+      <c r="I154" s="2"/>
       <c r="J154" s="2"/>
+      <c r="K154" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -8492,93 +8507,77 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
-      <c r="W154" s="2" t="s">
+      <c r="W154" s="2"/>
+    </row>
+    <row r="155" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C155" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2">
+        <v>5</v>
+      </c>
+      <c r="F155" s="2">
+        <v>3</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2">
+        <v>1</v>
+      </c>
+      <c r="J155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2"/>
+      <c r="V155" s="2"/>
+      <c r="W155" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X154" s="1" t="s">
+      <c r="X155" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y154" s="1" t="s">
+      <c r="Y155" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA154" s="1">
+      <c r="AA155" s="1">
         <v>800</v>
       </c>
-      <c r="AB154" s="1">
+      <c r="AB155" s="1">
         <v>10</v>
       </c>
-      <c r="AC154" s="1">
+      <c r="AC155" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C155" s="4">
+    <row r="156" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C156" s="4">
         <v>5002</v>
       </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4">
+      <c r="D156" s="4"/>
+      <c r="E156" s="4">
         <v>6</v>
       </c>
-      <c r="F155" s="4">
+      <c r="F156" s="4">
         <v>3</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G156" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4">
-        <v>1</v>
-      </c>
-      <c r="J155" s="4"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X155" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y155" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z155" s="5"/>
-      <c r="AA155" s="5">
-        <v>150</v>
-      </c>
-      <c r="AB155" s="5"/>
-      <c r="AC155" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C156" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2">
-        <v>7</v>
-      </c>
-      <c r="F156" s="2">
-        <v>3</v>
-      </c>
-      <c r="G156" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="H156" s="2"/>
+      <c r="H156" s="4"/>
       <c r="I156" s="4">
         <v>1</v>
       </c>
-      <c r="J156" s="2"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="5"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
@@ -8593,68 +8592,83 @@
       <c r="W156" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X156" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y156" s="1" t="s">
+      <c r="X156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y156" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5">
+        <v>150</v>
+      </c>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C157" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>5002</v>
+      </c>
+      <c r="D157" s="2"/>
       <c r="E157" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F157" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G157" s="2">
-        <v>0</v>
-      </c>
-      <c r="H157" s="2">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="4">
+        <v>1</v>
+      </c>
+      <c r="J157" s="2"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X157" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="158" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C158" s="2">
         <v>6001</v>
       </c>
-      <c r="D158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E158" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G158" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H158" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>1.4670000000000001</v>
+      </c>
       <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="1" t="s">
-        <v>98</v>
+      <c r="J158" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
@@ -8675,19 +8689,20 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F159" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159" s="2">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="H159" s="2"/>
-      <c r="I159" s="2">
-        <v>1</v>
-      </c>
+      <c r="I159" s="2"/>
       <c r="J159" s="2"/>
+      <c r="K159" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -8699,42 +8714,27 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
-      <c r="W159" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X159" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y159" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA159" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W159" s="2"/>
     </row>
     <row r="160" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C160" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>292</v>
-      </c>
+        <v>6001</v>
+      </c>
+      <c r="D160" s="2"/>
       <c r="E160" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F160" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G160" s="2">
-        <v>0</v>
-      </c>
-      <c r="H160" s="2">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2">
+        <v>1</v>
+      </c>
+      <c r="J160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -8746,27 +8746,41 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
+      <c r="W160" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA160" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="161" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C161" s="2">
         <v>6002</v>
       </c>
-      <c r="D161" s="2"/>
+      <c r="D161" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="E161" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161" s="2">
-        <v>2</v>
-      </c>
-      <c r="G161" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H161" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
+        <v>2.2669999999999999</v>
+      </c>
       <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="1" t="s">
-        <v>98</v>
+      <c r="J161" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -8782,165 +8796,163 @@
       <c r="W161" s="2"/>
     </row>
     <row r="162" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C162" s="4">
+      <c r="C162" s="2">
         <v>6002</v>
       </c>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4">
-        <v>3</v>
-      </c>
-      <c r="F162" s="4">
-        <v>3</v>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2">
+        <v>2</v>
+      </c>
+      <c r="F162" s="2">
+        <v>2</v>
       </c>
       <c r="G162" s="4">
         <v>1.1667000000000001</v>
       </c>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4">
-        <v>1</v>
-      </c>
-      <c r="J162" s="4"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-      <c r="S162" s="4"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="4" t="s">
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+    </row>
+    <row r="163" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C163" s="4">
+        <v>6002</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4">
+        <v>3</v>
+      </c>
+      <c r="F163" s="4">
+        <v>3</v>
+      </c>
+      <c r="G163" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4">
+        <v>1</v>
+      </c>
+      <c r="J163" s="4"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X162" s="5" t="s">
+      <c r="X163" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Y162" s="5" t="s">
+      <c r="Y163" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z162" s="5"/>
-      <c r="AA162" s="5">
+      <c r="Z163" s="5"/>
+      <c r="AA163" s="5">
         <v>1000</v>
       </c>
-      <c r="AB162" s="5"/>
-      <c r="AC162" s="5"/>
-    </row>
-    <row r="163" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C163" s="2">
-        <v>8002</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-      <c r="F163" s="2">
-        <v>1</v>
-      </c>
-      <c r="G163" s="2">
-        <v>0</v>
-      </c>
-      <c r="H163" s="2">
-        <v>4</v>
-      </c>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
+      <c r="AB163" s="5"/>
+      <c r="AC163" s="5"/>
     </row>
     <row r="164" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C164" s="2">
         <v>8002</v>
       </c>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4">
-        <v>2</v>
-      </c>
-      <c r="F164" s="4">
-        <v>2</v>
-      </c>
-      <c r="G164" s="4">
-        <v>0</v>
-      </c>
-      <c r="H164" s="4">
+      <c r="D164" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+      <c r="F164" s="2">
+        <v>1</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2">
         <v>4</v>
       </c>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L164" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
-      <c r="Z164" s="5"/>
-      <c r="AA164" s="5"/>
-      <c r="AB164" s="5"/>
-      <c r="AC164" s="5"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
     </row>
     <row r="165" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C165" s="2">
         <v>8002</v>
       </c>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2">
-        <v>3</v>
-      </c>
-      <c r="F165" s="2">
+      <c r="D165" s="4"/>
+      <c r="E165" s="4">
         <v>2</v>
       </c>
-      <c r="G165" s="2">
-        <v>0</v>
-      </c>
-      <c r="H165" s="2">
+      <c r="F165" s="4">
+        <v>2</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0</v>
+      </c>
+      <c r="H165" s="4">
         <v>4</v>
       </c>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
       <c r="K165" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
-      <c r="U165" s="2"/>
-      <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="5"/>
+      <c r="Y165" s="5"/>
+      <c r="Z165" s="5"/>
+      <c r="AA165" s="5"/>
+      <c r="AB165" s="5"/>
+      <c r="AC165" s="5"/>
     </row>
     <row r="166" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C166" s="2">
@@ -8948,7 +8960,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F166" s="2">
         <v>2</v>
@@ -8962,7 +8974,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
@@ -8983,7 +8995,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F167" s="2">
         <v>2</v>
@@ -8997,7 +9009,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="1" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
@@ -9018,21 +9030,22 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F168" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G168" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H168" s="2">
-        <v>2</v>
-      </c>
-      <c r="I168" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I168" s="2"/>
       <c r="J168" s="2"/>
+      <c r="K168" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -9044,18 +9057,7 @@
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
-      <c r="W168" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X168" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y168" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA168" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W168" s="2"/>
     </row>
     <row r="169" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C169" s="2">
@@ -9063,18 +9065,20 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F169" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G169" s="2">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H169" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I169" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="I169" s="2">
+        <v>1</v>
+      </c>
       <c r="J169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
@@ -9082,18 +9086,23 @@
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
-      <c r="R169" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="S169" s="2">
-        <v>0</v>
-      </c>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
       <c r="T169" s="2"/>
-      <c r="U169" s="2">
-        <v>0</v>
-      </c>
+      <c r="U169" s="2"/>
       <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
+      <c r="W169" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y169" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA169" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="170" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C170" s="2">
@@ -9101,16 +9110,16 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F170" s="2">
         <v>6</v>
       </c>
       <c r="G170" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H170" s="2">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
@@ -9121,7 +9130,7 @@
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S170" s="2">
         <v>0</v>
@@ -9139,16 +9148,16 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F171" s="2">
         <v>6</v>
       </c>
       <c r="G171" s="2">
-        <v>2.6</v>
+        <v>0.03</v>
       </c>
       <c r="H171" s="2">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -9159,51 +9168,53 @@
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="S171" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T171" s="2"/>
       <c r="U171" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
     <row r="172" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C172" s="2">
-        <v>8003</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>8002</v>
+      </c>
+      <c r="D172" s="2"/>
       <c r="E172" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F172" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G172" s="2">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H172" s="2">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="I172" s="2"/>
-      <c r="J172" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="J172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
+      <c r="R172" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S172" s="2">
+        <v>1</v>
+      </c>
       <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
+      <c r="U172" s="2">
+        <v>1</v>
+      </c>
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
@@ -9211,27 +9222,26 @@
       <c r="C173" s="2">
         <v>8003</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="E173" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G173" s="2">
         <v>0</v>
       </c>
       <c r="H173" s="2">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L173" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="J173" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -9250,7 +9260,7 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F174" s="2">
         <v>2</v>
@@ -9259,14 +9269,16 @@
         <v>0</v>
       </c>
       <c r="H174" s="2">
-        <v>1.833</v>
+        <v>1.9</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L174" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -9285,21 +9297,22 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F175" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G175" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H175" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I175" s="2">
-        <v>1</v>
-      </c>
+        <v>1.833</v>
+      </c>
+      <c r="I175" s="2"/>
       <c r="J175" s="2"/>
+      <c r="K175" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -9312,15 +9325,6 @@
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
-      <c r="X175" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y175" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA175" s="1">
-        <v>1000</v>
-      </c>
     </row>
     <row r="176" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C176" s="2">
@@ -9328,18 +9332,20 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F176" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G176" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H176" s="2">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="I176" s="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I176" s="2">
+        <v>1</v>
+      </c>
       <c r="J176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -9347,18 +9353,21 @@
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
-      <c r="R176" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="S176" s="2">
-        <v>0</v>
-      </c>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
       <c r="T176" s="2"/>
-      <c r="U176" s="2">
-        <v>0</v>
-      </c>
+      <c r="U176" s="2"/>
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
+      <c r="X176" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA176" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="177" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C177" s="2">
@@ -9366,16 +9375,16 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F177" s="2">
         <v>6</v>
       </c>
       <c r="G177" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H177" s="2">
-        <v>2.766</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -9386,7 +9395,7 @@
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
       <c r="R177" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S177" s="2">
         <v>0</v>
@@ -9400,37 +9409,39 @@
     </row>
     <row r="178" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C178" s="2">
-        <v>8005</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>8003</v>
+      </c>
+      <c r="D178" s="2"/>
       <c r="E178" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F178" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G178" s="2">
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H178" s="2">
-        <v>4</v>
+        <v>2.766</v>
       </c>
       <c r="I178" s="2"/>
-      <c r="J178" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="J178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
+      <c r="R178" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S178" s="2">
+        <v>0</v>
+      </c>
       <c r="T178" s="2"/>
-      <c r="U178" s="2"/>
+      <c r="U178" s="2">
+        <v>0</v>
+      </c>
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
@@ -9438,12 +9449,14 @@
       <c r="C179" s="2">
         <v>8005</v>
       </c>
-      <c r="D179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="E179" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G179" s="2">
         <v>0</v>
@@ -9452,13 +9465,10 @@
         <v>4</v>
       </c>
       <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L179" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="J179" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -9477,7 +9487,7 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F180" s="2">
         <v>2</v>
@@ -9491,9 +9501,11 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L180" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -9512,7 +9524,7 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F181" s="2">
         <v>2</v>
@@ -9526,7 +9538,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
@@ -9547,7 +9559,7 @@
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F182" s="2">
         <v>2</v>
@@ -9561,7 +9573,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -9582,21 +9594,22 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F183" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H183" s="2">
-        <v>2</v>
-      </c>
-      <c r="I183" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I183" s="2"/>
       <c r="J183" s="2"/>
+      <c r="K183" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -9608,18 +9621,7 @@
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
-      <c r="W183" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X183" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y183" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA183" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W183" s="2"/>
     </row>
     <row r="184" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C184" s="2">
@@ -9627,18 +9629,20 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F184" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G184" s="2">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H184" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I184" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="I184" s="2">
+        <v>1</v>
+      </c>
       <c r="J184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
@@ -9646,18 +9650,23 @@
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
-      <c r="R184" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S184" s="2">
-        <v>0</v>
-      </c>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
       <c r="T184" s="2"/>
-      <c r="U184" s="2">
-        <v>0</v>
-      </c>
+      <c r="U184" s="2"/>
       <c r="V184" s="2"/>
-      <c r="W184" s="2"/>
+      <c r="W184" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X184" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA184" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="185" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C185" s="2">
@@ -9665,16 +9674,16 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F185" s="2">
         <v>6</v>
       </c>
       <c r="G185" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H185" s="2">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
@@ -9685,7 +9694,7 @@
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
       <c r="R185" s="2" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="S185" s="2">
         <v>0</v>
@@ -9703,16 +9712,16 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F186" s="2">
         <v>6</v>
       </c>
       <c r="G186" s="2">
-        <v>2.6</v>
+        <v>0.03</v>
       </c>
       <c r="H186" s="2">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -9723,51 +9732,53 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
       <c r="R186" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="S186" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T186" s="2"/>
       <c r="U186" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
     <row r="187" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C187" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>8005</v>
+      </c>
+      <c r="D187" s="2"/>
       <c r="E187" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F187" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G187" s="2">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H187" s="2">
-        <v>5.6333000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="I187" s="2"/>
-      <c r="J187" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="J187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
+      <c r="R187" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="S187" s="2">
+        <v>1</v>
+      </c>
       <c r="T187" s="2"/>
-      <c r="U187" s="2"/>
+      <c r="U187" s="2">
+        <v>1</v>
+      </c>
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
@@ -9775,39 +9786,35 @@
       <c r="C188" s="2">
         <v>8004</v>
       </c>
-      <c r="D188" s="2"/>
+      <c r="D188" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="E188" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G188" s="2">
         <v>0</v>
       </c>
       <c r="H188" s="2">
-        <v>5.2332999999999998</v>
+        <v>5.6333000000000002</v>
       </c>
       <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
+      <c r="J188" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
-      <c r="R188" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S188" s="2">
-        <v>0</v>
-      </c>
-      <c r="T188" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="U188" s="2">
-        <v>0</v>
-      </c>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="2"/>
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
@@ -9815,30 +9822,29 @@
       <c r="C189" s="2">
         <v>8004</v>
       </c>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4">
-        <v>3</v>
-      </c>
-      <c r="F189" s="4">
+      <c r="D189" s="2"/>
+      <c r="E189" s="2">
+        <v>2</v>
+      </c>
+      <c r="F189" s="2">
         <v>6</v>
       </c>
-      <c r="G189" s="4">
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2">
         <v>5.2332999999999998</v>
       </c>
-      <c r="H189" s="4">
-        <v>3.5666000000000002</v>
-      </c>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="4"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
-      <c r="Q189" s="4"/>
-      <c r="R189" s="4" t="s">
-        <v>213</v>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="S189" s="2">
         <v>0</v>
@@ -9849,49 +9855,55 @@
       <c r="U189" s="2">
         <v>0</v>
       </c>
-      <c r="V189" s="4"/>
-      <c r="W189" s="4"/>
-      <c r="X189" s="5"/>
-      <c r="Y189" s="5"/>
-      <c r="Z189" s="5"/>
-      <c r="AA189" s="5"/>
-      <c r="AB189" s="5"/>
-      <c r="AC189" s="5"/>
+      <c r="V189" s="2"/>
+      <c r="W189" s="2"/>
     </row>
     <row r="190" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C190" s="2">
         <v>8004</v>
       </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2">
-        <v>4</v>
-      </c>
-      <c r="F190" s="2">
-        <v>2</v>
-      </c>
-      <c r="G190" s="2">
-        <v>0</v>
-      </c>
-      <c r="H190" s="2">
-        <v>10.833</v>
-      </c>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
-      <c r="K190" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2"/>
-      <c r="V190" s="2"/>
-      <c r="W190" s="2"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4">
+        <v>3</v>
+      </c>
+      <c r="F190" s="4">
+        <v>6</v>
+      </c>
+      <c r="G190" s="4">
+        <v>5.2332999999999998</v>
+      </c>
+      <c r="H190" s="4">
+        <v>3.5666000000000002</v>
+      </c>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="S190" s="2">
+        <v>0</v>
+      </c>
+      <c r="T190" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="U190" s="2">
+        <v>0</v>
+      </c>
+      <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="5"/>
+      <c r="Y190" s="5"/>
+      <c r="Z190" s="5"/>
+      <c r="AA190" s="5"/>
+      <c r="AB190" s="5"/>
+      <c r="AC190" s="5"/>
     </row>
     <row r="191" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C191" s="2">
@@ -9899,21 +9911,21 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F191" s="2">
         <v>2</v>
       </c>
       <c r="G191" s="2">
-        <v>5.1665999999999999</v>
+        <v>0</v>
       </c>
       <c r="H191" s="2">
-        <v>5</v>
+        <v>10.833</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
@@ -9934,21 +9946,21 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F192" s="2">
         <v>2</v>
       </c>
       <c r="G192" s="2">
-        <v>5.3666</v>
+        <v>5.1665999999999999</v>
       </c>
       <c r="H192" s="2">
-        <v>1.6659999999999999</v>
+        <v>5</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
@@ -9969,7 +9981,7 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F193" s="2">
         <v>2</v>
@@ -9978,12 +9990,12 @@
         <v>5.3666</v>
       </c>
       <c r="H193" s="2">
-        <v>5</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
@@ -10004,19 +10016,22 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F194" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194" s="2">
-        <v>5.3666999999999998</v>
+        <v>5.3666</v>
       </c>
       <c r="H194" s="2">
-        <v>0.1333000000000002</v>
+        <v>5</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
+      <c r="K194" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -10028,9 +10043,7 @@
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
-      <c r="W194" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="W194" s="2"/>
     </row>
     <row r="195" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C195" s="2">
@@ -10038,16 +10051,16 @@
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
       </c>
       <c r="G195" s="2">
-        <v>5.5</v>
+        <v>5.3666999999999998</v>
       </c>
       <c r="H195" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.1333000000000002</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -10063,7 +10076,7 @@
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
       <c r="W195" s="2" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="3:29" x14ac:dyDescent="0.2">
@@ -10072,16 +10085,16 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
       </c>
       <c r="G196" s="2">
-        <v>5.6669999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="H196" s="2">
-        <v>1.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -10097,31 +10110,27 @@
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
       <c r="W196" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C197" s="2">
         <v>8004</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="D197" s="2"/>
       <c r="E197" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F197" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G197" s="2">
-        <v>6.867</v>
+        <v>5.6669999999999998</v>
       </c>
       <c r="H197" s="2">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I197" s="2">
-        <v>1</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
@@ -10135,93 +10144,95 @@
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
       <c r="W197" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y197" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA197" s="1">
-        <v>1000</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C198" s="2">
         <v>8004</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E198" s="4">
-        <v>12</v>
-      </c>
-      <c r="F198" s="4">
-        <v>1</v>
+      <c r="D198" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E198" s="2">
+        <v>11</v>
+      </c>
+      <c r="F198" s="2">
+        <v>3</v>
       </c>
       <c r="G198" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="H198" s="4">
-        <v>2</v>
-      </c>
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
-      <c r="R198" s="4"/>
-      <c r="S198" s="4"/>
-      <c r="T198" s="4"/>
-      <c r="U198" s="4"/>
-      <c r="V198" s="4"/>
+        <v>6.867</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="I198" s="2">
+        <v>1</v>
+      </c>
+      <c r="J198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+      <c r="V198" s="2"/>
       <c r="W198" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="X198" s="5"/>
-      <c r="Y198" s="5"/>
-      <c r="Z198" s="5"/>
-      <c r="AA198" s="5"/>
-      <c r="AB198" s="5"/>
-      <c r="AC198" s="5"/>
+      <c r="Y198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA198" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="199" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C199" s="2">
         <v>8004</v>
       </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2">
-        <v>13</v>
-      </c>
-      <c r="F199" s="2">
-        <v>7</v>
+      <c r="D199" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E199" s="4">
+        <v>12</v>
+      </c>
+      <c r="F199" s="4">
+        <v>1</v>
       </c>
       <c r="G199" s="2">
-        <v>0</v>
-      </c>
-      <c r="H199" s="2">
-        <v>12</v>
-      </c>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q199" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
-      <c r="V199" s="2"/>
-      <c r="W199" s="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="H199" s="4">
+        <v>2</v>
+      </c>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="4"/>
+      <c r="W199" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="X199" s="5"/>
+      <c r="Y199" s="5"/>
+      <c r="Z199" s="5"/>
+      <c r="AA199" s="5"/>
+      <c r="AB199" s="5"/>
+      <c r="AC199" s="5"/>
     </row>
     <row r="200" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C200" s="2">
@@ -10229,7 +10240,7 @@
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F200" s="2">
         <v>7</v>
@@ -10247,10 +10258,10 @@
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q200" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
@@ -10265,7 +10276,7 @@
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F201" s="2">
         <v>7</v>
@@ -10283,10 +10294,10 @@
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q201" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
@@ -10301,7 +10312,7 @@
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F202" s="2">
         <v>7</v>
@@ -10312,31 +10323,24 @@
       <c r="H202" s="2">
         <v>12</v>
       </c>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="5"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4">
-        <v>4</v>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2">
+        <v>3</v>
       </c>
       <c r="Q202" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="R202" s="4"/>
-      <c r="S202" s="4"/>
-      <c r="T202" s="4"/>
-      <c r="U202" s="4"/>
-      <c r="V202" s="4"/>
-      <c r="W202" s="4"/>
-      <c r="X202" s="5"/>
-      <c r="Y202" s="5"/>
-      <c r="Z202" s="5"/>
-      <c r="AA202" s="5"/>
-      <c r="AB202" s="5"/>
-      <c r="AC202" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+      <c r="V202" s="2"/>
+      <c r="W202" s="2"/>
     </row>
     <row r="203" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C203" s="2">
@@ -10344,7 +10348,7 @@
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F203" s="2">
         <v>7</v>
@@ -10355,24 +10359,31 @@
       <c r="H203" s="2">
         <v>12</v>
       </c>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2">
-        <v>5</v>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4">
+        <v>4</v>
       </c>
       <c r="Q203" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
-      <c r="W203" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+      <c r="X203" s="5"/>
+      <c r="Y203" s="5"/>
+      <c r="Z203" s="5"/>
+      <c r="AA203" s="5"/>
+      <c r="AB203" s="5"/>
+      <c r="AC203" s="5"/>
     </row>
     <row r="204" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C204" s="2">
@@ -10380,7 +10391,7 @@
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F204" s="2">
         <v>7</v>
@@ -10398,10 +10409,10 @@
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
       <c r="P204" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q204" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R204" s="2"/>
       <c r="S204" s="2"/>
@@ -10416,29 +10427,29 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F205" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G205" s="2">
         <v>0</v>
       </c>
       <c r="H205" s="2">
-        <v>5.4666666666666668</v>
+        <v>12</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
-      <c r="N205" s="2">
-        <v>1</v>
-      </c>
-      <c r="O205" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="24"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q205" s="24" t="s">
+        <v>226</v>
+      </c>
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
@@ -10452,7 +10463,7 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F206" s="2">
         <v>5</v>
@@ -10468,10 +10479,10 @@
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O206" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" s="24"/>
@@ -10488,7 +10499,7 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F207" s="2">
         <v>5</v>
@@ -10504,10 +10515,10 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O207" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" s="24"/>
@@ -10522,9 +10533,9 @@
       <c r="C208" s="2">
         <v>8004</v>
       </c>
-      <c r="D208" s="4"/>
+      <c r="D208" s="2"/>
       <c r="E208" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F208" s="2">
         <v>5</v>
@@ -10535,39 +10546,32 @@
       <c r="H208" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4">
-        <v>4</v>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2">
+        <v>3</v>
       </c>
       <c r="O208" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="P208" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="P208" s="2"/>
       <c r="Q208" s="24"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-      <c r="V208" s="4"/>
-      <c r="W208" s="4"/>
-      <c r="X208" s="5"/>
-      <c r="Y208" s="5"/>
-      <c r="Z208" s="5"/>
-      <c r="AA208" s="5"/>
-      <c r="AB208" s="5"/>
-      <c r="AC208" s="5"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
     </row>
     <row r="209" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C209" s="2">
         <v>8004</v>
       </c>
-      <c r="D209" s="2"/>
+      <c r="D209" s="4"/>
       <c r="E209" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F209" s="2">
         <v>5</v>
@@ -10578,24 +10582,31 @@
       <c r="H209" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2">
-        <v>5</v>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4">
+        <v>4</v>
       </c>
       <c r="O209" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="P209" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="P209" s="4"/>
       <c r="Q209" s="24"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+      <c r="W209" s="4"/>
+      <c r="X209" s="5"/>
+      <c r="Y209" s="5"/>
+      <c r="Z209" s="5"/>
+      <c r="AA209" s="5"/>
+      <c r="AB209" s="5"/>
+      <c r="AC209" s="5"/>
     </row>
     <row r="210" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C210" s="2">
@@ -10603,7 +10614,7 @@
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F210" s="2">
         <v>5</v>
@@ -10619,10 +10630,10 @@
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O210" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" s="24"/>
@@ -10639,30 +10650,29 @@
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F211" s="2">
         <v>5</v>
       </c>
       <c r="G211" s="2">
+        <v>0</v>
+      </c>
+      <c r="H211" s="2">
         <v>5.4666666666666668</v>
-      </c>
-      <c r="H211" s="2">
-        <f>171/30</f>
-        <v>5.7</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O211" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
+      <c r="Q211" s="24"/>
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
@@ -10676,7 +10686,7 @@
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F212" s="2">
         <v>5</v>
@@ -10685,7 +10695,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H212" s="2">
-        <f t="shared" ref="H212:H216" si="0">171/30</f>
+        <f>171/30</f>
         <v>5.7</v>
       </c>
       <c r="I212" s="2"/>
@@ -10693,10 +10703,10 @@
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O212" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P212" s="2"/>
       <c r="Q212" s="2"/>
@@ -10713,7 +10723,7 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F213" s="2">
         <v>5</v>
@@ -10722,7 +10732,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H213" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H213:H217" si="0">171/30</f>
         <v>5.7</v>
       </c>
       <c r="I213" s="2"/>
@@ -10730,10 +10740,10 @@
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O213" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
@@ -10750,7 +10760,7 @@
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F214" s="2">
         <v>5</v>
@@ -10767,10 +10777,10 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O214" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
@@ -10787,7 +10797,7 @@
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F215" s="2">
         <v>5</v>
@@ -10804,10 +10814,10 @@
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O215" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
@@ -10824,7 +10834,7 @@
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F216" s="2">
         <v>5</v>
@@ -10841,10 +10851,10 @@
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O216" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
@@ -10859,80 +10869,81 @@
       <c r="C217" s="2">
         <v>8004</v>
       </c>
-      <c r="D217" s="4"/>
+      <c r="D217" s="2"/>
       <c r="E217" s="2">
-        <v>31</v>
-      </c>
-      <c r="F217" s="4">
+        <v>30</v>
+      </c>
+      <c r="F217" s="2">
         <v>5</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H217" s="2">
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="H217" s="4">
-        <v>12</v>
-      </c>
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
-      <c r="K217" s="5"/>
-      <c r="L217" s="4"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="4">
-        <v>1</v>
-      </c>
-      <c r="O217" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="P217" s="4"/>
-      <c r="Q217" s="4"/>
-      <c r="R217" s="4"/>
-      <c r="S217" s="4"/>
-      <c r="T217" s="4"/>
-      <c r="U217" s="4"/>
-      <c r="V217" s="4"/>
-      <c r="W217" s="4"/>
-      <c r="X217" s="5"/>
-      <c r="Y217" s="5"/>
-      <c r="Z217" s="5"/>
-      <c r="AA217" s="5"/>
-      <c r="AB217" s="5"/>
-      <c r="AC217" s="5"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2">
+        <v>6</v>
+      </c>
+      <c r="O217" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2"/>
+      <c r="V217" s="2"/>
+      <c r="W217" s="2"/>
     </row>
     <row r="218" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C218" s="2">
         <v>8004</v>
       </c>
-      <c r="D218" s="2"/>
+      <c r="D218" s="4"/>
       <c r="E218" s="2">
-        <v>32</v>
-      </c>
-      <c r="F218" s="2">
+        <v>31</v>
+      </c>
+      <c r="F218" s="4">
         <v>5</v>
       </c>
-      <c r="G218" s="2">
+      <c r="G218" s="4">
         <v>5.7</v>
       </c>
       <c r="H218" s="4">
         <v>12</v>
       </c>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2">
-        <v>2</v>
-      </c>
-      <c r="O218" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
-      <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4">
+        <v>1</v>
+      </c>
+      <c r="O218" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="5"/>
+      <c r="Y218" s="5"/>
+      <c r="Z218" s="5"/>
+      <c r="AA218" s="5"/>
+      <c r="AB218" s="5"/>
+      <c r="AC218" s="5"/>
     </row>
     <row r="219" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C219" s="2">
@@ -10940,7 +10951,7 @@
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F219" s="2">
         <v>5</v>
@@ -10956,10 +10967,10 @@
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P219" s="2"/>
       <c r="Q219" s="2"/>
@@ -10976,7 +10987,7 @@
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F220" s="2">
         <v>5</v>
@@ -10992,10 +11003,10 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
@@ -11012,7 +11023,7 @@
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F221" s="2">
         <v>5</v>
@@ -11028,10 +11039,10 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
@@ -11048,7 +11059,7 @@
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F222" s="2">
         <v>5</v>
@@ -11064,10 +11075,10 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
@@ -11080,29 +11091,31 @@
     </row>
     <row r="223" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C223" s="2">
-        <v>9002</v>
+        <v>8004</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F223" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G223" s="2">
-        <v>0</v>
-      </c>
-      <c r="H223" s="2">
-        <v>2.5</v>
+        <v>5.7</v>
+      </c>
+      <c r="H223" s="4">
+        <v>12</v>
       </c>
       <c r="I223" s="2"/>
-      <c r="J223" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="J223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
+      <c r="N223" s="2">
+        <v>6</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
@@ -11118,21 +11131,21 @@
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G224" s="2">
-        <v>1.6667000000000001</v>
+        <v>0</v>
       </c>
       <c r="H224" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I224" s="2">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
@@ -11144,27 +11157,28 @@
       <c r="T224" s="2"/>
       <c r="U224" s="2"/>
       <c r="V224" s="2"/>
-      <c r="W224" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X224" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y224" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA224" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="225" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C225" s="2"/>
+      <c r="W224" s="2"/>
+    </row>
+    <row r="225" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C225" s="2">
+        <v>9002</v>
+      </c>
       <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
+      <c r="E225" s="2">
+        <v>2</v>
+      </c>
+      <c r="F225" s="2">
+        <v>3</v>
+      </c>
+      <c r="G225" s="2">
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="H225" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I225" s="2">
+        <v>1</v>
+      </c>
       <c r="J225" s="2"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
@@ -11177,9 +11191,20 @@
       <c r="T225" s="2"/>
       <c r="U225" s="2"/>
       <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-    </row>
-    <row r="226" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="W225" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X225" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y225" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA225" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -11201,7 +11226,7 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -11223,7 +11248,7 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -11245,7 +11270,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -11267,7 +11292,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -11289,7 +11314,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -11311,7 +11336,7 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -11333,7 +11358,7 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -11355,7 +11380,7 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -11377,7 +11402,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -11399,7 +11424,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -11421,7 +11446,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -11443,7 +11468,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -11465,7 +11490,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -11487,34 +11512,56 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-      <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
-      <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
-      <c r="K240" s="5"/>
-      <c r="L240" s="4"/>
-      <c r="M240" s="4"/>
-      <c r="N240" s="4"/>
-      <c r="O240" s="4"/>
-      <c r="P240" s="4"/>
-      <c r="Q240" s="4"/>
-      <c r="R240" s="4"/>
-      <c r="S240" s="4"/>
-      <c r="T240" s="4"/>
-      <c r="U240" s="4"/>
-      <c r="V240" s="4"/>
-      <c r="W240" s="4"/>
-      <c r="X240" s="5"/>
-      <c r="Y240" s="5"/>
-      <c r="Z240" s="5"/>
-      <c r="AA240" s="5"/>
-      <c r="AB240" s="5"/>
-      <c r="AC240" s="5"/>
+    <row r="240" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2"/>
+      <c r="V240" s="2"/>
+      <c r="W240" s="2"/>
+    </row>
+    <row r="241" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="4"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="4"/>
+      <c r="O241" s="4"/>
+      <c r="P241" s="4"/>
+      <c r="Q241" s="4"/>
+      <c r="R241" s="4"/>
+      <c r="S241" s="4"/>
+      <c r="T241" s="4"/>
+      <c r="U241" s="4"/>
+      <c r="V241" s="4"/>
+      <c r="W241" s="4"/>
+      <c r="X241" s="5"/>
+      <c r="Y241" s="5"/>
+      <c r="Z241" s="5"/>
+      <c r="AA241" s="5"/>
+      <c r="AB241" s="5"/>
+      <c r="AC241" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69383813-44A3-493D-A4BD-331ECCE86493}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01DBEEA-0DC8-496B-A606-044E690B630A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="329">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,34 +1102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CM_vcam01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CM vcam3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1285,14 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bak1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>black_whole_xuli</t>
   </si>
   <si>
@@ -1301,9 +1265,6 @@
   <si>
     <t>梅林-临时奥义</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛基-技能1</t>
   </si>
   <si>
     <t>Fx_luoji_skill_gua</t>
@@ -1374,11 +1335,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_luoji_atk1_shifa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fx_act_effect_julong_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fazhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_act_effect_julong_01</t>
+  </si>
+  <si>
+    <t>洛基-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM vcam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM vcam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,15 +1416,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1609,7 +1584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1684,9 +1659,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2242,8 +2214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC241" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC241" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC242" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC242" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="25"/>
@@ -2540,13 +2512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC241"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="Q118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
+      <selection pane="bottomRight" activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2598,8 +2570,8 @@
       <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>294</v>
+      <c r="I1" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>16</v>
@@ -2672,7 +2644,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -2680,8 +2652,8 @@
       <c r="H2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>288</v>
+      <c r="I2" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>144</v>
@@ -2693,7 +2665,7 @@
         <v>142</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>132</v>
@@ -2764,7 +2736,7 @@
       <c r="H3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -2848,7 +2820,7 @@
       <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -2922,7 +2894,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="30"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2964,7 +2936,7 @@
       <c r="H6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -3136,7 +3108,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -3152,7 +3124,7 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3197,7 +3169,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="Y11" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AA11" s="1">
         <v>1000</v>
@@ -3224,7 +3196,7 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -3259,7 +3231,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -3351,7 +3323,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="Y15" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AA15" s="1">
         <v>1000</v>
@@ -3361,8 +3333,8 @@
       <c r="C16" s="2">
         <v>1005</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>298</v>
+      <c r="D16" s="30" t="s">
+        <v>291</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -3413,7 +3385,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3509,7 +3481,7 @@
         <v>69</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>70</v>
@@ -3554,7 +3526,7 @@
         <v>69</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>70</v>
@@ -3599,7 +3571,7 @@
         <v>69</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>70</v>
@@ -3634,14 +3606,14 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="S22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -3672,14 +3644,14 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="S23" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -4681,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>0.5</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -4692,7 +4664,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -4716,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="G53" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H53" s="2">
-        <v>0.76600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -4730,7 +4702,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -4754,10 +4726,10 @@
         <v>6</v>
       </c>
       <c r="G54" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H54" s="2">
-        <v>2.0630000000000002</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -4768,14 +4740,14 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="S54" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
@@ -4801,7 +4773,7 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Y55" s="2"/>
     </row>
@@ -4825,7 +4797,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="15" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4862,7 +4834,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4898,7 +4870,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="15" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -4934,7 +4906,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
@@ -4975,7 +4947,7 @@
         <v>23</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y60" s="2" t="s">
         <v>50</v>
@@ -5009,7 +4981,7 @@
         <v>23</v>
       </c>
       <c r="X61" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y61" s="5" t="s">
         <v>50</v>
@@ -5042,8 +5014,8 @@
       <c r="W62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X62" s="27" t="s">
-        <v>279</v>
+      <c r="X62" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="Y62" s="5" t="s">
         <v>50</v>
@@ -5089,7 +5061,7 @@
         <v>23</v>
       </c>
       <c r="X63" s="15" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Y63" s="5" t="s">
         <v>50</v>
@@ -5113,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.4</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -5124,7 +5096,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="S64" s="2">
         <v>0</v>
@@ -5148,10 +5120,10 @@
         <v>6</v>
       </c>
       <c r="G65" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H65" s="2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -5165,11 +5137,11 @@
         <v>181</v>
       </c>
       <c r="S65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
@@ -5179,7 +5151,7 @@
         <v>2005</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -5195,7 +5167,7 @@
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -5230,7 +5202,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -5265,7 +5237,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -5300,7 +5272,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -5335,7 +5307,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -5386,7 +5358,7 @@
         <v>69</v>
       </c>
       <c r="X71" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y71" s="1" t="s">
         <v>70</v>
@@ -5431,7 +5403,7 @@
         <v>69</v>
       </c>
       <c r="X72" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y72" s="1" t="s">
         <v>70</v>
@@ -5476,7 +5448,7 @@
         <v>69</v>
       </c>
       <c r="X73" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y73" s="1" t="s">
         <v>70</v>
@@ -5521,7 +5493,7 @@
         <v>69</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Y74" s="1" t="s">
         <v>70</v>
@@ -5545,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>0.4</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -5556,7 +5528,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="S75" s="2">
         <v>0</v>
@@ -5580,10 +5552,10 @@
         <v>6</v>
       </c>
       <c r="G76" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H76" s="2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -5594,14 +5566,14 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="S76" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
@@ -6629,7 +6601,7 @@
         <v>3002</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E105" s="2">
         <v>1</v>
@@ -7037,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <v>0.48330000000000001</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -7048,7 +7020,7 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="2" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="S115" s="2">
         <v>0</v>
@@ -7072,10 +7044,10 @@
         <v>6</v>
       </c>
       <c r="G116" s="2">
-        <v>6.6600000000000006E-2</v>
+        <v>2.1</v>
       </c>
       <c r="H116" s="2">
-        <v>0.7</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -7086,148 +7058,142 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="S116" s="26">
-        <v>0</v>
+        <v>328</v>
+      </c>
+      <c r="S116" s="25">
+        <v>9</v>
       </c>
       <c r="T116" s="2"/>
       <c r="U116" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
     <row r="117" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C117" s="2">
-        <v>3002</v>
-      </c>
-      <c r="D117" s="2"/>
+        <v>3003</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E117" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
         <v>6</v>
       </c>
-      <c r="G117" s="2">
-        <v>0.5333</v>
-      </c>
-      <c r="H117" s="2">
-        <v>0.58333000000000002</v>
-      </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
-      <c r="R117" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="S117" s="26">
-        <v>0</v>
-      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
       <c r="T117" s="2"/>
-      <c r="U117" s="2">
-        <v>0</v>
-      </c>
+      <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
     <row r="118" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C118" s="2">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F118" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G118" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H118" s="25">
-        <v>0.5</v>
+        <v>1.2665999999999999</v>
+      </c>
+      <c r="H118" s="2">
+        <v>2.0666000000000002</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
+      <c r="K118" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
-      <c r="R118" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="S118" s="26">
-        <v>0</v>
-      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
       <c r="T118" s="2"/>
-      <c r="U118" s="2">
-        <v>0</v>
-      </c>
+      <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
     <row r="119" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C119" s="2">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F119" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G119" s="2">
-        <v>1</v>
+        <v>2.3666</v>
       </c>
       <c r="H119" s="2">
-        <v>1.1666000000000001</v>
+        <v>3.5666000000000002</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
+      <c r="K119" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
-      <c r="R119" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="S119" s="26">
-        <v>0</v>
-      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
       <c r="T119" s="2"/>
-      <c r="U119" s="2">
-        <v>0</v>
-      </c>
+      <c r="U119" s="2"/>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
+      <c r="Y119" s="5"/>
+      <c r="AA119" s="5"/>
     </row>
     <row r="120" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C120" s="2">
-        <v>3002</v>
+      <c r="C120" s="4">
+        <v>3003</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F120" s="2">
-        <v>6</v>
-      </c>
-      <c r="G120" s="2">
-        <v>1.6</v>
+        <v>3</v>
+      </c>
+      <c r="G120" s="4">
+        <v>4.0332999999999997</v>
       </c>
       <c r="H120" s="2">
-        <v>1.7</v>
+        <v>0.76659999999999995</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -7237,149 +7203,161 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
-      <c r="R120" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="S120" s="26">
-        <v>0</v>
-      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
       <c r="T120" s="2"/>
-      <c r="U120" s="2">
-        <v>0</v>
-      </c>
+      <c r="U120" s="2"/>
       <c r="V120" s="2"/>
-      <c r="W120" s="2"/>
+      <c r="W120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y120" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="121" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C121" s="2">
-        <v>3002</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2">
-        <v>17</v>
-      </c>
-      <c r="F121" s="2">
+      <c r="C121" s="4">
+        <v>3003</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4">
+        <v>5</v>
+      </c>
+      <c r="F121" s="4">
+        <v>3</v>
+      </c>
+      <c r="G121" s="4">
+        <v>4.0332999999999997</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+    </row>
+    <row r="122" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C122" s="4">
+        <v>3003</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2">
         <v>6</v>
       </c>
-      <c r="G121" s="2">
-        <v>2</v>
-      </c>
-      <c r="H121" s="2">
-        <v>1.45</v>
-      </c>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S121" s="26">
-        <v>0</v>
-      </c>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2">
-        <v>0</v>
-      </c>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-    </row>
-    <row r="122" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C122" s="2">
-        <v>3003</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
       <c r="F122" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
       </c>
       <c r="H122" s="2">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="I122" s="2"/>
-      <c r="J122" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="J122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
+      <c r="R122" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
       <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
+      <c r="U122" s="2">
+        <v>0</v>
+      </c>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
     <row r="123" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C123" s="2">
+      <c r="C123" s="4">
         <v>3003</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F123" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G123" s="2">
-        <v>1.2665999999999999</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="H123" s="2">
-        <v>2.0666000000000002</v>
+        <v>8</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
+      <c r="R123" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S123" s="2">
+        <v>9</v>
+      </c>
       <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
+      <c r="U123" s="2">
+        <v>9</v>
+      </c>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
     <row r="124" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C124" s="2">
-        <v>3003</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>3004</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E124" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G124" s="2">
-        <v>2.3666</v>
+        <v>0</v>
       </c>
       <c r="H124" s="2">
-        <v>3.5666000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="15" t="s">
-        <v>328</v>
+      <c r="J124" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -7393,80 +7371,61 @@
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
-      <c r="Y124" s="5"/>
-      <c r="AA124" s="5"/>
     </row>
     <row r="125" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C125" s="4">
-        <v>3003</v>
-      </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4">
-        <v>4</v>
-      </c>
-      <c r="F125" s="4">
-        <v>3</v>
-      </c>
-      <c r="G125" s="4">
-        <v>5.3666</v>
-      </c>
-      <c r="H125" s="4">
-        <v>0.63339999999999996</v>
-      </c>
-      <c r="I125" s="4">
+      <c r="C125" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2">
+        <v>2</v>
+      </c>
+      <c r="F125" s="2">
         <v>1</v>
       </c>
-      <c r="J125" s="4"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="X125" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y125" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AB125" s="5"/>
-      <c r="AC125" s="5"/>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>5.1660000000000004</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
     </row>
     <row r="126" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C126" s="2">
         <v>3004</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" s="2">
-        <v>0</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="H126" s="2">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -7487,31 +7446,35 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F127" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G127" s="2">
         <v>0</v>
       </c>
       <c r="H127" s="2">
-        <v>5.1660000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="J127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
+      <c r="R127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S127" s="2">
+        <v>1</v>
+      </c>
       <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
+      <c r="U127" s="2">
+        <v>1</v>
+      </c>
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
@@ -7521,20 +7484,21 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="2">
-        <v>5.1669999999999998</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="H128" s="2">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="2" t="s">
-        <v>167</v>
+      <c r="J128" s="2"/>
+      <c r="K128" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -7555,35 +7519,32 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F129" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G129" s="2">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="H129" s="2">
-        <v>6.7</v>
+        <v>6.55</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
+      <c r="K129" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
-      <c r="R129" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S129" s="2">
-        <v>1</v>
-      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
       <c r="T129" s="2"/>
-      <c r="U129" s="2">
-        <v>1</v>
-      </c>
+      <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
@@ -7593,21 +7554,21 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F130" s="2">
         <v>2</v>
       </c>
       <c r="G130" s="2">
-        <v>0.16700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H130" s="2">
-        <v>6.6</v>
+        <v>6.2670000000000003</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -7628,21 +7589,21 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F131" s="2">
         <v>2</v>
       </c>
       <c r="G131" s="2">
-        <v>0.216</v>
+        <v>2.15</v>
       </c>
       <c r="H131" s="2">
-        <v>6.55</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -7663,21 +7624,21 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F132" s="2">
         <v>2</v>
       </c>
       <c r="G132" s="2">
-        <v>0.5</v>
+        <v>2.15</v>
       </c>
       <c r="H132" s="2">
-        <v>6.2670000000000003</v>
+        <v>1.583</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -7693,39 +7654,45 @@
       <c r="W132" s="2"/>
     </row>
     <row r="133" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C133" s="2">
+      <c r="C133" s="4">
         <v>3004</v>
       </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2">
-        <v>8</v>
-      </c>
-      <c r="F133" s="2">
+      <c r="D133" s="4"/>
+      <c r="E133" s="4">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4">
         <v>2</v>
       </c>
-      <c r="G133" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="H133" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
+      <c r="G133" s="4">
+        <v>4.383</v>
+      </c>
+      <c r="H133" s="4">
+        <v>2.383</v>
+      </c>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
     </row>
     <row r="134" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C134" s="2">
@@ -7733,22 +7700,21 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F134" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G134" s="2">
-        <v>2.15</v>
+        <v>5.2329999999999997</v>
       </c>
       <c r="H134" s="2">
-        <v>1.583</v>
-      </c>
-      <c r="I134" s="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
       <c r="J134" s="2"/>
-      <c r="K134" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -7760,70 +7726,77 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
+      <c r="W134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y134" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA134" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="135" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C135" s="4">
-        <v>3004</v>
-      </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4">
-        <v>10</v>
-      </c>
-      <c r="F135" s="4">
-        <v>2</v>
-      </c>
-      <c r="G135" s="4">
-        <v>4.383</v>
-      </c>
-      <c r="H135" s="4">
-        <v>2.383</v>
-      </c>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
-      <c r="AA135" s="5"/>
-      <c r="AB135" s="5"/>
-      <c r="AC135" s="5"/>
+      <c r="C135" s="2">
+        <v>3005</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
     </row>
     <row r="136" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C136" s="2">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F136" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G136" s="2">
-        <v>5.2329999999999997</v>
+        <v>1.2665999999999999</v>
       </c>
       <c r="H136" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="I136" s="2">
-        <v>1</v>
-      </c>
+        <v>2.0666000000000002</v>
+      </c>
+      <c r="I136" s="2"/>
       <c r="J136" s="2"/>
+      <c r="K136" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -7835,41 +7808,29 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
-      <c r="W136" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="X136" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y136" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA136" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W136" s="2"/>
     </row>
     <row r="137" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C137" s="2">
         <v>3005</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G137" s="2">
-        <v>0</v>
+        <v>2.3666</v>
       </c>
       <c r="H137" s="2">
-        <v>4.2</v>
+        <v>3.5666000000000002</v>
       </c>
       <c r="I137" s="2"/>
-      <c r="J137" s="2" t="s">
-        <v>299</v>
+      <c r="J137" s="2"/>
+      <c r="K137" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -7890,22 +7851,21 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F138" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G138" s="2">
-        <v>1.2665999999999999</v>
+        <v>4.0332999999999997</v>
       </c>
       <c r="H138" s="2">
-        <v>2.0666000000000002</v>
-      </c>
-      <c r="I138" s="2"/>
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
       <c r="J138" s="2"/>
-      <c r="K138" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -7917,63 +7877,75 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
+      <c r="W138" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y138" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA138" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="139" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C139" s="2">
+      <c r="C139" s="4">
         <v>3005</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F139" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G139" s="2">
-        <v>2.3666</v>
+        <v>0</v>
       </c>
       <c r="H139" s="2">
-        <v>3.5666000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
+      <c r="R139" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="S139" s="2">
+        <v>0</v>
+      </c>
       <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
+      <c r="U139" s="2">
+        <v>0</v>
+      </c>
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
     <row r="140" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C140" s="2">
+      <c r="C140" s="4">
         <v>3005</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F140" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G140" s="2">
-        <v>4.0332999999999997</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="H140" s="2">
-        <v>0.76659999999999995</v>
-      </c>
-      <c r="I140" s="2">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
@@ -7981,23 +7953,18 @@
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
-      <c r="R140" s="2"/>
-      <c r="S140" s="2"/>
+      <c r="R140" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S140" s="2">
+        <v>9</v>
+      </c>
       <c r="T140" s="2"/>
-      <c r="U140" s="2"/>
+      <c r="U140" s="2">
+        <v>9</v>
+      </c>
       <c r="V140" s="2"/>
-      <c r="W140" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X140" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y140" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA140" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W140" s="2"/>
     </row>
     <row r="141" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C141" s="2">
@@ -8120,7 +8087,7 @@
         <v>4002</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
@@ -8166,12 +8133,12 @@
         <v>0</v>
       </c>
       <c r="H145" s="2">
-        <v>1.333</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -8195,16 +8162,18 @@
         <v>3</v>
       </c>
       <c r="F146" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G146" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="H146" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
+        <v>2.9670000000000001</v>
+      </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="1" t="s">
-        <v>332</v>
+        <v>121</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -8228,16 +8197,17 @@
         <v>4</v>
       </c>
       <c r="F147" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G147" s="2">
-        <v>1.333</v>
+        <v>0.7</v>
       </c>
       <c r="H147" s="2"/>
-      <c r="I147" s="2">
-        <v>1</v>
-      </c>
+      <c r="I147" s="2"/>
       <c r="J147" s="2"/>
+      <c r="K147" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -8249,42 +8219,25 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
-      <c r="W147" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X147" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y147" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA147" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W147" s="2"/>
     </row>
     <row r="148" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C148" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>4002</v>
+      </c>
+      <c r="D148" s="2"/>
       <c r="E148" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F148" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G148" s="2">
-        <v>0</v>
-      </c>
-      <c r="H148" s="2">
-        <v>1.167</v>
-      </c>
+        <v>1.333</v>
+      </c>
+      <c r="H148" s="2"/>
       <c r="I148" s="2"/>
-      <c r="J148" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="J148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -8296,27 +8249,41 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
+      <c r="W148" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA148" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="149" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C149" s="2">
         <v>5001</v>
       </c>
-      <c r="D149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E149" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H149" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>1.167</v>
+      </c>
       <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="1" t="s">
-        <v>113</v>
+      <c r="J149" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
@@ -8337,19 +8304,20 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F150" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G150" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H150" s="2"/>
-      <c r="I150" s="2">
-        <v>1</v>
-      </c>
+      <c r="I150" s="2"/>
       <c r="J150" s="2"/>
+      <c r="K150" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -8361,42 +8329,27 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
-      <c r="W150" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X150" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y150" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA150" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W150" s="2"/>
     </row>
     <row r="151" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C151" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>5001</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="2">
+        <v>3</v>
+      </c>
+      <c r="F151" s="2">
+        <v>3</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2">
         <v>1</v>
       </c>
-      <c r="F151" s="2">
-        <v>1</v>
-      </c>
-      <c r="G151" s="2">
-        <v>0</v>
-      </c>
-      <c r="H151" s="2">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -8408,27 +8361,41 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
+      <c r="W151" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA151" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="152" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C152" s="2">
         <v>5002</v>
       </c>
-      <c r="D152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="E152" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H152" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
+        <v>2.5670000000000002</v>
+      </c>
       <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="1" t="s">
-        <v>98</v>
+      <c r="J152" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -8449,19 +8416,19 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F153" s="2">
         <v>2</v>
       </c>
       <c r="G153" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -8482,19 +8449,19 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F154" s="2">
         <v>2</v>
       </c>
       <c r="G154" s="2">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -8515,19 +8482,20 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F155" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G155" s="2">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H155" s="2"/>
-      <c r="I155" s="2">
-        <v>1</v>
-      </c>
+      <c r="I155" s="2"/>
       <c r="J155" s="2"/>
+      <c r="K155" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -8539,93 +8507,77 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
-      <c r="W155" s="2" t="s">
+      <c r="W155" s="2"/>
+    </row>
+    <row r="156" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C156" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2">
+        <v>5</v>
+      </c>
+      <c r="F156" s="2">
+        <v>3</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2">
+        <v>1</v>
+      </c>
+      <c r="J156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2"/>
+      <c r="V156" s="2"/>
+      <c r="W156" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X155" s="1" t="s">
+      <c r="X156" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y155" s="1" t="s">
+      <c r="Y156" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA155" s="1">
+      <c r="AA156" s="1">
         <v>800</v>
       </c>
-      <c r="AB155" s="1">
+      <c r="AB156" s="1">
         <v>10</v>
       </c>
-      <c r="AC155" s="1">
+      <c r="AC156" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C156" s="4">
+    <row r="157" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C157" s="4">
         <v>5002</v>
       </c>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4">
+      <c r="D157" s="4"/>
+      <c r="E157" s="4">
         <v>6</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F157" s="4">
         <v>3</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G157" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4">
-        <v>1</v>
-      </c>
-      <c r="J156" s="4"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-      <c r="S156" s="4"/>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="W156" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X156" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y156" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z156" s="5"/>
-      <c r="AA156" s="5">
-        <v>150</v>
-      </c>
-      <c r="AB156" s="5"/>
-      <c r="AC156" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C157" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2">
-        <v>7</v>
-      </c>
-      <c r="F157" s="2">
-        <v>3</v>
-      </c>
-      <c r="G157" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="H157" s="2"/>
+      <c r="H157" s="4"/>
       <c r="I157" s="4">
         <v>1</v>
       </c>
-      <c r="J157" s="2"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="5"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
@@ -8640,68 +8592,83 @@
       <c r="W157" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X157" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y157" s="1" t="s">
+      <c r="X157" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y157" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5">
+        <v>150</v>
+      </c>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C158" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>5002</v>
+      </c>
+      <c r="D158" s="2"/>
       <c r="E158" s="2">
+        <v>7</v>
+      </c>
+      <c r="F158" s="2">
+        <v>3</v>
+      </c>
+      <c r="G158" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="I158" s="4">
         <v>1</v>
       </c>
-      <c r="F158" s="2">
-        <v>1</v>
-      </c>
-      <c r="G158" s="2">
-        <v>0</v>
-      </c>
-      <c r="H158" s="2">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+      <c r="U158" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="159" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C159" s="2">
         <v>6001</v>
       </c>
-      <c r="D159" s="2"/>
+      <c r="D159" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E159" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F159" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G159" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H159" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>1.4670000000000001</v>
+      </c>
       <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="1" t="s">
-        <v>98</v>
+      <c r="J159" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -8722,19 +8689,20 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F160" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G160" s="2">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="H160" s="2"/>
-      <c r="I160" s="2">
-        <v>1</v>
-      </c>
+      <c r="I160" s="2"/>
       <c r="J160" s="2"/>
+      <c r="K160" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -8746,42 +8714,27 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
-      <c r="W160" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X160" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y160" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA160" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W160" s="2"/>
     </row>
     <row r="161" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C161" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>292</v>
-      </c>
+        <v>6001</v>
+      </c>
+      <c r="D161" s="2"/>
       <c r="E161" s="2">
+        <v>3</v>
+      </c>
+      <c r="F161" s="2">
+        <v>3</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2">
         <v>1</v>
       </c>
-      <c r="F161" s="2">
-        <v>1</v>
-      </c>
-      <c r="G161" s="2">
-        <v>0</v>
-      </c>
-      <c r="H161" s="2">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="J161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -8793,27 +8746,41 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
+      <c r="W161" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA161" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="162" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C162" s="2">
         <v>6002</v>
       </c>
-      <c r="D162" s="2"/>
+      <c r="D162" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="E162" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" s="2">
-        <v>2</v>
-      </c>
-      <c r="G162" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H162" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>2.2669999999999999</v>
+      </c>
       <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="1" t="s">
-        <v>98</v>
+      <c r="J162" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -8829,165 +8796,163 @@
       <c r="W162" s="2"/>
     </row>
     <row r="163" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C163" s="4">
+      <c r="C163" s="2">
         <v>6002</v>
       </c>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4">
-        <v>3</v>
-      </c>
-      <c r="F163" s="4">
-        <v>3</v>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2">
+        <v>2</v>
+      </c>
+      <c r="F163" s="2">
+        <v>2</v>
       </c>
       <c r="G163" s="4">
         <v>1.1667000000000001</v>
       </c>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4">
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="2"/>
+    </row>
+    <row r="164" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C164" s="4">
+        <v>6002</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4">
+        <v>3</v>
+      </c>
+      <c r="F164" s="4">
+        <v>3</v>
+      </c>
+      <c r="G164" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4">
         <v>1</v>
       </c>
-      <c r="J163" s="4"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-      <c r="S163" s="4"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="4" t="s">
+      <c r="J164" s="4"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X163" s="5" t="s">
+      <c r="X164" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Y163" s="5" t="s">
+      <c r="Y164" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z163" s="5"/>
-      <c r="AA163" s="5">
+      <c r="Z164" s="5"/>
+      <c r="AA164" s="5">
         <v>1000</v>
       </c>
-      <c r="AB163" s="5"/>
-      <c r="AC163" s="5"/>
-    </row>
-    <row r="164" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C164" s="2">
-        <v>8002</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-      <c r="F164" s="2">
-        <v>1</v>
-      </c>
-      <c r="G164" s="2">
-        <v>0</v>
-      </c>
-      <c r="H164" s="2">
-        <v>4</v>
-      </c>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2"/>
-      <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
+      <c r="AB164" s="5"/>
+      <c r="AC164" s="5"/>
     </row>
     <row r="165" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C165" s="2">
         <v>8002</v>
       </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4">
-        <v>2</v>
-      </c>
-      <c r="F165" s="4">
-        <v>2</v>
-      </c>
-      <c r="G165" s="4">
-        <v>0</v>
-      </c>
-      <c r="H165" s="4">
+      <c r="D165" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="2">
+        <v>1</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
         <v>4</v>
       </c>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L165" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
-      <c r="S165" s="4"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="4"/>
-      <c r="X165" s="5"/>
-      <c r="Y165" s="5"/>
-      <c r="Z165" s="5"/>
-      <c r="AA165" s="5"/>
-      <c r="AB165" s="5"/>
-      <c r="AC165" s="5"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="2"/>
     </row>
     <row r="166" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C166" s="2">
         <v>8002</v>
       </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2">
-        <v>3</v>
-      </c>
-      <c r="F166" s="2">
+      <c r="D166" s="4"/>
+      <c r="E166" s="4">
         <v>2</v>
       </c>
-      <c r="G166" s="2">
-        <v>0</v>
-      </c>
-      <c r="H166" s="2">
+      <c r="F166" s="4">
+        <v>2</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0</v>
+      </c>
+      <c r="H166" s="4">
         <v>4</v>
       </c>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="5"/>
+      <c r="Y166" s="5"/>
+      <c r="Z166" s="5"/>
+      <c r="AA166" s="5"/>
+      <c r="AB166" s="5"/>
+      <c r="AC166" s="5"/>
     </row>
     <row r="167" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C167" s="2">
@@ -8995,7 +8960,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F167" s="2">
         <v>2</v>
@@ -9009,7 +8974,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
@@ -9030,7 +8995,7 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F168" s="2">
         <v>2</v>
@@ -9044,7 +9009,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="1" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
@@ -9065,21 +9030,22 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F169" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G169" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H169" s="2">
-        <v>2</v>
-      </c>
-      <c r="I169" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I169" s="2"/>
       <c r="J169" s="2"/>
+      <c r="K169" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -9091,18 +9057,7 @@
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
-      <c r="W169" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X169" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y169" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA169" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W169" s="2"/>
     </row>
     <row r="170" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C170" s="2">
@@ -9110,18 +9065,20 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F170" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G170" s="2">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H170" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I170" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="I170" s="2">
+        <v>1</v>
+      </c>
       <c r="J170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -9129,18 +9086,23 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
-      <c r="R170" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="S170" s="2">
-        <v>0</v>
-      </c>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
       <c r="T170" s="2"/>
-      <c r="U170" s="2">
-        <v>0</v>
-      </c>
+      <c r="U170" s="2"/>
       <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
+      <c r="W170" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y170" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA170" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="171" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C171" s="2">
@@ -9148,16 +9110,16 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F171" s="2">
         <v>6</v>
       </c>
       <c r="G171" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H171" s="2">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -9168,7 +9130,7 @@
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S171" s="2">
         <v>0</v>
@@ -9186,16 +9148,16 @@
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F172" s="2">
         <v>6</v>
       </c>
       <c r="G172" s="2">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H172" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -9206,51 +9168,53 @@
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="S172" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T172" s="2"/>
       <c r="U172" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
     <row r="173" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C173" s="2">
-        <v>8003</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>8002</v>
+      </c>
+      <c r="D173" s="2"/>
       <c r="E173" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F173" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H173" s="2">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="I173" s="2"/>
-      <c r="J173" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="J173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
+      <c r="R173" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S173" s="2">
+        <v>9</v>
+      </c>
       <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
+      <c r="U173" s="2">
+        <v>9</v>
+      </c>
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
@@ -9258,27 +9222,26 @@
       <c r="C174" s="2">
         <v>8003</v>
       </c>
-      <c r="D174" s="2"/>
+      <c r="D174" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="E174" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
       </c>
       <c r="H174" s="2">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L174" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="J174" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -9297,7 +9260,7 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F175" s="2">
         <v>2</v>
@@ -9306,14 +9269,16 @@
         <v>0</v>
       </c>
       <c r="H175" s="2">
-        <v>1.833</v>
+        <v>1.9</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L175" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -9332,21 +9297,22 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F176" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G176" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H176" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I176" s="2">
-        <v>1</v>
-      </c>
+        <v>1.833</v>
+      </c>
+      <c r="I176" s="2"/>
       <c r="J176" s="2"/>
+      <c r="K176" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -9359,15 +9325,6 @@
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
-      <c r="X176" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y176" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA176" s="1">
-        <v>1000</v>
-      </c>
     </row>
     <row r="177" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C177" s="2">
@@ -9375,18 +9332,20 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F177" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G177" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H177" s="2">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="I177" s="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I177" s="2">
+        <v>1</v>
+      </c>
       <c r="J177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -9394,18 +9353,21 @@
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
-      <c r="R177" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="S177" s="2">
-        <v>0</v>
-      </c>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
       <c r="T177" s="2"/>
-      <c r="U177" s="2">
-        <v>0</v>
-      </c>
+      <c r="U177" s="2"/>
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
+      <c r="X177" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA177" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="178" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C178" s="2">
@@ -9413,16 +9375,16 @@
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F178" s="2">
         <v>6</v>
       </c>
       <c r="G178" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H178" s="2">
-        <v>2.766</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
@@ -9433,7 +9395,7 @@
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
       <c r="R178" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="S178" s="2">
         <v>0</v>
@@ -9447,37 +9409,39 @@
     </row>
     <row r="179" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C179" s="2">
-        <v>8005</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>8003</v>
+      </c>
+      <c r="D179" s="2"/>
       <c r="E179" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F179" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G179" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H179" s="2">
-        <v>4</v>
+        <v>2.766</v>
       </c>
       <c r="I179" s="2"/>
-      <c r="J179" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="J179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
+      <c r="R179" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S179" s="2">
+        <v>1</v>
+      </c>
       <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
+      <c r="U179" s="2">
+        <v>1</v>
+      </c>
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
@@ -9485,12 +9449,14 @@
       <c r="C180" s="2">
         <v>8005</v>
       </c>
-      <c r="D180" s="2"/>
+      <c r="D180" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="E180" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" s="2">
         <v>0</v>
@@ -9499,13 +9465,10 @@
         <v>4</v>
       </c>
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L180" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="J180" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -9524,7 +9487,7 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F181" s="2">
         <v>2</v>
@@ -9538,9 +9501,11 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L181" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -9559,7 +9524,7 @@
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F182" s="2">
         <v>2</v>
@@ -9573,7 +9538,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -9594,7 +9559,7 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F183" s="2">
         <v>2</v>
@@ -9608,7 +9573,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
@@ -9629,21 +9594,22 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F184" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G184" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H184" s="2">
-        <v>2</v>
-      </c>
-      <c r="I184" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I184" s="2"/>
       <c r="J184" s="2"/>
+      <c r="K184" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -9655,18 +9621,7 @@
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
-      <c r="W184" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X184" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y184" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA184" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W184" s="2"/>
     </row>
     <row r="185" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C185" s="2">
@@ -9674,18 +9629,20 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F185" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G185" s="2">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H185" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I185" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="I185" s="2">
+        <v>1</v>
+      </c>
       <c r="J185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
@@ -9693,18 +9650,23 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
-      <c r="R185" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S185" s="2">
-        <v>0</v>
-      </c>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
       <c r="T185" s="2"/>
-      <c r="U185" s="2">
-        <v>0</v>
-      </c>
+      <c r="U185" s="2"/>
       <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
+      <c r="W185" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X185" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y185" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA185" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="186" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C186" s="2">
@@ -9712,16 +9674,16 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F186" s="2">
         <v>6</v>
       </c>
       <c r="G186" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H186" s="2">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -9732,7 +9694,7 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
       <c r="R186" s="2" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="S186" s="2">
         <v>0</v>
@@ -9750,16 +9712,16 @@
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F187" s="2">
         <v>6</v>
       </c>
       <c r="G187" s="2">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H187" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -9770,51 +9732,53 @@
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
       <c r="R187" s="2" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="S187" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T187" s="2"/>
       <c r="U187" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
     <row r="188" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C188" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>8005</v>
+      </c>
+      <c r="D188" s="2"/>
       <c r="E188" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F188" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G188" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H188" s="2">
-        <v>5.6333000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="I188" s="2"/>
-      <c r="J188" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="J188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
+      <c r="R188" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="S188" s="2">
+        <v>9</v>
+      </c>
       <c r="T188" s="2"/>
-      <c r="U188" s="2"/>
+      <c r="U188" s="2">
+        <v>9</v>
+      </c>
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
@@ -9822,39 +9786,35 @@
       <c r="C189" s="2">
         <v>8004</v>
       </c>
-      <c r="D189" s="2"/>
+      <c r="D189" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="E189" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F189" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G189" s="2">
         <v>0</v>
       </c>
       <c r="H189" s="2">
-        <v>5.2332999999999998</v>
+        <v>5.6333000000000002</v>
       </c>
       <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
+      <c r="J189" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
-      <c r="R189" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S189" s="2">
-        <v>0</v>
-      </c>
-      <c r="T189" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="U189" s="2">
-        <v>0</v>
-      </c>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2"/>
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
@@ -9862,30 +9822,29 @@
       <c r="C190" s="2">
         <v>8004</v>
       </c>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4">
-        <v>3</v>
-      </c>
-      <c r="F190" s="4">
+      <c r="D190" s="2"/>
+      <c r="E190" s="2">
+        <v>2</v>
+      </c>
+      <c r="F190" s="2">
         <v>6</v>
       </c>
-      <c r="G190" s="4">
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2">
         <v>5.2332999999999998</v>
       </c>
-      <c r="H190" s="4">
-        <v>3.5666000000000002</v>
-      </c>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
-      <c r="K190" s="5"/>
-      <c r="L190" s="4"/>
-      <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="4"/>
-      <c r="P190" s="4"/>
-      <c r="Q190" s="4"/>
-      <c r="R190" s="4" t="s">
-        <v>213</v>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="S190" s="2">
         <v>0</v>
@@ -9896,49 +9855,55 @@
       <c r="U190" s="2">
         <v>0</v>
       </c>
-      <c r="V190" s="4"/>
-      <c r="W190" s="4"/>
-      <c r="X190" s="5"/>
-      <c r="Y190" s="5"/>
-      <c r="Z190" s="5"/>
-      <c r="AA190" s="5"/>
-      <c r="AB190" s="5"/>
-      <c r="AC190" s="5"/>
+      <c r="V190" s="2"/>
+      <c r="W190" s="2"/>
     </row>
     <row r="191" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C191" s="2">
         <v>8004</v>
       </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2">
-        <v>4</v>
-      </c>
-      <c r="F191" s="2">
-        <v>2</v>
-      </c>
-      <c r="G191" s="2">
-        <v>0</v>
-      </c>
-      <c r="H191" s="2">
-        <v>10.833</v>
-      </c>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
-      <c r="V191" s="2"/>
-      <c r="W191" s="2"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4">
+        <v>3</v>
+      </c>
+      <c r="F191" s="4">
+        <v>6</v>
+      </c>
+      <c r="G191" s="4">
+        <v>5.2332999999999998</v>
+      </c>
+      <c r="H191" s="4">
+        <v>3.5666000000000002</v>
+      </c>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="S191" s="2">
+        <v>0</v>
+      </c>
+      <c r="T191" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="U191" s="2">
+        <v>0</v>
+      </c>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="5"/>
+      <c r="Y191" s="5"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="5"/>
+      <c r="AB191" s="5"/>
+      <c r="AC191" s="5"/>
     </row>
     <row r="192" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C192" s="2">
@@ -9946,21 +9911,21 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F192" s="2">
         <v>2</v>
       </c>
       <c r="G192" s="2">
-        <v>5.1665999999999999</v>
+        <v>0</v>
       </c>
       <c r="H192" s="2">
-        <v>5</v>
+        <v>10.833</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
@@ -9981,21 +9946,21 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F193" s="2">
         <v>2</v>
       </c>
       <c r="G193" s="2">
-        <v>5.3666</v>
+        <v>5.1665999999999999</v>
       </c>
       <c r="H193" s="2">
-        <v>1.6659999999999999</v>
+        <v>5</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
@@ -10016,7 +9981,7 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F194" s="2">
         <v>2</v>
@@ -10025,12 +9990,12 @@
         <v>5.3666</v>
       </c>
       <c r="H194" s="2">
-        <v>5</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
@@ -10051,19 +10016,22 @@
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F195" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195" s="2">
-        <v>5.3666999999999998</v>
+        <v>5.3666</v>
       </c>
       <c r="H195" s="2">
-        <v>0.1333000000000002</v>
+        <v>5</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
+      <c r="K195" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -10075,9 +10043,7 @@
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
-      <c r="W195" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="W195" s="2"/>
     </row>
     <row r="196" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C196" s="2">
@@ -10085,16 +10051,16 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
       </c>
       <c r="G196" s="2">
-        <v>5.5</v>
+        <v>5.3666999999999998</v>
       </c>
       <c r="H196" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.1333000000000002</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -10110,7 +10076,7 @@
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
       <c r="W196" s="2" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="3:29" x14ac:dyDescent="0.2">
@@ -10119,16 +10085,16 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F197" s="2">
         <v>1</v>
       </c>
       <c r="G197" s="2">
-        <v>5.6669999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="H197" s="2">
-        <v>1.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
@@ -10144,31 +10110,27 @@
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
       <c r="W197" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C198" s="2">
         <v>8004</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="D198" s="2"/>
       <c r="E198" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F198" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G198" s="2">
-        <v>6.867</v>
+        <v>5.6669999999999998</v>
       </c>
       <c r="H198" s="2">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I198" s="2">
-        <v>1</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
@@ -10182,93 +10144,95 @@
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
       <c r="W198" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y198" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA198" s="1">
-        <v>1000</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C199" s="2">
         <v>8004</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E199" s="4">
-        <v>12</v>
-      </c>
-      <c r="F199" s="4">
+      <c r="D199" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E199" s="2">
+        <v>11</v>
+      </c>
+      <c r="F199" s="2">
+        <v>3</v>
+      </c>
+      <c r="G199" s="2">
+        <v>6.867</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="I199" s="2">
         <v>1</v>
       </c>
-      <c r="G199" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="H199" s="4">
-        <v>2</v>
-      </c>
-      <c r="I199" s="4"/>
-      <c r="J199" s="4"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
-      <c r="R199" s="4"/>
-      <c r="S199" s="4"/>
-      <c r="T199" s="4"/>
-      <c r="U199" s="4"/>
-      <c r="V199" s="4"/>
+      <c r="J199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+      <c r="V199" s="2"/>
       <c r="W199" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="X199" s="5"/>
-      <c r="Y199" s="5"/>
-      <c r="Z199" s="5"/>
-      <c r="AA199" s="5"/>
-      <c r="AB199" s="5"/>
-      <c r="AC199" s="5"/>
+      <c r="Y199" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA199" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="200" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C200" s="2">
         <v>8004</v>
       </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2">
-        <v>13</v>
-      </c>
-      <c r="F200" s="2">
-        <v>7</v>
+      <c r="D200" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E200" s="4">
+        <v>12</v>
+      </c>
+      <c r="F200" s="4">
+        <v>1</v>
       </c>
       <c r="G200" s="2">
-        <v>0</v>
-      </c>
-      <c r="H200" s="2">
-        <v>12</v>
-      </c>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q200" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-      <c r="V200" s="2"/>
-      <c r="W200" s="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="H200" s="4">
+        <v>2</v>
+      </c>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="X200" s="5"/>
+      <c r="Y200" s="5"/>
+      <c r="Z200" s="5"/>
+      <c r="AA200" s="5"/>
+      <c r="AB200" s="5"/>
+      <c r="AC200" s="5"/>
     </row>
     <row r="201" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C201" s="2">
@@ -10276,7 +10240,7 @@
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F201" s="2">
         <v>7</v>
@@ -10294,10 +10258,10 @@
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q201" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
@@ -10312,7 +10276,7 @@
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F202" s="2">
         <v>7</v>
@@ -10330,10 +10294,10 @@
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
       <c r="P202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q202" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
@@ -10348,7 +10312,7 @@
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F203" s="2">
         <v>7</v>
@@ -10359,31 +10323,24 @@
       <c r="H203" s="2">
         <v>12</v>
       </c>
-      <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
-      <c r="K203" s="5"/>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-      <c r="P203" s="4">
-        <v>4</v>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2">
+        <v>3</v>
       </c>
       <c r="Q203" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="R203" s="4"/>
-      <c r="S203" s="4"/>
-      <c r="T203" s="4"/>
-      <c r="U203" s="4"/>
-      <c r="V203" s="4"/>
-      <c r="W203" s="4"/>
-      <c r="X203" s="5"/>
-      <c r="Y203" s="5"/>
-      <c r="Z203" s="5"/>
-      <c r="AA203" s="5"/>
-      <c r="AB203" s="5"/>
-      <c r="AC203" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+      <c r="V203" s="2"/>
+      <c r="W203" s="2"/>
     </row>
     <row r="204" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C204" s="2">
@@ -10391,7 +10348,7 @@
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F204" s="2">
         <v>7</v>
@@ -10402,24 +10359,31 @@
       <c r="H204" s="2">
         <v>12</v>
       </c>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2">
-        <v>5</v>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4">
+        <v>4</v>
       </c>
       <c r="Q204" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="2"/>
-      <c r="V204" s="2"/>
-      <c r="W204" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+      <c r="X204" s="5"/>
+      <c r="Y204" s="5"/>
+      <c r="Z204" s="5"/>
+      <c r="AA204" s="5"/>
+      <c r="AB204" s="5"/>
+      <c r="AC204" s="5"/>
     </row>
     <row r="205" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C205" s="2">
@@ -10427,7 +10391,7 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F205" s="2">
         <v>7</v>
@@ -10445,10 +10409,10 @@
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="P205" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q205" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
@@ -10463,29 +10427,29 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F206" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G206" s="2">
         <v>0</v>
       </c>
       <c r="H206" s="2">
-        <v>5.4666666666666668</v>
+        <v>12</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
-      <c r="N206" s="2">
-        <v>1</v>
-      </c>
-      <c r="O206" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="24"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q206" s="24" t="s">
+        <v>226</v>
+      </c>
       <c r="R206" s="2"/>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
@@ -10499,7 +10463,7 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F207" s="2">
         <v>5</v>
@@ -10515,10 +10479,10 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O207" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" s="24"/>
@@ -10535,7 +10499,7 @@
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F208" s="2">
         <v>5</v>
@@ -10551,10 +10515,10 @@
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O208" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" s="24"/>
@@ -10569,9 +10533,9 @@
       <c r="C209" s="2">
         <v>8004</v>
       </c>
-      <c r="D209" s="4"/>
+      <c r="D209" s="2"/>
       <c r="E209" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F209" s="2">
         <v>5</v>
@@ -10582,39 +10546,32 @@
       <c r="H209" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I209" s="4"/>
-      <c r="J209" s="4"/>
-      <c r="K209" s="5"/>
-      <c r="L209" s="4"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="4">
-        <v>4</v>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2">
+        <v>3</v>
       </c>
       <c r="O209" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="P209" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="P209" s="2"/>
       <c r="Q209" s="24"/>
-      <c r="R209" s="4"/>
-      <c r="S209" s="4"/>
-      <c r="T209" s="4"/>
-      <c r="U209" s="4"/>
-      <c r="V209" s="4"/>
-      <c r="W209" s="4"/>
-      <c r="X209" s="5"/>
-      <c r="Y209" s="5"/>
-      <c r="Z209" s="5"/>
-      <c r="AA209" s="5"/>
-      <c r="AB209" s="5"/>
-      <c r="AC209" s="5"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+      <c r="V209" s="2"/>
+      <c r="W209" s="2"/>
     </row>
     <row r="210" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C210" s="2">
         <v>8004</v>
       </c>
-      <c r="D210" s="2"/>
+      <c r="D210" s="4"/>
       <c r="E210" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F210" s="2">
         <v>5</v>
@@ -10625,24 +10582,31 @@
       <c r="H210" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2">
-        <v>5</v>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4">
+        <v>4</v>
       </c>
       <c r="O210" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="P210" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="P210" s="4"/>
       <c r="Q210" s="24"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+      <c r="X210" s="5"/>
+      <c r="Y210" s="5"/>
+      <c r="Z210" s="5"/>
+      <c r="AA210" s="5"/>
+      <c r="AB210" s="5"/>
+      <c r="AC210" s="5"/>
     </row>
     <row r="211" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C211" s="2">
@@ -10650,7 +10614,7 @@
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F211" s="2">
         <v>5</v>
@@ -10666,10 +10630,10 @@
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O211" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P211" s="2"/>
       <c r="Q211" s="24"/>
@@ -10686,30 +10650,29 @@
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F212" s="2">
         <v>5</v>
       </c>
       <c r="G212" s="2">
+        <v>0</v>
+      </c>
+      <c r="H212" s="2">
         <v>5.4666666666666668</v>
-      </c>
-      <c r="H212" s="2">
-        <f>171/30</f>
-        <v>5.7</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O212" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
+      <c r="Q212" s="24"/>
       <c r="R212" s="2"/>
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
@@ -10723,7 +10686,7 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F213" s="2">
         <v>5</v>
@@ -10732,7 +10695,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H213" s="2">
-        <f t="shared" ref="H213:H217" si="0">171/30</f>
+        <f>171/30</f>
         <v>5.7</v>
       </c>
       <c r="I213" s="2"/>
@@ -10740,10 +10703,10 @@
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O213" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
@@ -10760,7 +10723,7 @@
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F214" s="2">
         <v>5</v>
@@ -10769,7 +10732,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H214" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H214:H218" si="0">171/30</f>
         <v>5.7</v>
       </c>
       <c r="I214" s="2"/>
@@ -10777,10 +10740,10 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O214" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
@@ -10797,7 +10760,7 @@
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F215" s="2">
         <v>5</v>
@@ -10814,10 +10777,10 @@
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O215" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
@@ -10834,7 +10797,7 @@
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F216" s="2">
         <v>5</v>
@@ -10851,10 +10814,10 @@
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O216" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
@@ -10871,7 +10834,7 @@
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F217" s="2">
         <v>5</v>
@@ -10888,10 +10851,10 @@
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O217" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P217" s="2"/>
       <c r="Q217" s="2"/>
@@ -10906,80 +10869,81 @@
       <c r="C218" s="2">
         <v>8004</v>
       </c>
-      <c r="D218" s="4"/>
+      <c r="D218" s="2"/>
       <c r="E218" s="2">
-        <v>31</v>
-      </c>
-      <c r="F218" s="4">
+        <v>30</v>
+      </c>
+      <c r="F218" s="2">
         <v>5</v>
       </c>
-      <c r="G218" s="4">
+      <c r="G218" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H218" s="2">
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="H218" s="4">
-        <v>12</v>
-      </c>
-      <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
-      <c r="K218" s="5"/>
-      <c r="L218" s="4"/>
-      <c r="M218" s="4"/>
-      <c r="N218" s="4">
-        <v>1</v>
-      </c>
-      <c r="O218" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="P218" s="4"/>
-      <c r="Q218" s="4"/>
-      <c r="R218" s="4"/>
-      <c r="S218" s="4"/>
-      <c r="T218" s="4"/>
-      <c r="U218" s="4"/>
-      <c r="V218" s="4"/>
-      <c r="W218" s="4"/>
-      <c r="X218" s="5"/>
-      <c r="Y218" s="5"/>
-      <c r="Z218" s="5"/>
-      <c r="AA218" s="5"/>
-      <c r="AB218" s="5"/>
-      <c r="AC218" s="5"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2">
+        <v>6</v>
+      </c>
+      <c r="O218" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2"/>
+      <c r="V218" s="2"/>
+      <c r="W218" s="2"/>
     </row>
     <row r="219" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C219" s="2">
         <v>8004</v>
       </c>
-      <c r="D219" s="2"/>
+      <c r="D219" s="4"/>
       <c r="E219" s="2">
-        <v>32</v>
-      </c>
-      <c r="F219" s="2">
+        <v>31</v>
+      </c>
+      <c r="F219" s="4">
         <v>5</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G219" s="4">
         <v>5.7</v>
       </c>
       <c r="H219" s="4">
         <v>12</v>
       </c>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2">
-        <v>2</v>
-      </c>
-      <c r="O219" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
-      <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4">
+        <v>1</v>
+      </c>
+      <c r="O219" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="5"/>
+      <c r="Y219" s="5"/>
+      <c r="Z219" s="5"/>
+      <c r="AA219" s="5"/>
+      <c r="AB219" s="5"/>
+      <c r="AC219" s="5"/>
     </row>
     <row r="220" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C220" s="2">
@@ -10987,7 +10951,7 @@
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F220" s="2">
         <v>5</v>
@@ -11003,10 +10967,10 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
@@ -11023,7 +10987,7 @@
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F221" s="2">
         <v>5</v>
@@ -11039,10 +11003,10 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
@@ -11059,7 +11023,7 @@
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F222" s="2">
         <v>5</v>
@@ -11075,10 +11039,10 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
@@ -11095,7 +11059,7 @@
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F223" s="2">
         <v>5</v>
@@ -11111,10 +11075,10 @@
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
@@ -11127,29 +11091,31 @@
     </row>
     <row r="224" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C224" s="2">
-        <v>9002</v>
+        <v>8004</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F224" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G224" s="2">
-        <v>0</v>
-      </c>
-      <c r="H224" s="2">
-        <v>2.5</v>
+        <v>5.7</v>
+      </c>
+      <c r="H224" s="4">
+        <v>12</v>
       </c>
       <c r="I224" s="2"/>
-      <c r="J224" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="J224" s="2"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
+      <c r="N224" s="2">
+        <v>6</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
@@ -11165,21 +11131,21 @@
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G225" s="2">
-        <v>1.6667000000000001</v>
+        <v>0</v>
       </c>
       <c r="H225" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I225" s="2">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -11191,28 +11157,30 @@
       <c r="T225" s="2"/>
       <c r="U225" s="2"/>
       <c r="V225" s="2"/>
-      <c r="W225" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X225" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y225" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA225" s="1">
-        <v>300</v>
-      </c>
+      <c r="W225" s="2"/>
     </row>
     <row r="226" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C226" s="2"/>
+      <c r="C226" s="2">
+        <v>9002</v>
+      </c>
       <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
+      <c r="E226" s="2">
+        <v>2</v>
+      </c>
+      <c r="F226" s="2">
+        <v>2</v>
+      </c>
+      <c r="G226" s="2">
+        <v>0</v>
+      </c>
+      <c r="H226" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
+      <c r="J226" s="30"/>
+      <c r="K226" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -11227,14 +11195,27 @@
       <c r="W226" s="2"/>
     </row>
     <row r="227" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C227" s="2"/>
+      <c r="C227" s="2">
+        <v>9002</v>
+      </c>
       <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
+      <c r="E227" s="2">
+        <v>3</v>
+      </c>
+      <c r="F227" s="2">
+        <v>2</v>
+      </c>
+      <c r="G227" s="2">
+        <v>0</v>
+      </c>
+      <c r="H227" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
+      <c r="J227" s="30"/>
+      <c r="K227" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -11249,14 +11230,25 @@
       <c r="W227" s="2"/>
     </row>
     <row r="228" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C228" s="2"/>
+      <c r="C228" s="2">
+        <v>9002</v>
+      </c>
       <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
+      <c r="E228" s="2">
+        <v>4</v>
+      </c>
+      <c r="F228" s="2">
+        <v>8</v>
+      </c>
+      <c r="G228" s="2">
+        <v>0.6</v>
+      </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
+      <c r="K228" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -11271,11 +11263,19 @@
       <c r="W228" s="2"/>
     </row>
     <row r="229" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C229" s="2"/>
+      <c r="C229" s="2">
+        <v>9002</v>
+      </c>
       <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
+      <c r="E229" s="2">
+        <v>5</v>
+      </c>
+      <c r="F229" s="2">
+        <v>3</v>
+      </c>
+      <c r="G229" s="2">
+        <v>1.2666999999999999</v>
+      </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
@@ -11290,17 +11290,40 @@
       <c r="T229" s="2"/>
       <c r="U229" s="2"/>
       <c r="V229" s="2"/>
-      <c r="W229" s="2"/>
+      <c r="W229" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X229" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y229" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA229" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="230" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C230" s="2"/>
+      <c r="C230" s="2">
+        <v>9003</v>
+      </c>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
+      <c r="E230" s="2">
+        <v>1</v>
+      </c>
+      <c r="F230" s="2">
+        <v>1</v>
+      </c>
+      <c r="G230" s="2">
+        <v>0</v>
+      </c>
+      <c r="H230" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
+      <c r="J230" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -11315,14 +11338,27 @@
       <c r="W230" s="2"/>
     </row>
     <row r="231" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C231" s="2"/>
+      <c r="C231" s="2">
+        <v>9003</v>
+      </c>
       <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
+      <c r="E231" s="2">
+        <v>2</v>
+      </c>
+      <c r="F231" s="2">
+        <v>2</v>
+      </c>
+      <c r="G231" s="2">
+        <v>0</v>
+      </c>
+      <c r="H231" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
+      <c r="J231" s="30"/>
+      <c r="K231" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -11337,14 +11373,27 @@
       <c r="W231" s="2"/>
     </row>
     <row r="232" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C232" s="2"/>
+      <c r="C232" s="2">
+        <v>9003</v>
+      </c>
       <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
+      <c r="E232" s="2">
+        <v>3</v>
+      </c>
+      <c r="F232" s="2">
+        <v>2</v>
+      </c>
+      <c r="G232" s="2">
+        <v>0</v>
+      </c>
+      <c r="H232" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
+      <c r="J232" s="30"/>
+      <c r="K232" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
@@ -11359,11 +11408,19 @@
       <c r="W232" s="2"/>
     </row>
     <row r="233" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C233" s="2"/>
+      <c r="C233" s="2">
+        <v>9003</v>
+      </c>
       <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
+      <c r="E233" s="2">
+        <v>4</v>
+      </c>
+      <c r="F233" s="2">
+        <v>3</v>
+      </c>
+      <c r="G233" s="2">
+        <v>1.2666999999999999</v>
+      </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
@@ -11535,33 +11592,55 @@
       <c r="W240" s="2"/>
     </row>
     <row r="241" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4"/>
-      <c r="G241" s="4"/>
-      <c r="H241" s="4"/>
-      <c r="I241" s="4"/>
-      <c r="J241" s="4"/>
-      <c r="K241" s="5"/>
-      <c r="L241" s="4"/>
-      <c r="M241" s="4"/>
-      <c r="N241" s="4"/>
-      <c r="O241" s="4"/>
-      <c r="P241" s="4"/>
-      <c r="Q241" s="4"/>
-      <c r="R241" s="4"/>
-      <c r="S241" s="4"/>
-      <c r="T241" s="4"/>
-      <c r="U241" s="4"/>
-      <c r="V241" s="4"/>
-      <c r="W241" s="4"/>
-      <c r="X241" s="5"/>
-      <c r="Y241" s="5"/>
-      <c r="Z241" s="5"/>
-      <c r="AA241" s="5"/>
-      <c r="AB241" s="5"/>
-      <c r="AC241" s="5"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2"/>
+      <c r="V241" s="2"/>
+      <c r="W241" s="2"/>
+    </row>
+    <row r="242" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="4"/>
+      <c r="S242" s="4"/>
+      <c r="T242" s="4"/>
+      <c r="U242" s="4"/>
+      <c r="V242" s="4"/>
+      <c r="W242" s="4"/>
+      <c r="X242" s="5"/>
+      <c r="Y242" s="5"/>
+      <c r="Z242" s="5"/>
+      <c r="AA242" s="5"/>
+      <c r="AB242" s="5"/>
+      <c r="AC242" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\tags\tag_20210525\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01DBEEA-0DC8-496B-A606-044E690B630A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7D45EB-4F36-49FD-A7BA-88527A58C897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2515,10 +2515,10 @@
   <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="Q118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H123" sqref="H123"/>
+      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="2">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="2">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2" t="s">

--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\tags\tag_20210525\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7D45EB-4F36-49FD-A7BA-88527A58C897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2FABEB-0598-47B5-8C7D-D4CE6BD7CAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="330">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1363,6 +1363,10 @@
   </si>
   <si>
     <t>CM_vcam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2515,10 +2519,10 @@
   <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4422,7 +4426,9 @@
       <c r="K45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L45" s="15"/>
+      <c r="L45" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
